--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AD8935-61B6-43DF-8770-C5AFF43547D0}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="315" windowWidth="23190" windowHeight="15060" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="4800" yWindow="480" windowWidth="19890" windowHeight="15060" activeTab="2" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Plazo</t>
   </si>
@@ -83,11 +84,20 @@
   <si>
     <t>Supuesto</t>
   </si>
+  <si>
+    <t>BPOB7</t>
+  </si>
+  <si>
+    <t>Paridad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +164,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +550,9 @@
       <c r="K2" s="2">
         <v>6</v>
       </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -550,13 +565,22 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
       </c>
       <c r="K3" s="2">
         <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>90.94</v>
+      </c>
+      <c r="O3" s="11">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -596,20 +620,21 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>7.9200000000000007E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="3">
         <v>7.7499999999999999E-2</v>
       </c>
       <c r="G6" s="3">
-        <v>0.04</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="I6" s="3">
-        <v>6.5000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="K6" s="3">
         <v>0.06</v>
       </c>
+      <c r="N6" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -675,7 +700,10 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6">
+        <f>+$G$8*$G$6</f>
+        <v>75</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -691,17 +719,11 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <f>+$G$8*$G$6/$G$3</f>
-        <v>200</v>
-      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -717,12 +739,12 @@
       </c>
       <c r="B12" s="8">
         <f>SUM(C12:L12)</f>
-        <v>576.20000000000005</v>
+        <v>75</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8">
         <f>SUM(D8:D11)</f>
-        <v>376.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8">
@@ -732,7 +754,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8">
         <f>SUM(H8:H11)</f>
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8">
@@ -752,7 +774,10 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -776,7 +801,10 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <f>+$G$8*$G$6</f>
+        <v>75</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -792,10 +820,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -815,7 +840,10 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
         <f>+$E$9*$E$6/$E$3</f>
@@ -826,7 +854,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -845,7 +873,10 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <f t="shared" ref="H14:H17" si="0">+$G$8*$G$6/$G$3</f>
+        <v>75</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -861,17 +892,11 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6">
-        <f>+$G$8*$G$6/$G$3</f>
-        <v>200</v>
-      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -887,7 +912,10 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -913,7 +941,10 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6">
+        <f t="shared" ref="H19:H23" si="1">+$G$8*$G$6/$G$3</f>
+        <v>75</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -929,10 +960,7 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -952,7 +980,10 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6">
         <f>+$E$9*$E$6/$E$3</f>
@@ -963,7 +994,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -981,8 +1012,13 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="6">
+        <v>3333</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -998,17 +1034,11 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6">
-        <f>+$G$8*$G$6/$G$3</f>
-        <v>200</v>
-      </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -1027,12 +1057,12 @@
       </c>
       <c r="B25" s="8">
         <f>SUM(C25:L25)</f>
-        <v>4637.4324999999999</v>
+        <v>4416.6324999999997</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8">
         <f>SUM(D13:D24)</f>
-        <v>1504.8000000000002</v>
+        <v>1330.0000000000002</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
@@ -1042,12 +1072,12 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8">
         <f>SUM(H13:H24)</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8">
         <f>SUM(J13:J24)</f>
-        <v>1170</v>
+        <v>1224</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8">
@@ -1065,7 +1095,10 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1088,8 +1121,13 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="G27" s="6">
+        <v>3333</v>
+      </c>
+      <c r="H27" s="6">
+        <f>+G8*0.503%</f>
+        <v>50.3</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -1105,10 +1143,7 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1128,7 +1163,10 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6">
         <f>+$E$9*$E$6/$E$3</f>
@@ -1139,7 +1177,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -1157,8 +1195,13 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="6">
+        <v>3333</v>
+      </c>
+      <c r="H30" s="6">
+        <f>+$G$8*0.00255</f>
+        <v>25.500000000000004</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -1174,20 +1217,11 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6">
-        <f>+G8</f>
-        <v>10000</v>
-      </c>
-      <c r="H31" s="6">
-        <f>+$G$8*$G$6/$G$3</f>
-        <v>200</v>
-      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -1206,7 +1240,10 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -1246,10 +1283,7 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -1269,7 +1303,10 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6">
         <f>+$E$9*$E$6/$E$3</f>
@@ -1280,7 +1317,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
@@ -1315,10 +1352,7 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -1341,12 +1375,12 @@
       </c>
       <c r="B38" s="8">
         <f>SUM(C38:L38)</f>
-        <v>4437.4324999999999</v>
+        <v>4192.4325000000008</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8">
         <f>SUM(D26:D37)</f>
-        <v>1504.8000000000002</v>
+        <v>1330.0000000000002</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8">
@@ -1356,12 +1390,12 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8">
         <f>SUM(H26:H37)</f>
-        <v>200</v>
+        <v>75.8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8">
         <f>SUM(J26:J37)</f>
-        <v>1170</v>
+        <v>1224</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8">
@@ -1379,7 +1413,10 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -1419,10 +1456,7 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>376.20000000000005</v>
-      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -1456,7 +1490,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
@@ -1585,7 +1619,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -1643,12 +1677,12 @@
       </c>
       <c r="B51" s="8">
         <f>SUM(C51:L51)</f>
-        <v>3108.8325</v>
+        <v>3119.1324999999997</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8">
         <f>SUM(D39:D50)</f>
-        <v>376.20000000000005</v>
+        <v>332.50000000000006</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8">
@@ -1663,7 +1697,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8">
         <f>SUM(J39:J50)</f>
-        <v>1170</v>
+        <v>1224</v>
       </c>
       <c r="K51" s="8"/>
       <c r="L51" s="8">
@@ -1752,7 +1786,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -1881,7 +1915,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -1939,7 +1973,7 @@
       </c>
       <c r="B64" s="8">
         <f>SUM(C64:L64)</f>
-        <v>1951.3162499999999</v>
+        <v>2005.3162499999999</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8">
@@ -1959,7 +1993,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="8">
         <f>SUM(J52:J63)</f>
-        <v>1170</v>
+        <v>1224</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8">
@@ -2045,7 +2079,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6">
         <f>+$I$9*$I$6/$I$3</f>
-        <v>585</v>
+        <v>612</v>
       </c>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -2672,4 +2706,28 @@
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Documento: Personal&amp;1#_x000D_</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96D38A-F672-4D30-A69A-75917CC1E7A8}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10000</v>
+      </c>
+      <c r="B2">
+        <f>+A2/0.6789</f>
+        <v>14729.709824716454</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71AD8935-61B6-43DF-8770-C5AFF43547D0}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAFD246-E0DE-493E-A712-D204D2AFE83A}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="480" windowWidth="19890" windowHeight="15060" activeTab="2" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,355 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>FARINA SAINT SELVE, EDUARDO ALBERTO</author>
+  </authors>
+  <commentList>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{BC280FF9-F671-4F8E-AEDA-103B622D35EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24/01/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{B677DEF0-79CD-4801-A5F5-A6AC2C69E61A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+28/02/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{DFB661D5-3B46-441E-AB3D-B5C775B1E1B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/4/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{548581B3-05C0-45CA-9B6F-4784FBF70E11}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+24/04/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{1F0B6280-664C-4613-8391-EFB865713AF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0" xr:uid="{8BCF2550-D444-479C-B28D-BCFA2310B670}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{11FDBC7D-6C0C-4E04-B394-DA1F083DA36C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+2/6/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="0" shapeId="0" xr:uid="{69CA36CE-A235-4144-8F90-D8BCBE832CCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+01/09/2025
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{174F8621-6030-42CF-BEAE-5AF5E0284BDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0" xr:uid="{1A7FEDB0-64B3-4043-8928-A9CCE014FD42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="0" shapeId="0" xr:uid="{8317EAB6-71B7-4A75-BF07-8A76DD9B51F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N26" authorId="0" shapeId="0" xr:uid="{99AEFD63-FA8B-4D00-AC1B-17ACA162FB1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L32" authorId="0" shapeId="0" xr:uid="{F801E1AC-1AB3-4E04-B2BD-D8F1B20850F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N32" authorId="0" shapeId="0" xr:uid="{148F1A18-2787-4F65-9CC4-88E9A7D29C0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Plazo</t>
   </si>
@@ -67,9 +414,6 @@
     <t>Tecpe</t>
   </si>
   <si>
-    <t>Total 2024</t>
-  </si>
-  <si>
     <t>Total 2025</t>
   </si>
   <si>
@@ -82,23 +426,23 @@
     <t>Total 2028</t>
   </si>
   <si>
-    <t>Supuesto</t>
+    <t>On Minear</t>
   </si>
   <si>
-    <t>BPOB7</t>
+    <t>CNH</t>
   </si>
   <si>
-    <t>Paridad</t>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Pluspe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +457,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,13 +522,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,6 +544,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,38 +866,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
-  <dimension ref="A1:P76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
-    <col min="4" max="13" width="9.140625" style="2"/>
+    <col min="4" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="10.85546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -550,11 +927,17 @@
       <c r="K2" s="2">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M2" s="2">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -573,17 +956,17 @@
       <c r="K3" s="2">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <v>90.94</v>
-      </c>
-      <c r="O3" s="11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -599,8 +982,9 @@
       <c r="I4" s="1">
         <v>47392</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -614,8 +998,20 @@
       <c r="I5" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K5" s="2">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>24</v>
+      </c>
+      <c r="O5" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -623,7 +1019,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="3">
-        <v>7.7499999999999999E-2</v>
+        <v>7.8799999999999995E-2</v>
       </c>
       <c r="G6" s="3">
         <v>7.4999999999999997E-3</v>
@@ -632,69 +1028,92 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="K6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="M6" s="3">
         <v>0.06</v>
       </c>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45536</v>
+      <c r="O6" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="6">
-        <f>SUM(C8:K8)</f>
-        <v>29000</v>
+        <f>SUM(C8:U8)</f>
+        <v>91163</v>
       </c>
       <c r="C8" s="6">
         <v>19000</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6">
+        <v>20163</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
         <v>10000</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6">
+        <v>18000</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6">
+        <v>4000</v>
+      </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="6">
+        <v>4000</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>8000</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="B9" s="6">
-        <f>SUM(C9:K9)</f>
-        <v>38163</v>
+        <f>+D9+F9+H9+J9+L9+N9+P9</f>
+        <v>332.50000000000006</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>20163</v>
-      </c>
+      <c r="D9" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="6">
-        <v>18000</v>
-      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45597</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>45689</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" ref="B10:B20" si="0">+D10+F10+H10+J10+L10+N10+P10</f>
+        <v>75</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -709,15 +1128,18 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45627</v>
-      </c>
-      <c r="B11" s="6"/>
+        <v>45717</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -729,55 +1151,52 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8">
-        <f>SUM(C12:L12)</f>
-        <v>75</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8">
-        <f>SUM(D8:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <f>SUM(F8:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <f>SUM(H8:H11)</f>
-        <v>75</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8">
-        <f>SUM(J8:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45658</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="0"/>
+        <v>1738.9222</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
       </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <f>+$E$8*$E$6/$E$3</f>
+        <v>794.42219999999998</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -785,24 +1204,33 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6">
+        <f>+$K$8*$K$6/$K$3</f>
+        <v>160</v>
+      </c>
       <c r="M13" s="6"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="6">
+        <f>+$M$8*$M$6/$M$3</f>
+        <v>120</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45689</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>45809</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6">
-        <f>+$G$8*$G$6</f>
+        <f>+$G$8*$G$6/$G$3</f>
         <v>75</v>
       </c>
       <c r="I14" s="6"/>
@@ -810,71 +1238,82 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45717</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>45839</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="0"/>
+        <v>332.50000000000006</v>
+      </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="R15" s="6">
+        <f>+$Q$8*$Q$6/$Q$3</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45748</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>45870</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>332.50000000000006</v>
-      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <f>+$E$9*$E$6/$E$3</f>
-        <v>781.31624999999997</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45778</v>
-      </c>
-      <c r="B17" s="6"/>
+        <v>45901</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6">
-        <f t="shared" ref="H14:H17" si="0">+$G$8*$G$6/$G$3</f>
+        <f>+$G$8*$G$6/$G$3</f>
         <v>75</v>
       </c>
       <c r="I17" s="6"/>
@@ -882,67 +1321,91 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45809</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>45931</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>1902.9222</v>
+      </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6">
+        <f>+$E$8*$E$6/$E$3</f>
+        <v>794.42219999999998</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45839</v>
-      </c>
-      <c r="B19" s="6"/>
+        <v>45962</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>332.50000000000006</v>
-      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
+        <f>+$K$8*$K$6/$K$3</f>
+        <v>160</v>
+      </c>
       <c r="M19" s="6"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N19" s="6">
+        <f>+$M$8*$M$6/$M$3</f>
+        <v>120</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45870</v>
-      </c>
-      <c r="B20" s="6"/>
+        <v>45992</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6">
+        <v>3333</v>
+      </c>
       <c r="H20" s="6">
-        <f t="shared" ref="H19:H23" si="1">+$G$8*$G$6/$G$3</f>
+        <f t="shared" ref="H20" si="1">+$G$8*$G$6/$G$3</f>
         <v>75</v>
       </c>
       <c r="I20" s="6"/>
@@ -950,64 +1413,100 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45901</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="7"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="7">
+        <f>SUM(C21:R21)</f>
+        <v>5446.8444</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <f>SUM(D9:D20)</f>
+        <v>1330.0000000000002</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7">
+        <f>SUM(F9:F20)</f>
+        <v>1588.8444</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <f>SUM(H9:H20)</f>
+        <v>300</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
+        <f>SUM(J9:J20)</f>
+        <v>1224</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
+        <f>SUM(L9:L20)</f>
+        <v>320</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7">
+        <f>SUM(N9:N20)</f>
+        <v>240</v>
+      </c>
       <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="7">
+        <f>SUM(P9:P20)</f>
+        <v>164</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7">
+        <f t="shared" ref="R21" si="2">SUM(R9:R20)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45931</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>46023</v>
+      </c>
+      <c r="B22" s="6">
+        <f>+D22+F22+H22+J22+L22+N22+P22</f>
+        <v>496.50000000000006</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6">
-        <f>+$E$9*$E$6/$E$3</f>
-        <v>781.31624999999997</v>
-      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
+      <c r="R22" s="6">
+        <f>+$Q$8*$Q$6/$Q$3</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45962</v>
-      </c>
-      <c r="B23" s="6"/>
+        <v>46054</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" ref="B23:B33" si="3">+D23+F23+H23+J23+L23+N23+P23</f>
+        <v>50.3</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1016,23 +1515,26 @@
         <v>3333</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f>+G8*0.503%</f>
+        <v>50.3</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45992</v>
-      </c>
-      <c r="B24" s="6"/>
+        <v>46082</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1042,108 +1544,117 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="6">
-        <f>+$K$19*$K$6/$K$3</f>
-        <v>0</v>
-      </c>
+      <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="8">
-        <f>SUM(C25:L25)</f>
-        <v>4416.6324999999997</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8">
-        <f>SUM(D13:D24)</f>
-        <v>1330.0000000000002</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <f>SUM(F13:F24)</f>
-        <v>1562.6324999999999</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8">
-        <f>SUM(H13:H24)</f>
-        <v>300</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8">
-        <f>SUM(J13:J24)</f>
-        <v>1224</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8">
-        <f>SUM(L13:L24)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>46023</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6">
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>46113</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="3"/>
+        <v>1902.9222</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
       </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
+        <f>+$E$8*$E$6/$E$3</f>
+        <v>794.42219999999998</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>46143</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="3"/>
+        <v>305.5</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="6">
+        <v>3333</v>
+      </c>
+      <c r="H26" s="6">
+        <f>+$G$8*0.00255</f>
+        <v>25.500000000000004</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6">
+        <f>+$K$8*$K$6/$K$3</f>
+        <v>160</v>
+      </c>
       <c r="M26" s="6"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N26" s="6">
+        <f>+$M$8*$M$6/$M$3</f>
+        <v>120</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>46054</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>46174</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6">
-        <v>3333</v>
-      </c>
-      <c r="H27" s="6">
-        <f>+G8*0.503%</f>
-        <v>50.3</v>
-      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>46082</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>46204</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="3"/>
+        <v>496.50000000000006</v>
+      </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1153,115 +1664,137 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>46113</v>
-      </c>
-      <c r="B29" s="6"/>
+        <v>46235</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>332.50000000000006</v>
-      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6">
-        <f>+$E$9*$E$6/$E$3</f>
-        <v>781.31624999999997</v>
-      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>46143</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>46266</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6">
-        <v>3333</v>
-      </c>
-      <c r="H30" s="6">
-        <f>+$G$8*0.00255</f>
-        <v>25.500000000000004</v>
-      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>46174</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>46296</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="3"/>
+        <v>1902.9222</v>
+      </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="6">
+        <f>+$C$8*$C$6/$C$3</f>
+        <v>332.50000000000006</v>
+      </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="6">
+        <f>+$E$8*$E$6/$E$3</f>
+        <v>794.42219999999998</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
       <c r="K31" s="6"/>
-      <c r="L31" s="6">
-        <f>+$K$19*$K$6/$K$3</f>
-        <v>0</v>
-      </c>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>46204</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>46327</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>332.50000000000006</v>
-      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="K32" s="6">
+        <f>+K8/2</f>
+        <v>2000</v>
+      </c>
+      <c r="L32" s="6">
+        <f>+$K$8*$K$6/$K$3</f>
+        <v>160</v>
+      </c>
+      <c r="M32" s="6">
+        <f>+M8</f>
+        <v>4000</v>
+      </c>
+      <c r="N32" s="6">
+        <f>+$M$8*$M$6/$M$3</f>
+        <v>120</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>46235</v>
-      </c>
-      <c r="B33" s="6"/>
+        <v>46357</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -1273,33 +1806,57 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>46266</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="7"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+    </row>
+    <row r="34" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="7">
+        <f>SUM(C34:L34)</f>
+        <v>4538.6444000000001</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7">
+        <f>SUM(D22:D33)</f>
+        <v>1330.0000000000002</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
+        <f>SUM(F22:F33)</f>
+        <v>1588.8444</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7">
+        <f>SUM(H22:H33)</f>
+        <v>75.8</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7">
+        <f>SUM(J22:J33)</f>
+        <v>1224</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
+        <f>SUM(L22:L33)</f>
+        <v>320</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7">
+        <f>SUM(N22:N33)</f>
+        <v>240</v>
+      </c>
       <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+      <c r="P34" s="7">
+        <f>SUM(P22:P33)</f>
+        <v>656</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>46296</v>
+        <v>46388</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1308,27 +1865,24 @@
         <v>332.50000000000006</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="6">
-        <f>+$E$9*$E$6/$E$3</f>
-        <v>781.31624999999997</v>
-      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
-      <c r="J35" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>46327</v>
+        <v>46419</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1342,13 +1896,13 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>46357</v>
+        <v>46447</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1360,79 +1914,70 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="6">
-        <f>+$K$19*$K$6/$K$3</f>
-        <v>0</v>
-      </c>
+      <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-    </row>
-    <row r="38" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="8">
-        <f>SUM(C38:L38)</f>
-        <v>4192.4325000000008</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8">
-        <f>SUM(D26:D37)</f>
-        <v>1330.0000000000002</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8">
-        <f>SUM(F26:F37)</f>
-        <v>1562.6324999999999</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8">
-        <f>SUM(H26:H37)</f>
-        <v>75.8</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8">
-        <f>SUM(J26:J37)</f>
-        <v>1224</v>
-      </c>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8">
-        <f>SUM(L26:L37)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>46478</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6">
+        <f>+C8</f>
+        <v>19000</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <f>+$E$8*$E$6/$E$3</f>
+        <v>794.42219999999998</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>46388</v>
+        <v>46508</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>332.50000000000006</v>
-      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
+      <c r="K39" s="6">
+        <f>+K32</f>
+        <v>2000</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>46419</v>
+        <v>46539</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1446,13 +1991,13 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>46447</v>
+        <v>46569</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1466,42 +2011,36 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>46478</v>
+        <v>46600</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="6">
-        <f>+C8</f>
-        <v>19000</v>
-      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="6">
-        <f>+$E$9*$E$6/$E$3</f>
-        <v>781.31624999999997</v>
-      </c>
+      <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>46508</v>
+        <v>46631</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1515,36 +2054,42 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>46539</v>
+        <v>46661</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="6">
+        <f>+$E$8*$E$6/$E$3</f>
+        <v>794.42219999999998</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="J44" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
       <c r="K44" s="6"/>
-      <c r="L44" s="6">
-        <f>+$K$19*$K$6/$K$3</f>
-        <v>0</v>
-      </c>
+      <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>46569</v>
+        <v>46692</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1558,13 +2103,13 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>46600</v>
+        <v>46722</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -1576,61 +2121,88 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+      <c r="L46" s="6">
+        <f>+$K$15*$K$6/$K$3</f>
+        <v>0</v>
+      </c>
       <c r="M46" s="6"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46631</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="7"/>
+      <c r="N46" s="6">
+        <f>+$K$15*$K$6/$K$3</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="7">
+        <f>SUM(C47:L47)</f>
+        <v>3145.3444</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7">
+        <f>SUM(D35:D46)</f>
+        <v>332.50000000000006</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7">
+        <f>SUM(F35:F46)</f>
+        <v>1588.8444</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7">
+        <f>SUM(H35:H46)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7">
+        <f>SUM(J35:J46)</f>
+        <v>1224</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
+        <f>SUM(L35:L46)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
+        <f>SUM(N35:N46)</f>
+        <v>0</v>
+      </c>
       <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
+      <c r="P47" s="7">
+        <f>SUM(P35:P46)</f>
+        <v>656</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>46661</v>
+        <v>46753</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6">
-        <f>+$E$9*$E$6/$E$3</f>
-        <v>781.31624999999997</v>
-      </c>
+      <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>46692</v>
+        <v>46784</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1644,13 +2216,13 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>46722</v>
+        <v>46813</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -1662,56 +2234,44 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="6">
-        <f>+$K$19*$K$6/$K$3</f>
-        <v>0</v>
-      </c>
+      <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-    </row>
-    <row r="51" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="8">
-        <f>SUM(C51:L51)</f>
-        <v>3119.1324999999997</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8">
-        <f>SUM(D39:D50)</f>
-        <v>332.50000000000006</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8">
-        <f>SUM(F39:F50)</f>
-        <v>1562.6324999999999</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8">
-        <f>SUM(H39:H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8">
-        <f>SUM(J39:J50)</f>
-        <v>1224</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8">
-        <f>SUM(L39:L50)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>46844</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6">
+        <f>+$E$8*$E$6/$E$3</f>
+        <v>794.42219999999998</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>46753</v>
+        <v>46874</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -1725,13 +2285,13 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>46784</v>
+        <v>46905</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1743,15 +2303,21 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="L53" s="6">
+        <f>+$K$15*$K$6/$K$3</f>
+        <v>0</v>
+      </c>
       <c r="M53" s="6"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
+      <c r="N53" s="6">
+        <f>+$K$15*$K$6/$K$3</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>46813</v>
+        <v>46935</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -1765,39 +2331,36 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>46844</v>
+        <v>46966</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6">
-        <f>+$E$9*$E$6/$E$3</f>
-        <v>781.31624999999997</v>
-      </c>
+      <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>46874</v>
+        <v>46997</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1811,36 +2374,42 @@
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>46905</v>
+        <v>47027</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
+      <c r="E57" s="6">
+        <f>+E8</f>
+        <v>20163</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
+      <c r="J57" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
       <c r="K57" s="6"/>
-      <c r="L57" s="6">
-        <f>+$K$19*$K$6/$K$3</f>
-        <v>0</v>
-      </c>
+      <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>46935</v>
+        <v>47058</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -1854,13 +2423,13 @@
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>46966</v>
+        <v>47088</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1872,61 +2441,88 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+      <c r="L59" s="6">
+        <f>+$K$15*$K$6/$K$3</f>
+        <v>0</v>
+      </c>
       <c r="M59" s="6"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>46997</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="7"/>
+      <c r="N59" s="6">
+        <f>+$K$15*$K$6/$K$3</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="7">
+        <f>SUM(C60:L60)</f>
+        <v>2018.4222</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7">
+        <f>SUM(D48:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7">
+        <f>SUM(F48:F59)</f>
+        <v>794.42219999999998</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7">
+        <f>SUM(H48:H59)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7">
+        <f>SUM(J48:J59)</f>
+        <v>1224</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7">
+        <f>SUM(L48:L59)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7">
+        <f>SUM(N48:N59)</f>
+        <v>0</v>
+      </c>
       <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
+      <c r="P60" s="7">
+        <f>SUM(P48:P59)</f>
+        <v>656</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>47027</v>
+        <v>47119</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="6">
-        <f>+E9</f>
-        <v>20163</v>
-      </c>
+      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>47058</v>
+        <v>47150</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1940,13 +2536,13 @@
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>47088</v>
+        <v>47178</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1958,56 +2554,41 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="6">
-        <f>+$K$19*$K$6/$K$3</f>
-        <v>0</v>
-      </c>
+      <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-    </row>
-    <row r="64" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="8">
-        <f>SUM(C64:L64)</f>
-        <v>2005.3162499999999</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8">
-        <f>SUM(D52:D63)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8">
-        <f>SUM(F52:F63)</f>
-        <v>781.31624999999997</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8">
-        <f>SUM(H52:H63)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8">
-        <f>SUM(J52:J63)</f>
-        <v>1224</v>
-      </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8">
-        <f>SUM(L52:L63)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="8"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>47209</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6">
+        <f>+$I$8*$I$6/$I$3</f>
+        <v>612</v>
+      </c>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>47119</v>
+        <v>47239</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2021,13 +2602,13 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>47150</v>
+        <v>47270</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2041,13 +2622,13 @@
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>47178</v>
+        <v>47300</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2061,13 +2642,16 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>47209</v>
+        <v>47331</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2077,20 +2661,17 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="6">
-        <f>+$I$9*$I$6/$I$3</f>
-        <v>612</v>
-      </c>
+      <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>47239</v>
+        <v>47362</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2104,13 +2685,13 @@
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>47270</v>
+        <v>47392</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2124,13 +2705,16 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6">
+        <f>+$O$8*$O$6/$O$3</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>47300</v>
+        <v>47423</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2144,13 +2728,13 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>47331</v>
+        <v>47453</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2164,95 +2748,16 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>47362</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>47392</v>
-      </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>47423</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>47453</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Documento: Personal&amp;1#_x000D_</oddHeader>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2712,7 +3217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96D38A-F672-4D30-A69A-75917CC1E7A8}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="184" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CAFD246-E0DE-493E-A712-D204D2AFE83A}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{643A09A1-4EF8-4F9B-B551-4BDCB7510C89}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -385,7 +386,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Plazo</t>
   </si>
@@ -436,6 +437,27 @@
   </si>
   <si>
     <t>Pluspe</t>
+  </si>
+  <si>
+    <t>Venta Gringo</t>
+  </si>
+  <si>
+    <t>Dolares</t>
+  </si>
+  <si>
+    <t>Interes</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Pesos por mes</t>
+  </si>
+  <si>
+    <t>Dólar por mes</t>
+  </si>
+  <si>
+    <t>Ledesma</t>
   </si>
 </sst>
 </file>
@@ -504,7 +526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +550,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,6 +580,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239860</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>67828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A010EAC7-E007-7964-5887-12873FAEC074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12431860" cy="8259328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>477763</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>172218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BAE966-EA75-9964-D662-1E137E5BD73C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8382000"/>
+          <a:ext cx="10840963" cy="5506218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,22 +996,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
-    <col min="4" max="14" width="9.140625" style="2"/>
+    <col min="3" max="3" width="11.28515625" style="2" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="11.140625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="10.85546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" s="8" t="s">
         <v>5</v>
       </c>
@@ -904,11 +1035,14 @@
       <c r="O1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -936,8 +1070,11 @@
       <c r="Q2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -965,8 +1102,11 @@
       <c r="Q3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -984,7 +1124,7 @@
       </c>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1010,8 +1150,11 @@
       <c r="Q5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1034,19 +1177,23 @@
         <v>0.06</v>
       </c>
       <c r="O6" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q6" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S6" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6">
         <f>SUM(C8:U8)</f>
-        <v>91163</v>
+        <v>95163</v>
       </c>
       <c r="C8" s="6">
         <v>19000</v>
@@ -1079,19 +1226,21 @@
       <c r="Q8">
         <v>8000</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45658</v>
       </c>
       <c r="B9" s="6">
-        <f>+D9+F9+H9+J9+L9+N9+P9</f>
-        <v>332.50000000000006</v>
+        <f>+D9+F9+H9+J9+L9+N9+P9+R9+T9</f>
+        <v>987</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
-        <f>+$C$8*$C$6/$C$3</f>
-        <v>332.50000000000006</v>
+        <v>987</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1106,12 +1255,12 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45689</v>
       </c>
       <c r="B10" s="6">
-        <f t="shared" ref="B10:B20" si="0">+D10+F10+H10+J10+L10+N10+P10</f>
+        <f t="shared" ref="B10:B20" si="0">+D10+F10+H10+J10+L10+N10+P10+R10+T10</f>
         <v>75</v>
       </c>
       <c r="C10" s="6"/>
@@ -1132,7 +1281,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45717</v>
       </c>
@@ -1155,7 +1304,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45748</v>
       </c>
@@ -1187,13 +1336,13 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45778</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1215,8 +1364,12 @@
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45809</v>
       </c>
@@ -1242,7 +1395,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45839</v>
       </c>
@@ -1271,18 +1424,15 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="R15" s="6">
-        <f>+$Q$8*$Q$6/$Q$3</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45870</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1298,8 +1448,12 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45901</v>
       </c>
@@ -1325,13 +1479,13 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45931</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>1902.9222</v>
+        <v>2198.9222</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6">
@@ -1357,16 +1511,20 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="R18" s="6">
+        <f>+$Q$8*$Q$6/$Q$3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45962</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1388,8 +1546,12 @@
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T19" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45992</v>
       </c>
@@ -1417,18 +1579,18 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="7">
-        <f>SUM(C21:R21)</f>
-        <v>5446.8444</v>
+        <f>SUM(C21:T21)</f>
+        <v>6327.3444</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7">
         <f>SUM(D9:D20)</f>
-        <v>1330.0000000000002</v>
+        <v>1984.5</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
@@ -1458,21 +1620,25 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7">
         <f>SUM(P9:P20)</f>
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <f t="shared" ref="R21" si="2">SUM(R9:R20)</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <f>SUM(R9:R20)</f>
+        <v>300</v>
+      </c>
+      <c r="T21" s="7">
+        <f>SUM(T9:T20)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46023</v>
       </c>
       <c r="B22" s="6">
-        <f>+D22+F22+H22+J22+L22+N22+P22</f>
-        <v>496.50000000000006</v>
+        <f t="shared" ref="B10:B46" si="2">+D22+F22+H22+J22+L22+N22+P22+R22</f>
+        <v>492.50000000000006</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
@@ -1492,19 +1658,16 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-      <c r="R22" s="6">
-        <f>+$Q$8*$Q$6/$Q$3</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46054</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" ref="B23:B33" si="3">+D23+F23+H23+J23+L23+N23+P23</f>
+        <f t="shared" si="2"/>
         <v>50.3</v>
       </c>
       <c r="C23" s="6"/>
@@ -1526,13 +1689,17 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T23" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46082</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C24" s="6"/>
@@ -1550,13 +1717,13 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46113</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" si="3"/>
-        <v>1902.9222</v>
+        <f t="shared" si="2"/>
+        <v>2198.9222</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6">
@@ -1582,15 +1749,19 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="R25" s="6">
+        <f>+$Q$8*$Q$6/$Q$3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46143</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>305.5</v>
       </c>
       <c r="C26" s="6"/>
@@ -1618,13 +1789,17 @@
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T26" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46174</v>
       </c>
       <c r="B27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C27" s="6"/>
@@ -1642,13 +1817,13 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46204</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" si="3"/>
-        <v>496.50000000000006</v>
+        <f t="shared" si="2"/>
+        <v>492.50000000000006</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6">
@@ -1668,15 +1843,15 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46235</v>
       </c>
       <c r="B29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C29" s="6"/>
@@ -1693,13 +1868,17 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T29" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46266</v>
       </c>
       <c r="B30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C30" s="6"/>
@@ -1717,13 +1896,13 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46296</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" si="3"/>
-        <v>1902.9222</v>
+        <f t="shared" si="2"/>
+        <v>2198.9222</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6">
@@ -1749,15 +1928,19 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="R31" s="6">
+        <f>+$Q$8*$Q$6/$Q$3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46327</v>
       </c>
       <c r="B32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="C32" s="6"/>
@@ -1786,13 +1969,17 @@
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T32" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46357</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C33" s="6"/>
@@ -1810,13 +1997,13 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="7">
-        <f>SUM(C34:L34)</f>
-        <v>4538.6444000000001</v>
+        <f>SUM(C34:T34)</f>
+        <v>6298.6444000000001</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7">
@@ -1851,14 +2038,25 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7">
         <f>SUM(P22:P33)</f>
-        <v>656</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="R34" s="7">
+        <f>SUM(R22:R33)</f>
+        <v>600</v>
+      </c>
+      <c r="T34" s="7">
+        <f>SUM(T22:T33)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46388</v>
       </c>
-      <c r="B35" s="6"/>
+      <c r="B35" s="6">
+        <f>+D35+F35+H35+J35+L35+N35+P35+R35</f>
+        <v>492.50000000000006</v>
+      </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6">
         <f>+$C$8*$C$6/$C$3</f>
@@ -1877,14 +2075,17 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>46419</v>
       </c>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1899,12 +2100,19 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T36" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>46447</v>
       </c>
-      <c r="B37" s="6"/>
+      <c r="B37" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1920,11 +2128,14 @@
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46478</v>
       </c>
-      <c r="B38" s="6"/>
+      <c r="B38" s="6">
+        <f t="shared" si="2"/>
+        <v>1866.4222</v>
+      </c>
       <c r="C38" s="6">
         <f>+C8</f>
         <v>19000</v>
@@ -1949,14 +2160,21 @@
       <c r="O38" s="6"/>
       <c r="P38" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="R38" s="6">
+        <f>+$Q$8*$Q$6/$Q$3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>46508</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1974,12 +2192,19 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T39" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>46539</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -1995,11 +2220,14 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>46569</v>
       </c>
-      <c r="B41" s="6"/>
+      <c r="B41" s="6">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2015,14 +2243,17 @@
       <c r="O41" s="6"/>
       <c r="P41" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>46600</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2037,12 +2268,19 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T42" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>46631</v>
       </c>
-      <c r="B43" s="6"/>
+      <c r="B43" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2058,11 +2296,14 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>46661</v>
       </c>
-      <c r="B44" s="6"/>
+      <c r="B44" s="6">
+        <f t="shared" si="2"/>
+        <v>1866.4222</v>
+      </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2084,14 +2325,25 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="R44" s="6">
+        <f>+$Q$8*$Q$6/$Q$3</f>
+        <v>300</v>
+      </c>
+      <c r="T44" s="6">
+        <f>+$S$8*$S$6/$S$3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46692</v>
       </c>
-      <c r="B45" s="6"/>
+      <c r="B45" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2107,11 +2359,14 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46722</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -2133,13 +2388,13 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="7">
-        <f>SUM(C47:L47)</f>
-        <v>3145.3444</v>
+        <f>SUM(C47:R47)</f>
+        <v>4385.3444</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
@@ -2174,10 +2429,18 @@
       <c r="O47" s="7"/>
       <c r="P47" s="7">
         <f>SUM(P35:P46)</f>
-        <v>656</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="R47" s="7">
+        <f>SUM(R35:R46)</f>
+        <v>600</v>
+      </c>
+      <c r="T47" s="7">
+        <f>SUM(T35:T46)</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46753</v>
       </c>
@@ -2197,7 +2460,7 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -2266,7 +2529,7 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -2335,7 +2598,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -2404,7 +2667,7 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -2494,7 +2757,7 @@
       <c r="O60" s="7"/>
       <c r="P60" s="7">
         <f>SUM(P48:P59)</f>
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -2517,7 +2780,7 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -2583,7 +2846,7 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -2646,7 +2909,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -2709,7 +2972,7 @@
       <c r="O70" s="6"/>
       <c r="P70" s="6">
         <f>+$O$8*$O$6/$O$3</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -2763,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2AC5CE-95A8-4CBE-B2FD-84B05BD924AF}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A2:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2781,428 +3044,16 @@
     <col min="9" max="9" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="C1" s="6">
-        <v>1100</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F1" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="H1" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="B2" s="2">
-        <f>+A2*$B$1</f>
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6">
-        <f>+B2*$C$1/12</f>
-        <v>18333.333333333332</v>
-      </c>
-      <c r="D2" s="2">
-        <f>+A2*$D$1</f>
-        <v>250</v>
-      </c>
-      <c r="E2" s="6">
-        <f>+D2*$C$1/12</f>
-        <v>22916.666666666668</v>
-      </c>
-      <c r="F2" s="2">
-        <f>+A2*$F$1</f>
-        <v>300</v>
-      </c>
-      <c r="G2" s="6">
-        <f>+F2*$C$1/12</f>
-        <v>27500</v>
-      </c>
-      <c r="H2" s="2">
-        <f>+A2*$H$1</f>
-        <v>350.00000000000006</v>
-      </c>
-      <c r="I2" s="6">
-        <f>+H2*$C$1/12</f>
-        <v>32083.333333333339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10000</v>
-      </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B12" si="0">+A3*$B$1</f>
-        <v>400</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:E12" si="1">+B3*$C$1/12</f>
-        <v>36666.666666666664</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D12" si="2">+A3*$D$1</f>
-        <v>500</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" si="1"/>
-        <v>45833.333333333336</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F12" si="3">+A3*$F$1</f>
-        <v>600</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3" si="4">+F3*$C$1/12</f>
-        <v>55000</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H12" si="5">+A3*$H$1</f>
-        <v>700.00000000000011</v>
-      </c>
-      <c r="I3" s="6">
-        <f t="shared" ref="I3" si="6">+H3*$C$1/12</f>
-        <v>64166.666666666679</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>15000</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="1"/>
-        <v>55000</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-      <c r="E4" s="6">
-        <f t="shared" si="1"/>
-        <v>68750</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" ref="G4" si="7">+F4*$C$1/12</f>
-        <v>82500</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="5"/>
-        <v>1050</v>
-      </c>
-      <c r="I4" s="6">
-        <f t="shared" ref="I4" si="8">+H4*$C$1/12</f>
-        <v>96250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20000</v>
-      </c>
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="1"/>
-        <v>73333.333333333328</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="1"/>
-        <v>91666.666666666672</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5" si="9">+F5*$C$1/12</f>
-        <v>110000</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="5"/>
-        <v>1400.0000000000002</v>
-      </c>
-      <c r="I5" s="6">
-        <f t="shared" ref="I5" si="10">+H5*$C$1/12</f>
-        <v>128333.33333333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>25000</v>
-      </c>
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="1"/>
-        <v>91666.666666666672</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>1250</v>
-      </c>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
-        <v>114583.33333333333</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" ref="G6" si="11">+F6*$C$1/12</f>
-        <v>137500</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="5"/>
-        <v>1750.0000000000002</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" ref="I6" si="12">+H6*$C$1/12</f>
-        <v>160416.66666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>30000</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="1"/>
-        <v>110000</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="E7" s="6">
-        <f t="shared" si="1"/>
-        <v>137500</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" ref="G7" si="13">+F7*$C$1/12</f>
-        <v>165000</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="5"/>
-        <v>2100</v>
-      </c>
-      <c r="I7" s="6">
-        <f t="shared" ref="I7" si="14">+H7*$C$1/12</f>
-        <v>192500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>35000</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="1"/>
-        <v>128333.33333333333</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="2"/>
-        <v>1750</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
-        <v>160416.66666666666</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="3"/>
-        <v>2100</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" ref="G8" si="15">+F8*$C$1/12</f>
-        <v>192500</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="5"/>
-        <v>2450.0000000000005</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" ref="I8" si="16">+H8*$C$1/12</f>
-        <v>224583.33333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>40000</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="1"/>
-        <v>146666.66666666666</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="1"/>
-        <v>183333.33333333334</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" ref="G9" si="17">+F9*$C$1/12</f>
-        <v>220000</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="5"/>
-        <v>2800.0000000000005</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" ref="I9" si="18">+H9*$C$1/12</f>
-        <v>256666.66666666672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>45000</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>2250</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
-        <v>206250</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" ref="G10" si="19">+F10*$C$1/12</f>
-        <v>247500</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="5"/>
-        <v>3150.0000000000005</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" ref="I10" si="20">+H10*$C$1/12</f>
-        <v>288750.00000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>50000</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" si="1"/>
-        <v>183333.33333333334</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>2500</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="1"/>
-        <v>229166.66666666666</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" ref="G11" si="21">+F11*$C$1/12</f>
-        <v>275000</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="5"/>
-        <v>3500.0000000000005</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" ref="I11" si="22">+H11*$C$1/12</f>
-        <v>320833.33333333337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>100000</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="C12" s="6">
-        <f t="shared" si="1"/>
-        <v>366666.66666666669</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="E12" s="6">
-        <f t="shared" si="1"/>
-        <v>458333.33333333331</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="3"/>
-        <v>6000</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" ref="G12" si="23">+F12*$C$1/12</f>
-        <v>550000</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="5"/>
-        <v>7000.0000000000009</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" ref="I12" si="24">+H12*$C$1/12</f>
-        <v>641666.66666666674</v>
+        <f>+A2-B2</f>
+        <v>3920</v>
       </c>
     </row>
   </sheetData>
@@ -3215,24 +3066,214 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96D38A-F672-4D30-A69A-75917CC1E7A8}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>+A2/0.6789</f>
         <v>14729.709824716454</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>50000</v>
+      </c>
+      <c r="B8" s="10">
+        <f>+$A$8*B6/12</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" ref="C8:E8" si="0">+$A$8*C6/12</f>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>291.66666666666669</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>40000</v>
+      </c>
+      <c r="B9" s="10">
+        <f>+$A$9*B6/12</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" ref="C9:E9" si="1">+$A$9*C6/12</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="1"/>
+        <v>233.33333333333337</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>266.66666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.04</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <f t="shared" ref="A15:E16" si="2">+A8*$A$3</f>
+        <v>55000000</v>
+      </c>
+      <c r="B15" s="11">
+        <f t="shared" si="2"/>
+        <v>183333.33333333331</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="2"/>
+        <v>229166.66666666669</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" si="2"/>
+        <v>320833.33333333337</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="2"/>
+        <v>366666.66666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f t="shared" si="2"/>
+        <v>44000000</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="2"/>
+        <v>146666.66666666669</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="2"/>
+        <v>183333.33333333331</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="2"/>
+        <v>256666.66666666672</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
+        <v>293333.33333333337</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85A44D4-076A-444F-84C8-260950D7EDBA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="724" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA7AF31B-6E10-470F-B06B-E7DB024CE00D}"/>
+  <xr:revisionPtr revIDLastSave="726" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5142607-1731-4C48-B435-E3A7D5002357}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="20370" yWindow="-8490" windowWidth="29040" windowHeight="16440" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Plazo</t>
   </si>
@@ -617,6 +617,9 @@
   <si>
     <t>MTCDG</t>
   </si>
+  <si>
+    <t>PCR</t>
+  </si>
 </sst>
 </file>
 
@@ -1118,16 +1121,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1148,17 +1151,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,7 +1172,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1184,12 +1187,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1508,62 +1507,64 @@
   <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="Y7" sqref="Y7:Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="26" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="33" t="s">
+      <c r="H1" s="36"/>
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="R1" s="36"/>
+      <c r="S1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="33" t="s">
+      <c r="T1" s="36"/>
+      <c r="U1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="33" t="s">
+      <c r="V1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="36"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1817,56 +1818,58 @@
         <v>0.1095</v>
       </c>
       <c r="X6" s="42"/>
-      <c r="Y6" s="41"/>
+      <c r="Y6" s="41">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="Z6" s="42"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="35" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="35" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="35" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="35" t="s">
+      <c r="N7" s="44"/>
+      <c r="O7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="35" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="36"/>
-      <c r="S7" s="35" t="s">
+      <c r="R7" s="44"/>
+      <c r="S7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="36"/>
-      <c r="U7" s="35" t="s">
+      <c r="T7" s="44"/>
+      <c r="U7" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="36"/>
-      <c r="W7" s="35" t="s">
+      <c r="V7" s="44"/>
+      <c r="W7" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="36"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="44"/>
     </row>
     <row r="8" spans="1:26" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
@@ -1876,52 +1879,52 @@
         <f>SUM(C8:Z8)</f>
         <v>101098</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="45">
         <v>19000</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43">
+      <c r="D8" s="46"/>
+      <c r="E8" s="45">
         <v>20163</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="43">
+      <c r="F8" s="46"/>
+      <c r="G8" s="45">
         <v>10000</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="43">
+      <c r="H8" s="46"/>
+      <c r="I8" s="45">
         <v>18000</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="43">
+      <c r="J8" s="46"/>
+      <c r="K8" s="45">
         <v>4000</v>
       </c>
-      <c r="L8" s="44"/>
-      <c r="M8" s="43">
+      <c r="L8" s="46"/>
+      <c r="M8" s="45">
         <v>4000</v>
       </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="43">
+      <c r="N8" s="46"/>
+      <c r="O8" s="45">
         <v>8000</v>
       </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="43">
+      <c r="P8" s="46"/>
+      <c r="Q8" s="45">
         <v>8000</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="43">
+      <c r="R8" s="46"/>
+      <c r="S8" s="45">
         <v>4000</v>
       </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="43">
+      <c r="T8" s="46"/>
+      <c r="U8" s="45">
         <v>5000</v>
       </c>
-      <c r="V8" s="44"/>
-      <c r="W8" s="43">
+      <c r="V8" s="46"/>
+      <c r="W8" s="45">
         <v>935</v>
       </c>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="44"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="46"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2405,66 +2408,66 @@
         <f>SUM(C21:AM21)</f>
         <v>6669.0062749999997</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="33">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="45">
+      <c r="D21" s="34"/>
+      <c r="E21" s="33">
         <f>SUM(F9:F20)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45">
+      <c r="F21" s="34"/>
+      <c r="G21" s="33">
         <f>SUM(H9:H20)</f>
         <v>300</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="45">
+      <c r="H21" s="34"/>
+      <c r="I21" s="33">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="45">
+      <c r="J21" s="34"/>
+      <c r="K21" s="33">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="45">
+      <c r="L21" s="34"/>
+      <c r="M21" s="33">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="45">
+      <c r="N21" s="34"/>
+      <c r="O21" s="33">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="45">
+      <c r="P21" s="34"/>
+      <c r="Q21" s="33">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="46"/>
-      <c r="S21" s="45">
+      <c r="R21" s="34"/>
+      <c r="S21" s="33">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="46"/>
-      <c r="U21" s="45">
+      <c r="T21" s="34"/>
+      <c r="U21" s="33">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="46"/>
-      <c r="W21" s="45">
+      <c r="V21" s="34"/>
+      <c r="W21" s="33">
         <f>SUM(X9:X20)</f>
         <v>104.16187499999999</v>
       </c>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="45">
+      <c r="X21" s="34"/>
+      <c r="Y21" s="33">
         <f>SUM(Z9:Z20)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="46"/>
+      <c r="Z21" s="34"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -2966,66 +2969,66 @@
         <f>SUM(C34:AM34)</f>
         <v>6824.83565</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="33">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="45">
+      <c r="D34" s="34"/>
+      <c r="E34" s="33">
         <f>SUM(F22:F33)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="45">
+      <c r="F34" s="34"/>
+      <c r="G34" s="33">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="45">
+      <c r="H34" s="34"/>
+      <c r="I34" s="33">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="46"/>
-      <c r="K34" s="45">
+      <c r="J34" s="34"/>
+      <c r="K34" s="33">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="46"/>
-      <c r="M34" s="45">
+      <c r="L34" s="34"/>
+      <c r="M34" s="33">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="45">
+      <c r="N34" s="34"/>
+      <c r="O34" s="33">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="45">
+      <c r="P34" s="34"/>
+      <c r="Q34" s="33">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="46"/>
-      <c r="S34" s="45">
+      <c r="R34" s="34"/>
+      <c r="S34" s="33">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="46"/>
-      <c r="U34" s="45">
+      <c r="T34" s="34"/>
+      <c r="U34" s="33">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="46"/>
-      <c r="W34" s="45">
+      <c r="V34" s="34"/>
+      <c r="W34" s="33">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="46"/>
-      <c r="Y34" s="45">
+      <c r="X34" s="34"/>
+      <c r="Y34" s="33">
         <f>SUM(Z22:Z33)</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="46"/>
+      <c r="Z34" s="34"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -3493,57 +3496,57 @@
         <f>SUM(C47:Q47)</f>
         <v>4385.3444</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="33">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="45">
+      <c r="D47" s="34"/>
+      <c r="E47" s="33">
         <f>SUM(F35:F46)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="45">
+      <c r="F47" s="34"/>
+      <c r="G47" s="33">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="45">
+      <c r="H47" s="34"/>
+      <c r="I47" s="33">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="46"/>
-      <c r="K47" s="45">
+      <c r="J47" s="34"/>
+      <c r="K47" s="33">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="46"/>
-      <c r="M47" s="45">
+      <c r="L47" s="34"/>
+      <c r="M47" s="33">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="46"/>
-      <c r="O47" s="45">
+      <c r="N47" s="34"/>
+      <c r="O47" s="33">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="45">
+      <c r="P47" s="34"/>
+      <c r="Q47" s="33">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="46"/>
-      <c r="S47" s="45">
+      <c r="R47" s="34"/>
+      <c r="S47" s="33">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="46"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="46"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="34"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="34"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
@@ -3985,51 +3988,51 @@
         <f>SUM(C60:K60)</f>
         <v>2018.4222</v>
       </c>
-      <c r="C60" s="45">
+      <c r="C60" s="33">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="46"/>
-      <c r="E60" s="45">
+      <c r="D60" s="34"/>
+      <c r="E60" s="33">
         <f>SUM(F48:F59)</f>
         <v>794.42219999999998</v>
       </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="45">
+      <c r="F60" s="34"/>
+      <c r="G60" s="33">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="46"/>
-      <c r="I60" s="45">
+      <c r="H60" s="34"/>
+      <c r="I60" s="33">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="46"/>
-      <c r="K60" s="45">
+      <c r="J60" s="34"/>
+      <c r="K60" s="33">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="46"/>
-      <c r="M60" s="45">
+      <c r="L60" s="34"/>
+      <c r="M60" s="33">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="46"/>
-      <c r="O60" s="45">
+      <c r="N60" s="34"/>
+      <c r="O60" s="33">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="46"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="46"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="45"/>
-      <c r="V60" s="46"/>
-      <c r="W60" s="45"/>
-      <c r="X60" s="46"/>
-      <c r="Y60" s="45"/>
-      <c r="Z60" s="46"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="34"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -4450,67 +4453,173 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="45">
+      <c r="C73" s="33">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="E73" s="45">
+      <c r="D73" s="34"/>
+      <c r="E73" s="33">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="46"/>
-      <c r="G73" s="45">
+      <c r="F73" s="34"/>
+      <c r="G73" s="33">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="46"/>
-      <c r="I73" s="45">
+      <c r="H73" s="34"/>
+      <c r="I73" s="33">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="46"/>
-      <c r="K73" s="45">
+      <c r="J73" s="34"/>
+      <c r="K73" s="33">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="46"/>
-      <c r="M73" s="45">
+      <c r="L73" s="34"/>
+      <c r="M73" s="33">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="46"/>
-      <c r="O73" s="45">
+      <c r="N73" s="34"/>
+      <c r="O73" s="33">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="46"/>
-      <c r="Q73" s="45"/>
-      <c r="R73" s="46"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="45"/>
-      <c r="V73" s="46"/>
-      <c r="W73" s="45"/>
-      <c r="X73" s="46"/>
-      <c r="Y73" s="45"/>
-      <c r="Z73" s="46"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="34"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="34"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="U47:V47"/>
     <mergeCell ref="W60:X60"/>
     <mergeCell ref="W73:X73"/>
     <mergeCell ref="W6:X6"/>
@@ -4535,125 +4644,19 @@
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y21:Z21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -4671,7 +4674,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="1"/>
@@ -4870,7 +4873,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>

--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="726" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5142607-1731-4C48-B435-E3A7D5002357}"/>
+  <xr:revisionPtr revIDLastSave="786" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{554F9C6A-CEE8-48C2-9B60-986AFACC830F}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-8490" windowWidth="29040" windowHeight="16440" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -41,6 +41,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>FARINA SAINT SELVE, EDUARDO ALBERTO</author>
+    <author>Eduardo Farina</author>
   </authors>
   <commentList>
     <comment ref="D9" authorId="0" shapeId="0" xr:uid="{BC280FF9-F671-4F8E-AEDA-103B622D35EC}">
@@ -284,6 +285,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="Z16" authorId="1" shapeId="0" xr:uid="{B5496E3A-87A0-4461-A431-D1B47C42C002}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+18/08/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H17" authorId="0" shapeId="0" xr:uid="{69CA36CE-A235-4144-8F90-D8BCBE832CCB}">
       <text>
         <r>
@@ -508,7 +533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Plazo</t>
   </si>
@@ -620,6 +645,9 @@
   <si>
     <t>PCR</t>
   </si>
+  <si>
+    <t>PQCSD</t>
+  </si>
 </sst>
 </file>
 
@@ -1041,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,6 +1149,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,6 +1216,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1504,429 +1539,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:AB73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7:Z7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="26" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="28" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="35" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="35" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="35" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="35" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="35" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="35" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="36"/>
-      <c r="U1" s="35" t="s">
+      <c r="T1" s="37"/>
+      <c r="U1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="35" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="36"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="37"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="37">
+      <c r="C2" s="38">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="37">
+      <c r="D2" s="39"/>
+      <c r="E2" s="38">
         <v>6</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="37">
+      <c r="F2" s="39"/>
+      <c r="G2" s="38">
         <v>6</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="37">
+      <c r="H2" s="39"/>
+      <c r="I2" s="38">
         <v>6</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="37">
+      <c r="J2" s="39"/>
+      <c r="K2" s="38">
         <v>6</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="37">
+      <c r="L2" s="39"/>
+      <c r="M2" s="38">
         <v>6</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="37">
+      <c r="N2" s="39"/>
+      <c r="O2" s="38">
         <v>6</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="38">
         <v>6</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="37">
+      <c r="R2" s="39"/>
+      <c r="S2" s="38">
         <v>3</v>
       </c>
-      <c r="T2" s="38"/>
-      <c r="U2" s="37">
+      <c r="T2" s="39"/>
+      <c r="U2" s="38">
         <v>6</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="37">
+      <c r="V2" s="39"/>
+      <c r="W2" s="38">
         <v>3</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="38">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="38">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="39"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="37">
+      <c r="C3" s="38">
         <v>4</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="37">
+      <c r="D3" s="39"/>
+      <c r="E3" s="38">
         <v>2</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="37">
+      <c r="F3" s="39"/>
+      <c r="G3" s="38">
         <v>1</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="37">
+      <c r="H3" s="39"/>
+      <c r="I3" s="38">
         <v>2</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="37">
+      <c r="J3" s="39"/>
+      <c r="K3" s="38">
         <v>2</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="37">
+      <c r="L3" s="39"/>
+      <c r="M3" s="38">
         <v>2</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="37">
+      <c r="N3" s="39"/>
+      <c r="O3" s="38">
         <v>4</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="37">
+      <c r="P3" s="39"/>
+      <c r="Q3" s="38">
         <v>2</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="37">
+      <c r="R3" s="39"/>
+      <c r="S3" s="38">
         <v>4</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="37">
+      <c r="T3" s="39"/>
+      <c r="U3" s="38">
         <v>2</v>
       </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="37">
+      <c r="V3" s="39"/>
+      <c r="W3" s="38">
         <v>4</v>
       </c>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="38">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="38">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="39"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="39">
+      <c r="C4" s="40">
         <v>46501</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="39">
+      <c r="D4" s="41"/>
+      <c r="E4" s="40">
         <v>47027</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="39">
+      <c r="F4" s="41"/>
+      <c r="G4" s="40">
         <v>46174</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="39">
+      <c r="H4" s="41"/>
+      <c r="I4" s="40">
         <v>47392</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="39">
+      <c r="J4" s="41"/>
+      <c r="K4" s="40">
         <v>46702</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="39">
+      <c r="L4" s="41"/>
+      <c r="M4" s="40">
         <v>46367</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="39">
+      <c r="N4" s="41"/>
+      <c r="O4" s="40">
         <v>47500</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="39">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="40">
         <v>47510</v>
       </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="39">
+      <c r="R4" s="41"/>
+      <c r="S4" s="40">
         <v>46664</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="39">
+      <c r="T4" s="41"/>
+      <c r="U4" s="40">
         <v>46424</v>
       </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="39">
+      <c r="V4" s="41"/>
+      <c r="W4" s="40">
         <v>46174</v>
       </c>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="40"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X4" s="41"/>
+      <c r="Y4" s="40">
+        <v>47896</v>
+      </c>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="41"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="37">
+      <c r="C5" s="38">
         <v>32</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37">
+      <c r="D5" s="39"/>
+      <c r="E5" s="38">
         <f>4*12</f>
         <v>48</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37">
+      <c r="F5" s="39"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="38">
         <v>60</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="37">
+      <c r="J5" s="39"/>
+      <c r="K5" s="38">
         <v>24</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="37">
+      <c r="L5" s="39"/>
+      <c r="M5" s="38">
         <v>24</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="37">
+      <c r="N5" s="39"/>
+      <c r="O5" s="38">
         <v>60</v>
       </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="37">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="38">
         <v>60</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="37">
+      <c r="R5" s="39"/>
+      <c r="S5" s="38">
         <v>32</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="38"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T5" s="39"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="39"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="41">
+      <c r="C6" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41">
+      <c r="D6" s="43"/>
+      <c r="E6" s="42">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="41">
+      <c r="F6" s="43"/>
+      <c r="G6" s="42">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41">
+      <c r="H6" s="43"/>
+      <c r="I6" s="42">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="41">
+      <c r="J6" s="43"/>
+      <c r="K6" s="42">
         <v>0.08</v>
       </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="41">
+      <c r="L6" s="43"/>
+      <c r="M6" s="42">
         <v>0.06</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="41">
+      <c r="N6" s="43"/>
+      <c r="O6" s="42">
         <v>0.08</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="41">
+      <c r="P6" s="43"/>
+      <c r="Q6" s="42">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="41">
+      <c r="R6" s="43"/>
+      <c r="S6" s="42">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="42"/>
-      <c r="U6" s="41">
+      <c r="T6" s="43"/>
+      <c r="U6" s="42">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="41">
+      <c r="V6" s="43"/>
+      <c r="W6" s="42">
         <v>0.1095</v>
       </c>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="41">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="Z6" s="42"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="43"/>
+      <c r="Y6" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="42">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="AB6" s="43"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="43" t="s">
+      <c r="F7" s="45"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="43" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="43" t="s">
+      <c r="L7" s="45"/>
+      <c r="M7" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="43" t="s">
+      <c r="N7" s="45"/>
+      <c r="O7" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="43" t="s">
+      <c r="P7" s="45"/>
+      <c r="Q7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="43" t="s">
+      <c r="R7" s="45"/>
+      <c r="S7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="44"/>
-      <c r="U7" s="43" t="s">
+      <c r="T7" s="45"/>
+      <c r="U7" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="43" t="s">
+      <c r="V7" s="45"/>
+      <c r="W7" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="44"/>
-    </row>
-    <row r="8" spans="1:26" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X7" s="45"/>
+      <c r="Y7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+    </row>
+    <row r="8" spans="1:28" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="30">
-        <f>SUM(C8:Z8)</f>
-        <v>101098</v>
-      </c>
-      <c r="C8" s="45">
+        <f>SUM(C8:AB8)</f>
+        <v>116098</v>
+      </c>
+      <c r="C8" s="46">
         <v>19000</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="45">
+      <c r="D8" s="47"/>
+      <c r="E8" s="46">
         <v>20163</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="45">
+      <c r="F8" s="47"/>
+      <c r="G8" s="46">
         <v>10000</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="45">
+      <c r="H8" s="47"/>
+      <c r="I8" s="46">
         <v>18000</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45">
+      <c r="J8" s="47"/>
+      <c r="K8" s="46">
         <v>4000</v>
       </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="45">
+      <c r="L8" s="47"/>
+      <c r="M8" s="46">
         <v>4000</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="45">
+      <c r="N8" s="47"/>
+      <c r="O8" s="46">
         <v>8000</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="45">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="46">
         <v>8000</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="45">
+      <c r="R8" s="47"/>
+      <c r="S8" s="46">
         <v>4000</v>
       </c>
-      <c r="T8" s="46"/>
-      <c r="U8" s="45">
+      <c r="T8" s="47"/>
+      <c r="U8" s="46">
         <v>5000</v>
       </c>
-      <c r="V8" s="46"/>
-      <c r="W8" s="45">
+      <c r="V8" s="47"/>
+      <c r="W8" s="46">
         <v>935</v>
       </c>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="46"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X8" s="47"/>
+      <c r="Y8" s="46">
+        <v>4000</v>
+      </c>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="46">
+        <v>11000</v>
+      </c>
+      <c r="AB8" s="47"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45658</v>
       </c>
@@ -1960,8 +2029,10 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45689</v>
       </c>
@@ -1996,8 +2067,10 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="13"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45717</v>
       </c>
@@ -2032,8 +2105,10 @@
       </c>
       <c r="Y11" s="12"/>
       <c r="Z11" s="13"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45748</v>
       </c>
@@ -2074,8 +2149,10 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="12"/>
       <c r="Z12" s="13"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="13"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45778</v>
       </c>
@@ -2116,8 +2193,10 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="12"/>
       <c r="Z13" s="13"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45809</v>
       </c>
@@ -2155,8 +2234,13 @@
       </c>
       <c r="Y14" s="12"/>
       <c r="Z14" s="13"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45839</v>
       </c>
@@ -2191,14 +2275,16 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="13"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45870</v>
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>307.5</v>
+        <v>467.5</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="13"/>
@@ -2229,14 +2315,19 @@
       <c r="W16" s="12"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="12"/>
-      <c r="Z16" s="13"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z16" s="13">
+        <f>+$Y$8*$Y$6/$Y$3</f>
+        <v>160</v>
+      </c>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="13"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45901</v>
       </c>
       <c r="B17" s="12">
-        <f t="shared" si="0"/>
+        <f>+D17+F17+H17+J17+L17+N17+P17+R17+T17+V17+X17+Z17</f>
         <v>100.595625</v>
       </c>
       <c r="C17" s="27"/>
@@ -2269,8 +2360,10 @@
       </c>
       <c r="Y17" s="12"/>
       <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45931</v>
       </c>
@@ -2317,8 +2410,10 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="13"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45962</v>
       </c>
@@ -2359,8 +2454,10 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="13"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="13"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>45992</v>
       </c>
@@ -2399,77 +2496,84 @@
       </c>
       <c r="Y20" s="14"/>
       <c r="Z20" s="15"/>
-    </row>
-    <row r="21" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="7">
         <f>SUM(C21:AM21)</f>
-        <v>6669.0062749999997</v>
-      </c>
-      <c r="C21" s="33">
+        <v>7069.6312749999997</v>
+      </c>
+      <c r="C21" s="34">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="33">
+      <c r="D21" s="35"/>
+      <c r="E21" s="34">
         <f>SUM(F9:F20)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33">
+      <c r="F21" s="35"/>
+      <c r="G21" s="34">
         <f>SUM(H9:H20)</f>
         <v>300</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="33">
+      <c r="H21" s="35"/>
+      <c r="I21" s="34">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="33">
+      <c r="J21" s="35"/>
+      <c r="K21" s="34">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="33">
+      <c r="L21" s="35"/>
+      <c r="M21" s="34">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="34"/>
-      <c r="O21" s="33">
+      <c r="N21" s="35"/>
+      <c r="O21" s="34">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="33">
+      <c r="P21" s="35"/>
+      <c r="Q21" s="34">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="33">
+      <c r="R21" s="35"/>
+      <c r="S21" s="34">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="34"/>
-      <c r="U21" s="33">
+      <c r="T21" s="35"/>
+      <c r="U21" s="34">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="34"/>
-      <c r="W21" s="33">
+      <c r="V21" s="35"/>
+      <c r="W21" s="34">
         <f>SUM(X9:X20)</f>
         <v>104.16187499999999</v>
       </c>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="33">
+      <c r="X21" s="35"/>
+      <c r="Y21" s="34">
         <f>SUM(Z9:Z20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="34"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="34">
+        <f>SUM(AB9:AB20)</f>
+        <v>240.62499999999997</v>
+      </c>
+      <c r="AB21" s="35"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>46023</v>
       </c>
@@ -2507,14 +2611,16 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="11"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>46054</v>
       </c>
       <c r="B23" s="12">
         <f t="shared" si="0"/>
-        <v>357.8</v>
+        <v>517.79999999999995</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="13"/>
@@ -2550,9 +2656,14 @@
       <c r="W23" s="12"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="12"/>
-      <c r="Z23" s="13"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z23" s="13">
+        <f>+$Y$8*$Y$6/$Y$3</f>
+        <v>160</v>
+      </c>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="13"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>46082</v>
       </c>
@@ -2587,8 +2698,10 @@
       </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="13"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="13"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>46113</v>
       </c>
@@ -2635,8 +2748,10 @@
       <c r="X25" s="13"/>
       <c r="Y25" s="12"/>
       <c r="Z25" s="13"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="13"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>46143</v>
       </c>
@@ -2682,8 +2797,10 @@
       <c r="X26" s="13"/>
       <c r="Y26" s="12"/>
       <c r="Z26" s="13"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="13"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>46174</v>
       </c>
@@ -2720,8 +2837,10 @@
       </c>
       <c r="Y27" s="12"/>
       <c r="Z27" s="13"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="13"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>46204</v>
       </c>
@@ -2759,14 +2878,16 @@
       <c r="X28" s="13"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="13"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="13"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>46235</v>
       </c>
       <c r="B29" s="12">
         <f t="shared" si="0"/>
-        <v>307.5</v>
+        <v>467.5</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="13"/>
@@ -2797,9 +2918,14 @@
       <c r="W29" s="12"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z29" s="13">
+        <f>+$Y$8*$Y$6/$Y$3</f>
+        <v>160</v>
+      </c>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="13"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>46266</v>
       </c>
@@ -2831,8 +2957,10 @@
       <c r="X30" s="13"/>
       <c r="Y30" s="12"/>
       <c r="Z30" s="13"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="13"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>46296</v>
       </c>
@@ -2879,8 +3007,10 @@
       <c r="X31" s="13"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="13"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="13"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>46327</v>
       </c>
@@ -2927,8 +3057,10 @@
       <c r="X32" s="13"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="13"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="13"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>46357</v>
       </c>
@@ -2960,77 +3092,84 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="15"/>
-    </row>
-    <row r="34" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="15"/>
+    </row>
+    <row r="34" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="7">
         <f>SUM(C34:AM34)</f>
-        <v>6824.83565</v>
-      </c>
-      <c r="C34" s="33">
+        <v>7144.83565</v>
+      </c>
+      <c r="C34" s="34">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33">
+      <c r="D34" s="35"/>
+      <c r="E34" s="34">
         <f>SUM(F22:F33)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="33">
+      <c r="F34" s="35"/>
+      <c r="G34" s="34">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="33">
+      <c r="H34" s="35"/>
+      <c r="I34" s="34">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="33">
+      <c r="J34" s="35"/>
+      <c r="K34" s="34">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="34"/>
-      <c r="M34" s="33">
+      <c r="L34" s="35"/>
+      <c r="M34" s="34">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="34"/>
-      <c r="O34" s="33">
+      <c r="N34" s="35"/>
+      <c r="O34" s="34">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="33">
+      <c r="P34" s="35"/>
+      <c r="Q34" s="34">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="34"/>
-      <c r="S34" s="33">
+      <c r="R34" s="35"/>
+      <c r="S34" s="34">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="34"/>
-      <c r="U34" s="33">
+      <c r="T34" s="35"/>
+      <c r="U34" s="34">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="34"/>
-      <c r="W34" s="33">
+      <c r="V34" s="35"/>
+      <c r="W34" s="34">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="33">
+      <c r="X34" s="35"/>
+      <c r="Y34" s="34">
         <f>SUM(Z22:Z33)</f>
+        <v>320</v>
+      </c>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="34">
+        <f>SUM(AB22:AB33)</f>
         <v>0</v>
       </c>
-      <c r="Z34" s="34"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB34" s="35"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>46388</v>
       </c>
@@ -3068,14 +3207,16 @@
       <c r="X35" s="11"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="11"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="11"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>46419</v>
       </c>
       <c r="B36" s="12">
         <f t="shared" si="0"/>
-        <v>307.5</v>
+        <v>467.5</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="13"/>
@@ -3106,9 +3247,14 @@
       <c r="W36" s="12"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="12"/>
-      <c r="Z36" s="13"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="13">
+        <f>+$Y$8*$Y$6/$Y$3</f>
+        <v>160</v>
+      </c>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="13"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>46447</v>
       </c>
@@ -3140,8 +3286,10 @@
       <c r="X37" s="13"/>
       <c r="Y37" s="12"/>
       <c r="Z37" s="13"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="13"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>46478</v>
       </c>
@@ -3188,8 +3336,10 @@
       <c r="X38" s="13"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="13"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="13"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>46508</v>
       </c>
@@ -3227,8 +3377,10 @@
       <c r="X39" s="13"/>
       <c r="Y39" s="12"/>
       <c r="Z39" s="13"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="13"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>46539</v>
       </c>
@@ -3260,8 +3412,10 @@
       <c r="X40" s="13"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="13"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="13"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>46569</v>
       </c>
@@ -3296,14 +3450,16 @@
       <c r="X41" s="13"/>
       <c r="Y41" s="12"/>
       <c r="Z41" s="13"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="13"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>46600</v>
       </c>
       <c r="B42" s="12">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="13"/>
@@ -3331,9 +3487,14 @@
       <c r="W42" s="12"/>
       <c r="X42" s="13"/>
       <c r="Y42" s="12"/>
-      <c r="Z42" s="13"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z42" s="13">
+        <f>+$Y$8*$Y$6/$Y$3</f>
+        <v>160</v>
+      </c>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="13"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>46631</v>
       </c>
@@ -3365,8 +3526,10 @@
       <c r="X43" s="13"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="13"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="13"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>46661</v>
       </c>
@@ -3415,8 +3578,10 @@
       <c r="X44" s="13"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="13"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="13"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>46692</v>
       </c>
@@ -3448,8 +3613,10 @@
       <c r="X45" s="13"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="13"/>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="13"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>46722</v>
       </c>
@@ -3487,8 +3654,10 @@
       <c r="X46" s="15"/>
       <c r="Y46" s="14"/>
       <c r="Z46" s="15"/>
-    </row>
-    <row r="47" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="15"/>
+    </row>
+    <row r="47" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>11</v>
       </c>
@@ -3496,59 +3665,73 @@
         <f>SUM(C47:Q47)</f>
         <v>4385.3444</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="34">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="33">
+      <c r="D47" s="35"/>
+      <c r="E47" s="34">
         <f>SUM(F35:F46)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="33">
+      <c r="F47" s="35"/>
+      <c r="G47" s="34">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="33">
+      <c r="H47" s="35"/>
+      <c r="I47" s="34">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="33">
+      <c r="J47" s="35"/>
+      <c r="K47" s="34">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="34"/>
-      <c r="M47" s="33">
+      <c r="L47" s="35"/>
+      <c r="M47" s="34">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="34"/>
-      <c r="O47" s="33">
+      <c r="N47" s="35"/>
+      <c r="O47" s="34">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="33">
+      <c r="P47" s="35"/>
+      <c r="Q47" s="34">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="34"/>
-      <c r="S47" s="33">
+      <c r="R47" s="35"/>
+      <c r="S47" s="34">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="34"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="34"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T47" s="35"/>
+      <c r="U47" s="34">
+        <f t="shared" ref="U47" si="2">SUM(V35:V46)</f>
+        <v>237.5</v>
+      </c>
+      <c r="V47" s="35"/>
+      <c r="W47" s="34">
+        <f t="shared" ref="W47" si="3">SUM(X35:X46)</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="34">
+        <f t="shared" ref="Y47" si="4">SUM(Z35:Z46)</f>
+        <v>320</v>
+      </c>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="34">
+        <f t="shared" ref="AA47" si="5">SUM(AB35:AB46)</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="35"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46753</v>
       </c>
@@ -3583,14 +3766,16 @@
       <c r="X48" s="11"/>
       <c r="Y48" s="10"/>
       <c r="Z48" s="11"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="11"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>46784</v>
       </c>
       <c r="B49" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="13"/>
@@ -3615,9 +3800,14 @@
       <c r="W49" s="12"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="12"/>
-      <c r="Z49" s="13"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z49" s="13">
+        <f>+$Y$8*$Y$6/$Y$3</f>
+        <v>160</v>
+      </c>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="13"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>46813</v>
       </c>
@@ -3649,8 +3839,10 @@
       <c r="X50" s="13"/>
       <c r="Y50" s="12"/>
       <c r="Z50" s="13"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="13"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>46844</v>
       </c>
@@ -3691,8 +3883,10 @@
       <c r="X51" s="13"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="13"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="13"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>46874</v>
       </c>
@@ -3724,8 +3918,10 @@
       <c r="X52" s="13"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="13"/>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="13"/>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>46905</v>
       </c>
@@ -3763,8 +3959,10 @@
       <c r="X53" s="13"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="13"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="13"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>46935</v>
       </c>
@@ -3799,14 +3997,16 @@
       <c r="X54" s="13"/>
       <c r="Y54" s="12"/>
       <c r="Z54" s="13"/>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="13"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>46966</v>
       </c>
       <c r="B55" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="13"/>
@@ -3831,9 +4031,14 @@
       <c r="W55" s="12"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="12"/>
-      <c r="Z55" s="13"/>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z55" s="13">
+        <f>+$Y$8*$Y$6/$Y$3</f>
+        <v>160</v>
+      </c>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="13"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>46997</v>
       </c>
@@ -3865,8 +4070,10 @@
       <c r="X56" s="13"/>
       <c r="Y56" s="12"/>
       <c r="Z56" s="13"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="13"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>47027</v>
       </c>
@@ -3907,8 +4114,10 @@
       <c r="X57" s="13"/>
       <c r="Y57" s="12"/>
       <c r="Z57" s="13"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="13"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>47058</v>
       </c>
@@ -3940,8 +4149,10 @@
       <c r="X58" s="13"/>
       <c r="Y58" s="12"/>
       <c r="Z58" s="13"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="13"/>
+    </row>
+    <row r="59" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>47088</v>
       </c>
@@ -3979,8 +4190,10 @@
       <c r="X59" s="15"/>
       <c r="Y59" s="14"/>
       <c r="Z59" s="15"/>
-    </row>
-    <row r="60" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="15"/>
+    </row>
+    <row r="60" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>12</v>
       </c>
@@ -3988,53 +4201,55 @@
         <f>SUM(C60:K60)</f>
         <v>2018.4222</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="34">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="33">
+      <c r="D60" s="35"/>
+      <c r="E60" s="34">
         <f>SUM(F48:F59)</f>
         <v>794.42219999999998</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="33">
+      <c r="F60" s="35"/>
+      <c r="G60" s="34">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="33">
+      <c r="H60" s="35"/>
+      <c r="I60" s="34">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="34"/>
-      <c r="K60" s="33">
+      <c r="J60" s="35"/>
+      <c r="K60" s="34">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="34"/>
-      <c r="M60" s="33">
+      <c r="L60" s="35"/>
+      <c r="M60" s="34">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="34"/>
-      <c r="O60" s="33">
+      <c r="N60" s="35"/>
+      <c r="O60" s="34">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="34"/>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="P60" s="35"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="35"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>47119</v>
       </c>
@@ -4069,8 +4284,10 @@
       <c r="X61" s="11"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="11"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="11"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>47150</v>
       </c>
@@ -4102,8 +4319,10 @@
       <c r="X62" s="13"/>
       <c r="Y62" s="12"/>
       <c r="Z62" s="13"/>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="13"/>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>47178</v>
       </c>
@@ -4135,8 +4354,10 @@
       <c r="X63" s="13"/>
       <c r="Y63" s="12"/>
       <c r="Z63" s="13"/>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="13"/>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>47209</v>
       </c>
@@ -4174,8 +4395,10 @@
       <c r="X64" s="13"/>
       <c r="Y64" s="12"/>
       <c r="Z64" s="13"/>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="13"/>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>47239</v>
       </c>
@@ -4207,8 +4430,10 @@
       <c r="X65" s="13"/>
       <c r="Y65" s="12"/>
       <c r="Z65" s="13"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="13"/>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>47270</v>
       </c>
@@ -4240,8 +4465,10 @@
       <c r="X66" s="13"/>
       <c r="Y66" s="12"/>
       <c r="Z66" s="13"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="13"/>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>47300</v>
       </c>
@@ -4276,8 +4503,10 @@
       <c r="X67" s="13"/>
       <c r="Y67" s="12"/>
       <c r="Z67" s="13"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="13"/>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>47331</v>
       </c>
@@ -4309,8 +4538,10 @@
       <c r="X68" s="13"/>
       <c r="Y68" s="12"/>
       <c r="Z68" s="13"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="13"/>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>47362</v>
       </c>
@@ -4342,8 +4573,10 @@
       <c r="X69" s="13"/>
       <c r="Y69" s="12"/>
       <c r="Z69" s="13"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="13"/>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>47392</v>
       </c>
@@ -4378,8 +4611,10 @@
       <c r="X70" s="13"/>
       <c r="Y70" s="12"/>
       <c r="Z70" s="13"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="13"/>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>47423</v>
       </c>
@@ -4411,8 +4646,10 @@
       <c r="X71" s="13"/>
       <c r="Y71" s="12"/>
       <c r="Z71" s="13"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="13"/>
+    </row>
+    <row r="72" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>47453</v>
       </c>
@@ -4444,8 +4681,10 @@
       <c r="X72" s="15"/>
       <c r="Y72" s="14"/>
       <c r="Z72" s="15"/>
-    </row>
-    <row r="73" spans="1:26" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="15"/>
+    </row>
+    <row r="73" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>12</v>
       </c>
@@ -4453,54 +4692,56 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="34">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="33">
+      <c r="D73" s="35"/>
+      <c r="E73" s="34">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="33">
+      <c r="F73" s="35"/>
+      <c r="G73" s="34">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="34"/>
-      <c r="I73" s="33">
+      <c r="H73" s="35"/>
+      <c r="I73" s="34">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="34"/>
-      <c r="K73" s="33">
+      <c r="J73" s="35"/>
+      <c r="K73" s="34">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="34"/>
-      <c r="M73" s="33">
+      <c r="L73" s="35"/>
+      <c r="M73" s="34">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="34"/>
-      <c r="O73" s="33">
+      <c r="N73" s="35"/>
+      <c r="O73" s="34">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="33"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="33"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="33"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="33"/>
-      <c r="Z73" s="34"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="34"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="34"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="34"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="34"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="34"/>
+      <c r="AB73" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
+  <mergeCells count="169">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
@@ -4657,6 +4898,19 @@
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA21:AB21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -4668,10 +4922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96D38A-F672-4D30-A69A-75917CC1E7A8}">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4691,19 +4945,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1100</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -4712,8 +4966,8 @@
       <c r="C6" s="3">
         <v>0.05</v>
       </c>
-      <c r="D6" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="D6" s="33">
+        <v>6.25E-2</v>
       </c>
       <c r="E6" s="3">
         <v>0.08</v>
@@ -4723,62 +4977,62 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="B8" s="4">
         <f>+$A$8*B6/12</f>
-        <v>166.66666666666666</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ref="C8:E8" si="0">+$A$8*C6/12</f>
-        <v>208.33333333333334</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>291.66666666666669</v>
+        <v>26.041666666666668</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>333.33333333333331</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>40000</v>
+        <v>110000</v>
       </c>
       <c r="B9" s="4">
         <f>+$A$9*B6/12</f>
-        <v>133.33333333333334</v>
+        <v>366.66666666666669</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ref="C9:E9" si="1">+$A$9*C6/12</f>
-        <v>166.66666666666666</v>
+        <v>458.33333333333331</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="1"/>
-        <v>233.33333333333337</v>
+        <v>572.91666666666663</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>266.66666666666669</v>
+        <v>733.33333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4798,12 +5052,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4813,45 +5067,50 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" ref="A15:E16" si="2">+A8*$A$3</f>
-        <v>55000000</v>
+        <v>6040000</v>
       </c>
       <c r="B15" s="5">
         <f t="shared" si="2"/>
-        <v>183333.33333333331</v>
+        <v>20133.333333333336</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="2"/>
-        <v>229166.66666666669</v>
+        <v>25166.666666666664</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="2"/>
-        <v>320833.33333333337</v>
+        <v>31458.333333333336</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
-        <v>366666.66666666663</v>
+        <v>40266.666666666672</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f t="shared" si="2"/>
-        <v>44000000</v>
+        <f>+A9*$A$3</f>
+        <v>132880000</v>
       </c>
       <c r="B16" s="5">
         <f t="shared" si="2"/>
-        <v>146666.66666666669</v>
+        <v>442933.33333333337</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="2"/>
-        <v>183333.33333333331</v>
+        <v>553666.66666666663</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="2"/>
-        <v>256666.66666666672</v>
+        <f>+D9*$A$3</f>
+        <v>692083.33333333326</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
-        <v>293333.33333333337</v>
+        <v>885866.66666666674</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="5">
+        <v>600000</v>
       </c>
     </row>
   </sheetData>

--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="786" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{554F9C6A-CEE8-48C2-9B60-986AFACC830F}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB60807-B29E-4B97-AE21-34931BA2A686}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
@@ -309,6 +309,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB16" authorId="1" shapeId="0" xr:uid="{512C1CAD-CC9A-4278-BC01-D5D27CDD0DDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+28/08/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD16" authorId="1" shapeId="0" xr:uid="{6378FB62-3201-4B3D-9960-5A76B0E2B0CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+28/08/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H17" authorId="0" shapeId="0" xr:uid="{69CA36CE-A235-4144-8F90-D8BCBE832CCB}">
       <text>
         <r>
@@ -533,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Plazo</t>
   </si>
@@ -648,11 +696,23 @@
   <si>
     <t>PQCSD</t>
   </si>
+  <si>
+    <t>PUC2D</t>
+  </si>
+  <si>
+    <t>Petroleo Sudameric</t>
+  </si>
+  <si>
+    <t>PECOM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1069,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1152,16 +1212,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1182,22 +1242,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1539,71 +1605,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
-  <dimension ref="A1:AB73"/>
+  <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="28" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="30" width="9.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="36" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="36" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="36" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="36" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="36" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="36" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="35"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
@@ -1660,8 +1732,12 @@
         <v>4</v>
       </c>
       <c r="AB2" s="39"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="39"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +1794,12 @@
         <v>4</v>
       </c>
       <c r="AB3" s="39"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="38">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="39"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
@@ -1774,8 +1854,10 @@
       <c r="Z4" s="41"/>
       <c r="AA4" s="40"/>
       <c r="AB4" s="41"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="41"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -1823,8 +1905,10 @@
       <c r="Z5" s="39"/>
       <c r="AA5" s="38"/>
       <c r="AB5" s="39"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="39"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -1881,60 +1965,68 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="AB6" s="43"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="42">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="AD6" s="43"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="44" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="44" t="s">
+      <c r="J7" s="37"/>
+      <c r="K7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="44" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="45"/>
-      <c r="O7" s="44" t="s">
+      <c r="N7" s="37"/>
+      <c r="O7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="44" t="s">
+      <c r="P7" s="37"/>
+      <c r="Q7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="44" t="s">
+      <c r="R7" s="37"/>
+      <c r="S7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="45"/>
-      <c r="U7" s="44" t="s">
+      <c r="T7" s="37"/>
+      <c r="U7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="45"/>
-      <c r="W7" s="44" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="44" t="s">
+      <c r="X7" s="37"/>
+      <c r="Y7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="45"/>
-    </row>
-    <row r="8" spans="1:28" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="37"/>
+    </row>
+    <row r="8" spans="1:30" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
@@ -1942,69 +2034,73 @@
         <f>SUM(C8:AB8)</f>
         <v>116098</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="44">
         <v>19000</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="46">
+      <c r="D8" s="45"/>
+      <c r="E8" s="44">
         <v>20163</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="46">
+      <c r="F8" s="45"/>
+      <c r="G8" s="44">
         <v>10000</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="46">
+      <c r="H8" s="45"/>
+      <c r="I8" s="44">
         <v>18000</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="46">
+      <c r="J8" s="45"/>
+      <c r="K8" s="44">
         <v>4000</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="46">
+      <c r="L8" s="45"/>
+      <c r="M8" s="44">
         <v>4000</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="46">
+      <c r="N8" s="45"/>
+      <c r="O8" s="44">
         <v>8000</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="46">
+      <c r="P8" s="45"/>
+      <c r="Q8" s="44">
         <v>8000</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="46">
+      <c r="R8" s="45"/>
+      <c r="S8" s="44">
         <v>4000</v>
       </c>
-      <c r="T8" s="47"/>
-      <c r="U8" s="46">
+      <c r="T8" s="45"/>
+      <c r="U8" s="44">
         <v>5000</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="46">
+      <c r="V8" s="45"/>
+      <c r="W8" s="44">
         <v>935</v>
       </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="46">
+      <c r="X8" s="45"/>
+      <c r="Y8" s="44">
         <v>4000</v>
       </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="46">
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="44">
         <v>11000</v>
       </c>
-      <c r="AB8" s="47"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="44">
+        <v>7000</v>
+      </c>
+      <c r="AD8" s="45"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45658</v>
       </c>
       <c r="B9" s="24">
-        <f>+D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9</f>
+        <f>+D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9</f>
         <v>987</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="11">
+      <c r="D9" s="50">
         <v>987</v>
       </c>
       <c r="E9" s="10"/>
@@ -2031,23 +2127,24 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="11"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="11"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45689</v>
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:B72" si="0">+D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10</f>
-        <v>75</v>
+        <v>69.83</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13">
-        <f>+$G$8*$G$6</f>
-        <v>75</v>
+      <c r="H10" s="51">
+        <v>69.83</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
@@ -2069,8 +2166,10 @@
       <c r="Z10" s="13"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="13"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="13"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45717</v>
       </c>
@@ -2107,8 +2206,10 @@
       <c r="Z11" s="13"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="13"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="13"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45748</v>
       </c>
@@ -2151,8 +2252,10 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="13"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="13"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45778</v>
       </c>
@@ -2195,8 +2298,10 @@
       <c r="Z13" s="13"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="13"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="13"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45809</v>
       </c>
@@ -2235,12 +2340,11 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="13"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45839</v>
       </c>
@@ -2277,8 +2381,10 @@
       <c r="Z15" s="13"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="13"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="13"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45870</v>
       </c>
@@ -2320,9 +2426,17 @@
         <v>160</v>
       </c>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="13"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB16" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45901</v>
       </c>
@@ -2362,8 +2476,10 @@
       <c r="Z17" s="13"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="13"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="13"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45931</v>
       </c>
@@ -2412,8 +2528,10 @@
       <c r="Z18" s="13"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="13"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="13"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45962</v>
       </c>
@@ -2456,8 +2574,10 @@
       <c r="Z19" s="13"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="13"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="13"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>45992</v>
       </c>
@@ -2498,82 +2618,89 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="14"/>
       <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="15"/>
+    </row>
+    <row r="21" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="7">
         <f>SUM(C21:AM21)</f>
-        <v>7069.6312749999997</v>
-      </c>
-      <c r="C21" s="34">
+        <v>7305.0862749999997</v>
+      </c>
+      <c r="C21" s="46">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="34">
+      <c r="D21" s="47"/>
+      <c r="E21" s="46">
         <f>SUM(F9:F20)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="34">
+      <c r="F21" s="47"/>
+      <c r="G21" s="46">
         <f>SUM(H9:H20)</f>
-        <v>300</v>
-      </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="34">
+        <v>294.83</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="46">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="34">
+      <c r="J21" s="47"/>
+      <c r="K21" s="46">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="35"/>
-      <c r="M21" s="34">
+      <c r="L21" s="47"/>
+      <c r="M21" s="46">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="34">
+      <c r="N21" s="47"/>
+      <c r="O21" s="46">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="34">
+      <c r="P21" s="47"/>
+      <c r="Q21" s="46">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="34">
+      <c r="R21" s="47"/>
+      <c r="S21" s="46">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="35"/>
-      <c r="U21" s="34">
+      <c r="T21" s="47"/>
+      <c r="U21" s="46">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="35"/>
-      <c r="W21" s="34">
+      <c r="V21" s="47"/>
+      <c r="W21" s="46">
         <f>SUM(X9:X20)</f>
         <v>104.16187499999999</v>
       </c>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="34">
+      <c r="X21" s="47"/>
+      <c r="Y21" s="46">
         <f>SUM(Z9:Z20)</f>
         <v>160</v>
       </c>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="34">
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="46">
         <f>SUM(AB9:AB20)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB21" s="35"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="46">
+        <f>SUM(AD9:AD20)</f>
+        <v>240.62499999999997</v>
+      </c>
+      <c r="AD21" s="47"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>46023</v>
       </c>
@@ -2613,8 +2740,10 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="11"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="11"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>46054</v>
       </c>
@@ -2661,9 +2790,17 @@
         <v>160</v>
       </c>
       <c r="AA23" s="12"/>
-      <c r="AB23" s="13"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB23" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>46082</v>
       </c>
@@ -2700,8 +2837,10 @@
       <c r="Z24" s="13"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="13"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="13"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>46113</v>
       </c>
@@ -2750,8 +2889,10 @@
       <c r="Z25" s="13"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="13"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="13"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>46143</v>
       </c>
@@ -2799,8 +2940,10 @@
       <c r="Z26" s="13"/>
       <c r="AA26" s="12"/>
       <c r="AB26" s="13"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="13"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>46174</v>
       </c>
@@ -2839,8 +2982,10 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="13"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="13"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>46204</v>
       </c>
@@ -2880,8 +3025,10 @@
       <c r="Z28" s="13"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="13"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="13"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>46235</v>
       </c>
@@ -2923,9 +3070,17 @@
         <v>160</v>
       </c>
       <c r="AA29" s="12"/>
-      <c r="AB29" s="13"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB29" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>46266</v>
       </c>
@@ -2959,8 +3114,10 @@
       <c r="Z30" s="13"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="13"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="13"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>46296</v>
       </c>
@@ -3009,8 +3166,10 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="13"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="13"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>46327</v>
       </c>
@@ -3059,8 +3218,10 @@
       <c r="Z32" s="13"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="13"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="13"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>46357</v>
       </c>
@@ -3094,82 +3255,89 @@
       <c r="Z33" s="15"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="15"/>
-    </row>
-    <row r="34" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="15"/>
+    </row>
+    <row r="34" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="7">
         <f>SUM(C34:AM34)</f>
-        <v>7144.83565</v>
-      </c>
-      <c r="C34" s="34">
+        <v>8107.33565</v>
+      </c>
+      <c r="C34" s="46">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="34">
+      <c r="D34" s="47"/>
+      <c r="E34" s="46">
         <f>SUM(F22:F33)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="34">
+      <c r="F34" s="47"/>
+      <c r="G34" s="46">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="34">
+      <c r="H34" s="47"/>
+      <c r="I34" s="46">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="34">
+      <c r="J34" s="47"/>
+      <c r="K34" s="46">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="35"/>
-      <c r="M34" s="34">
+      <c r="L34" s="47"/>
+      <c r="M34" s="46">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="35"/>
-      <c r="O34" s="34">
+      <c r="N34" s="47"/>
+      <c r="O34" s="46">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="34">
+      <c r="P34" s="47"/>
+      <c r="Q34" s="46">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="35"/>
-      <c r="S34" s="34">
+      <c r="R34" s="47"/>
+      <c r="S34" s="46">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="35"/>
-      <c r="U34" s="34">
+      <c r="T34" s="47"/>
+      <c r="U34" s="46">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="35"/>
-      <c r="W34" s="34">
+      <c r="V34" s="47"/>
+      <c r="W34" s="46">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="34">
+      <c r="X34" s="47"/>
+      <c r="Y34" s="46">
         <f>SUM(Z22:Z33)</f>
         <v>320</v>
       </c>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="34">
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="46">
         <f>SUM(AB22:AB33)</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="35"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+        <v>481.24999999999994</v>
+      </c>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="46">
+        <f>SUM(AD22:AD33)</f>
+        <v>481.24999999999994</v>
+      </c>
+      <c r="AD34" s="47"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>46388</v>
       </c>
@@ -3209,8 +3377,10 @@
       <c r="Z35" s="11"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="11"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="11"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>46419</v>
       </c>
@@ -3252,9 +3422,17 @@
         <v>160</v>
       </c>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="13"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB36" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="13">
+        <f>+$AA$8*$AA$6/$AA$3</f>
+        <v>240.62499999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>46447</v>
       </c>
@@ -3288,8 +3466,10 @@
       <c r="Z37" s="13"/>
       <c r="AA37" s="12"/>
       <c r="AB37" s="13"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="13"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>46478</v>
       </c>
@@ -3338,8 +3518,10 @@
       <c r="Z38" s="13"/>
       <c r="AA38" s="12"/>
       <c r="AB38" s="13"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="13"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>46508</v>
       </c>
@@ -3379,8 +3561,10 @@
       <c r="Z39" s="13"/>
       <c r="AA39" s="12"/>
       <c r="AB39" s="13"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="13"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>46539</v>
       </c>
@@ -3414,8 +3598,10 @@
       <c r="Z40" s="13"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="13"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="13"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>46569</v>
       </c>
@@ -3452,8 +3638,10 @@
       <c r="Z41" s="13"/>
       <c r="AA41" s="12"/>
       <c r="AB41" s="13"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="13"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>46600</v>
       </c>
@@ -3493,8 +3681,10 @@
       </c>
       <c r="AA42" s="12"/>
       <c r="AB42" s="13"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="13"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>46631</v>
       </c>
@@ -3528,8 +3718,10 @@
       <c r="Z43" s="13"/>
       <c r="AA43" s="12"/>
       <c r="AB43" s="13"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="13"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>46661</v>
       </c>
@@ -3580,8 +3772,10 @@
       <c r="Z44" s="13"/>
       <c r="AA44" s="12"/>
       <c r="AB44" s="13"/>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="13"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>46692</v>
       </c>
@@ -3615,8 +3809,10 @@
       <c r="Z45" s="13"/>
       <c r="AA45" s="12"/>
       <c r="AB45" s="13"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="13"/>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>46722</v>
       </c>
@@ -3656,8 +3852,10 @@
       <c r="Z46" s="15"/>
       <c r="AA46" s="14"/>
       <c r="AB46" s="15"/>
-    </row>
-    <row r="47" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC46" s="14"/>
+      <c r="AD46" s="15"/>
+    </row>
+    <row r="47" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>11</v>
       </c>
@@ -3665,73 +3863,78 @@
         <f>SUM(C47:Q47)</f>
         <v>4385.3444</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="46">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="34">
+      <c r="D47" s="47"/>
+      <c r="E47" s="46">
         <f>SUM(F35:F46)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="34">
+      <c r="F47" s="47"/>
+      <c r="G47" s="46">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="35"/>
-      <c r="I47" s="34">
+      <c r="H47" s="47"/>
+      <c r="I47" s="46">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="34">
+      <c r="J47" s="47"/>
+      <c r="K47" s="46">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="35"/>
-      <c r="M47" s="34">
+      <c r="L47" s="47"/>
+      <c r="M47" s="46">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="35"/>
-      <c r="O47" s="34">
+      <c r="N47" s="47"/>
+      <c r="O47" s="46">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="34">
+      <c r="P47" s="47"/>
+      <c r="Q47" s="46">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="35"/>
-      <c r="S47" s="34">
+      <c r="R47" s="47"/>
+      <c r="S47" s="46">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="35"/>
-      <c r="U47" s="34">
+      <c r="T47" s="47"/>
+      <c r="U47" s="46">
         <f t="shared" ref="U47" si="2">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="35"/>
-      <c r="W47" s="34">
+      <c r="V47" s="47"/>
+      <c r="W47" s="46">
         <f t="shared" ref="W47" si="3">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="34">
+      <c r="X47" s="47"/>
+      <c r="Y47" s="46">
         <f t="shared" ref="Y47" si="4">SUM(Z35:Z46)</f>
         <v>320</v>
       </c>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="34">
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="46">
         <f t="shared" ref="AA47" si="5">SUM(AB35:AB46)</f>
-        <v>0</v>
-      </c>
-      <c r="AB47" s="35"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+        <v>240.62499999999997</v>
+      </c>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="46">
+        <f t="shared" ref="AC47" si="6">SUM(AD35:AD46)</f>
+        <v>240.62499999999997</v>
+      </c>
+      <c r="AD47" s="47"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46753</v>
       </c>
@@ -3768,8 +3971,10 @@
       <c r="Z48" s="11"/>
       <c r="AA48" s="10"/>
       <c r="AB48" s="11"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="11"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>46784</v>
       </c>
@@ -3806,8 +4011,10 @@
       </c>
       <c r="AA49" s="12"/>
       <c r="AB49" s="13"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="13"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>46813</v>
       </c>
@@ -3841,8 +4048,10 @@
       <c r="Z50" s="13"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="13"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="13"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>46844</v>
       </c>
@@ -3885,8 +4094,10 @@
       <c r="Z51" s="13"/>
       <c r="AA51" s="12"/>
       <c r="AB51" s="13"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="13"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>46874</v>
       </c>
@@ -3920,8 +4131,10 @@
       <c r="Z52" s="13"/>
       <c r="AA52" s="12"/>
       <c r="AB52" s="13"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="13"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>46905</v>
       </c>
@@ -3961,8 +4174,10 @@
       <c r="Z53" s="13"/>
       <c r="AA53" s="12"/>
       <c r="AB53" s="13"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="13"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>46935</v>
       </c>
@@ -3999,8 +4214,10 @@
       <c r="Z54" s="13"/>
       <c r="AA54" s="12"/>
       <c r="AB54" s="13"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="13"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>46966</v>
       </c>
@@ -4037,8 +4254,10 @@
       </c>
       <c r="AA55" s="12"/>
       <c r="AB55" s="13"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="13"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>46997</v>
       </c>
@@ -4072,8 +4291,10 @@
       <c r="Z56" s="13"/>
       <c r="AA56" s="12"/>
       <c r="AB56" s="13"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="13"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>47027</v>
       </c>
@@ -4116,8 +4337,10 @@
       <c r="Z57" s="13"/>
       <c r="AA57" s="12"/>
       <c r="AB57" s="13"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="13"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>47058</v>
       </c>
@@ -4151,8 +4374,10 @@
       <c r="Z58" s="13"/>
       <c r="AA58" s="12"/>
       <c r="AB58" s="13"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="13"/>
+    </row>
+    <row r="59" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>47088</v>
       </c>
@@ -4192,8 +4417,10 @@
       <c r="Z59" s="15"/>
       <c r="AA59" s="14"/>
       <c r="AB59" s="15"/>
-    </row>
-    <row r="60" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC59" s="14"/>
+      <c r="AD59" s="15"/>
+    </row>
+    <row r="60" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>12</v>
       </c>
@@ -4201,55 +4428,57 @@
         <f>SUM(C60:K60)</f>
         <v>2018.4222</v>
       </c>
-      <c r="C60" s="34">
+      <c r="C60" s="46">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="35"/>
-      <c r="E60" s="34">
+      <c r="D60" s="47"/>
+      <c r="E60" s="46">
         <f>SUM(F48:F59)</f>
         <v>794.42219999999998</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="34">
+      <c r="F60" s="47"/>
+      <c r="G60" s="46">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="34">
+      <c r="H60" s="47"/>
+      <c r="I60" s="46">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="35"/>
-      <c r="K60" s="34">
+      <c r="J60" s="47"/>
+      <c r="K60" s="46">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="35"/>
-      <c r="M60" s="34">
+      <c r="L60" s="47"/>
+      <c r="M60" s="46">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="35"/>
-      <c r="O60" s="34">
+      <c r="N60" s="47"/>
+      <c r="O60" s="46">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="35"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P60" s="47"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="47"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="47"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="47"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="46"/>
+      <c r="AD60" s="47"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>47119</v>
       </c>
@@ -4286,8 +4515,10 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="11"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="11"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>47150</v>
       </c>
@@ -4321,8 +4552,10 @@
       <c r="Z62" s="13"/>
       <c r="AA62" s="12"/>
       <c r="AB62" s="13"/>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="13"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>47178</v>
       </c>
@@ -4356,8 +4589,10 @@
       <c r="Z63" s="13"/>
       <c r="AA63" s="12"/>
       <c r="AB63" s="13"/>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="13"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>47209</v>
       </c>
@@ -4397,8 +4632,10 @@
       <c r="Z64" s="13"/>
       <c r="AA64" s="12"/>
       <c r="AB64" s="13"/>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="13"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>47239</v>
       </c>
@@ -4432,8 +4669,10 @@
       <c r="Z65" s="13"/>
       <c r="AA65" s="12"/>
       <c r="AB65" s="13"/>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="13"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>47270</v>
       </c>
@@ -4467,8 +4706,10 @@
       <c r="Z66" s="13"/>
       <c r="AA66" s="12"/>
       <c r="AB66" s="13"/>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="13"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>47300</v>
       </c>
@@ -4505,8 +4746,10 @@
       <c r="Z67" s="13"/>
       <c r="AA67" s="12"/>
       <c r="AB67" s="13"/>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="13"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>47331</v>
       </c>
@@ -4540,8 +4783,10 @@
       <c r="Z68" s="13"/>
       <c r="AA68" s="12"/>
       <c r="AB68" s="13"/>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="13"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>47362</v>
       </c>
@@ -4575,8 +4820,10 @@
       <c r="Z69" s="13"/>
       <c r="AA69" s="12"/>
       <c r="AB69" s="13"/>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="13"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>47392</v>
       </c>
@@ -4613,8 +4860,10 @@
       <c r="Z70" s="13"/>
       <c r="AA70" s="12"/>
       <c r="AB70" s="13"/>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="13"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>47423</v>
       </c>
@@ -4648,8 +4897,10 @@
       <c r="Z71" s="13"/>
       <c r="AA71" s="12"/>
       <c r="AB71" s="13"/>
-    </row>
-    <row r="72" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="13"/>
+    </row>
+    <row r="72" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>47453</v>
       </c>
@@ -4683,8 +4934,10 @@
       <c r="Z72" s="15"/>
       <c r="AA72" s="14"/>
       <c r="AB72" s="15"/>
-    </row>
-    <row r="73" spans="1:28" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC72" s="14"/>
+      <c r="AD72" s="15"/>
+    </row>
+    <row r="73" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>12</v>
       </c>
@@ -4692,56 +4945,216 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="34">
+      <c r="C73" s="46">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="34">
+      <c r="D73" s="47"/>
+      <c r="E73" s="46">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="34">
+      <c r="F73" s="47"/>
+      <c r="G73" s="46">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="35"/>
-      <c r="I73" s="34">
+      <c r="H73" s="47"/>
+      <c r="I73" s="46">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="35"/>
-      <c r="K73" s="34">
+      <c r="J73" s="47"/>
+      <c r="K73" s="46">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="35"/>
-      <c r="M73" s="34">
+      <c r="L73" s="47"/>
+      <c r="M73" s="46">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="35"/>
-      <c r="O73" s="34">
+      <c r="N73" s="47"/>
+      <c r="O73" s="46">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="35"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="47"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="47"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="46"/>
+      <c r="Z73" s="47"/>
+      <c r="AA73" s="46"/>
+      <c r="AB73" s="47"/>
+      <c r="AC73" s="46"/>
+      <c r="AD73" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="182">
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AC73:AD73"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
@@ -4766,151 +5179,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA21:AB21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="805" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB60807-B29E-4B97-AE21-34931BA2A686}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3FCBD0-A876-CC4A-ADB6-15EE5D3B51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -59,12 +59,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-24/01/2025</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>24/01/2025</t>
         </r>
       </text>
     </comment>
@@ -339,21 +348,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Farina:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-28/08/2025</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>28/08/2025</t>
         </r>
       </text>
     </comment>
@@ -713,7 +731,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +779,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1212,16 +1243,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1242,17 +1279,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1260,16 +1297,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1284,12 +1315,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1607,426 +1634,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="30" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="30" width="9.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="34" t="s">
+    <row r="1" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34" t="s">
+      <c r="L1" s="39"/>
+      <c r="M1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="34" t="s">
+      <c r="R1" s="39"/>
+      <c r="S1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="34" t="s">
+      <c r="T1" s="39"/>
+      <c r="U1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="34" t="s">
+      <c r="V1" s="39"/>
+      <c r="W1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="39"/>
+      <c r="Y1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="34" t="s">
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="34" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="35"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD1" s="39"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="38">
+      <c r="C2" s="40">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38">
+      <c r="D2" s="41"/>
+      <c r="E2" s="40">
         <v>6</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="38">
+      <c r="F2" s="41"/>
+      <c r="G2" s="40">
         <v>6</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="38">
+      <c r="H2" s="41"/>
+      <c r="I2" s="40">
         <v>6</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="38">
+      <c r="J2" s="41"/>
+      <c r="K2" s="40">
         <v>6</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="38">
+      <c r="L2" s="41"/>
+      <c r="M2" s="40">
         <v>6</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="38">
+      <c r="N2" s="41"/>
+      <c r="O2" s="40">
         <v>6</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="38">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="40">
         <v>6</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="38">
+      <c r="R2" s="41"/>
+      <c r="S2" s="40">
         <v>3</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="38">
+      <c r="T2" s="41"/>
+      <c r="U2" s="40">
         <v>6</v>
       </c>
-      <c r="V2" s="39"/>
-      <c r="W2" s="38">
+      <c r="V2" s="41"/>
+      <c r="W2" s="40">
         <v>3</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="40">
         <v>6</v>
       </c>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="38">
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="40">
         <v>4</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="38">
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="40">
         <v>4</v>
       </c>
-      <c r="AD2" s="39"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD2" s="41"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="38">
+      <c r="C3" s="40">
         <v>4</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38">
+      <c r="D3" s="41"/>
+      <c r="E3" s="40">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38">
+      <c r="F3" s="41"/>
+      <c r="G3" s="40">
         <v>1</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38">
+      <c r="H3" s="41"/>
+      <c r="I3" s="40">
         <v>2</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38">
+      <c r="J3" s="41"/>
+      <c r="K3" s="40">
         <v>2</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38">
+      <c r="L3" s="41"/>
+      <c r="M3" s="40">
         <v>2</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38">
+      <c r="N3" s="41"/>
+      <c r="O3" s="40">
         <v>4</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="38">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="40">
         <v>2</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="38">
+      <c r="R3" s="41"/>
+      <c r="S3" s="40">
         <v>4</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="38">
+      <c r="T3" s="41"/>
+      <c r="U3" s="40">
         <v>2</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="38">
+      <c r="V3" s="41"/>
+      <c r="W3" s="40">
         <v>4</v>
       </c>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="41"/>
+      <c r="Y3" s="40">
         <v>2</v>
       </c>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="38">
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="40">
         <v>4</v>
       </c>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="38">
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="40">
         <v>4</v>
       </c>
-      <c r="AD3" s="39"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD3" s="41"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="40">
+      <c r="C4" s="42">
         <v>46501</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="40">
+      <c r="D4" s="43"/>
+      <c r="E4" s="42">
         <v>47027</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="40">
+      <c r="F4" s="43"/>
+      <c r="G4" s="42">
         <v>46174</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="40">
+      <c r="H4" s="43"/>
+      <c r="I4" s="42">
         <v>47392</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="40">
+      <c r="J4" s="43"/>
+      <c r="K4" s="42">
         <v>46702</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="40">
+      <c r="L4" s="43"/>
+      <c r="M4" s="42">
         <v>46367</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="40">
+      <c r="N4" s="43"/>
+      <c r="O4" s="42">
         <v>47500</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="40">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42">
         <v>47510</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="40">
+      <c r="R4" s="43"/>
+      <c r="S4" s="42">
         <v>46664</v>
       </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="40">
+      <c r="T4" s="43"/>
+      <c r="U4" s="42">
         <v>46424</v>
       </c>
-      <c r="V4" s="41"/>
-      <c r="W4" s="40">
+      <c r="V4" s="43"/>
+      <c r="W4" s="42">
         <v>46174</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="40">
+      <c r="X4" s="43"/>
+      <c r="Y4" s="42">
         <v>47896</v>
       </c>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="41"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="43"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="38">
+      <c r="C5" s="40">
         <v>32</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="38">
+      <c r="D5" s="41"/>
+      <c r="E5" s="40">
         <f>4*12</f>
         <v>48</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38">
+      <c r="F5" s="41"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="40">
         <v>60</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38">
+      <c r="J5" s="41"/>
+      <c r="K5" s="40">
         <v>24</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="38">
+      <c r="L5" s="41"/>
+      <c r="M5" s="40">
         <v>24</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38">
+      <c r="N5" s="41"/>
+      <c r="O5" s="40">
         <v>60</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="38">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40">
         <v>60</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="38">
+      <c r="R5" s="41"/>
+      <c r="S5" s="40">
         <v>32</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="39"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T5" s="41"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="41"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="42">
+      <c r="C6" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="42">
+      <c r="D6" s="45"/>
+      <c r="E6" s="44">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="42">
+      <c r="F6" s="45"/>
+      <c r="G6" s="44">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="42">
+      <c r="H6" s="45"/>
+      <c r="I6" s="44">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="42">
+      <c r="J6" s="45"/>
+      <c r="K6" s="44">
         <v>0.08</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="42">
+      <c r="L6" s="45"/>
+      <c r="M6" s="44">
         <v>0.06</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="42">
+      <c r="N6" s="45"/>
+      <c r="O6" s="44">
         <v>0.08</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="42">
+      <c r="P6" s="45"/>
+      <c r="Q6" s="44">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="42">
+      <c r="R6" s="45"/>
+      <c r="S6" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="42">
+      <c r="T6" s="45"/>
+      <c r="U6" s="44">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V6" s="43"/>
-      <c r="W6" s="42">
+      <c r="V6" s="45"/>
+      <c r="W6" s="44">
         <v>0.1095</v>
       </c>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="42">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="44">
         <v>0.08</v>
       </c>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="42">
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="44">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="42">
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="44">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AD6" s="43"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD6" s="45"/>
+    </row>
+    <row r="7" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="36" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="47"/>
+      <c r="K7" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="47"/>
+      <c r="M7" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="47"/>
+      <c r="O7" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="36" t="s">
+      <c r="P7" s="47"/>
+      <c r="Q7" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="36" t="s">
+      <c r="R7" s="47"/>
+      <c r="S7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="36" t="s">
+      <c r="T7" s="47"/>
+      <c r="U7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="36" t="s">
+      <c r="V7" s="47"/>
+      <c r="W7" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="36" t="s">
+      <c r="X7" s="47"/>
+      <c r="Y7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="36" t="s">
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="37"/>
-    </row>
-    <row r="8" spans="1:30" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="47"/>
+    </row>
+    <row r="8" spans="1:30" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
@@ -2034,64 +2061,64 @@
         <f>SUM(C8:AB8)</f>
         <v>116098</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="48">
         <v>19000</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44">
+      <c r="D8" s="49"/>
+      <c r="E8" s="48">
         <v>20163</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="44">
+      <c r="F8" s="49"/>
+      <c r="G8" s="48">
         <v>10000</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="44">
+      <c r="H8" s="49"/>
+      <c r="I8" s="48">
         <v>18000</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="44">
+      <c r="J8" s="49"/>
+      <c r="K8" s="48">
         <v>4000</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="44">
+      <c r="L8" s="49"/>
+      <c r="M8" s="48">
         <v>4000</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="44">
+      <c r="N8" s="49"/>
+      <c r="O8" s="48">
         <v>8000</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="44">
+      <c r="P8" s="49"/>
+      <c r="Q8" s="48">
         <v>8000</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="44">
+      <c r="R8" s="49"/>
+      <c r="S8" s="48">
         <v>4000</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="44">
+      <c r="T8" s="49"/>
+      <c r="U8" s="48">
         <v>5000</v>
       </c>
-      <c r="V8" s="45"/>
-      <c r="W8" s="44">
+      <c r="V8" s="49"/>
+      <c r="W8" s="48">
         <v>935</v>
       </c>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="44">
+      <c r="X8" s="49"/>
+      <c r="Y8" s="48">
         <v>4000</v>
       </c>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="44">
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="48">
         <v>11000</v>
       </c>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="44">
-        <v>7000</v>
-      </c>
-      <c r="AD8" s="45"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="48">
+        <v>7800</v>
+      </c>
+      <c r="AD8" s="49"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>45658</v>
       </c>
@@ -2100,7 +2127,7 @@
         <v>987</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="50">
+      <c r="D9" s="34">
         <v>987</v>
       </c>
       <c r="E9" s="10"/>
@@ -2130,7 +2157,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>45689</v>
       </c>
@@ -2143,7 +2170,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="51">
+      <c r="H10" s="35">
         <v>69.83</v>
       </c>
       <c r="I10" s="12"/>
@@ -2169,7 +2196,7 @@
       <c r="AC10" s="12"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>45717</v>
       </c>
@@ -2209,7 +2236,7 @@
       <c r="AC11" s="12"/>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>45748</v>
       </c>
@@ -2255,7 +2282,7 @@
       <c r="AC12" s="12"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>45778</v>
       </c>
@@ -2301,7 +2328,7 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>45809</v>
       </c>
@@ -2344,7 +2371,7 @@
       <c r="AC14" s="12"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>45839</v>
       </c>
@@ -2384,7 +2411,7 @@
       <c r="AC15" s="12"/>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>45870</v>
       </c>
@@ -2436,7 +2463,7 @@
         <v>240.62499999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>45901</v>
       </c>
@@ -2479,7 +2506,7 @@
       <c r="AC17" s="12"/>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>45931</v>
       </c>
@@ -2531,7 +2558,7 @@
       <c r="AC18" s="12"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>45962</v>
       </c>
@@ -2577,7 +2604,7 @@
       <c r="AC19" s="12"/>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>45992</v>
       </c>
@@ -2621,7 +2648,7 @@
       <c r="AC20" s="14"/>
       <c r="AD20" s="15"/>
     </row>
-    <row r="21" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
@@ -2629,78 +2656,78 @@
         <f>SUM(C21:AM21)</f>
         <v>7305.0862749999997</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="36">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="46">
+      <c r="D21" s="37"/>
+      <c r="E21" s="36">
         <f>SUM(F9:F20)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="46">
+      <c r="F21" s="37"/>
+      <c r="G21" s="36">
         <f>SUM(H9:H20)</f>
         <v>294.83</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="46">
+      <c r="H21" s="37"/>
+      <c r="I21" s="36">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="46">
+      <c r="J21" s="37"/>
+      <c r="K21" s="36">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="46">
+      <c r="L21" s="37"/>
+      <c r="M21" s="36">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="46">
+      <c r="N21" s="37"/>
+      <c r="O21" s="36">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="46">
+      <c r="P21" s="37"/>
+      <c r="Q21" s="36">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="47"/>
-      <c r="S21" s="46">
+      <c r="R21" s="37"/>
+      <c r="S21" s="36">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="47"/>
-      <c r="U21" s="46">
+      <c r="T21" s="37"/>
+      <c r="U21" s="36">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="47"/>
-      <c r="W21" s="46">
+      <c r="V21" s="37"/>
+      <c r="W21" s="36">
         <f>SUM(X9:X20)</f>
         <v>104.16187499999999</v>
       </c>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="46">
+      <c r="X21" s="37"/>
+      <c r="Y21" s="36">
         <f>SUM(Z9:Z20)</f>
         <v>160</v>
       </c>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="46">
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="36">
         <f>SUM(AB9:AB20)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="46">
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="36">
         <f>SUM(AD9:AD20)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AD21" s="47"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD21" s="37"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>46023</v>
       </c>
@@ -2743,7 +2770,7 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="11"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>46054</v>
       </c>
@@ -2800,7 +2827,7 @@
         <v>240.62499999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>46082</v>
       </c>
@@ -2840,7 +2867,7 @@
       <c r="AC24" s="12"/>
       <c r="AD24" s="13"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>46113</v>
       </c>
@@ -2892,7 +2919,7 @@
       <c r="AC25" s="12"/>
       <c r="AD25" s="13"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>46143</v>
       </c>
@@ -2943,7 +2970,7 @@
       <c r="AC26" s="12"/>
       <c r="AD26" s="13"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>46174</v>
       </c>
@@ -2985,7 +3012,7 @@
       <c r="AC27" s="12"/>
       <c r="AD27" s="13"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>46204</v>
       </c>
@@ -3028,7 +3055,7 @@
       <c r="AC28" s="12"/>
       <c r="AD28" s="13"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>46235</v>
       </c>
@@ -3080,7 +3107,7 @@
         <v>240.62499999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>46266</v>
       </c>
@@ -3117,7 +3144,7 @@
       <c r="AC30" s="12"/>
       <c r="AD30" s="13"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>46296</v>
       </c>
@@ -3169,7 +3196,7 @@
       <c r="AC31" s="12"/>
       <c r="AD31" s="13"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>46327</v>
       </c>
@@ -3221,7 +3248,7 @@
       <c r="AC32" s="12"/>
       <c r="AD32" s="13"/>
     </row>
-    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>46357</v>
       </c>
@@ -3258,7 +3285,7 @@
       <c r="AC33" s="14"/>
       <c r="AD33" s="15"/>
     </row>
-    <row r="34" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>10</v>
       </c>
@@ -3266,78 +3293,78 @@
         <f>SUM(C34:AM34)</f>
         <v>8107.33565</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="36">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="46">
+      <c r="D34" s="37"/>
+      <c r="E34" s="36">
         <f>SUM(F22:F33)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="46">
+      <c r="F34" s="37"/>
+      <c r="G34" s="36">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="46">
+      <c r="H34" s="37"/>
+      <c r="I34" s="36">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="46">
+      <c r="J34" s="37"/>
+      <c r="K34" s="36">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="47"/>
-      <c r="M34" s="46">
+      <c r="L34" s="37"/>
+      <c r="M34" s="36">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="46">
+      <c r="N34" s="37"/>
+      <c r="O34" s="36">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="46">
+      <c r="P34" s="37"/>
+      <c r="Q34" s="36">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="47"/>
-      <c r="S34" s="46">
+      <c r="R34" s="37"/>
+      <c r="S34" s="36">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="47"/>
-      <c r="U34" s="46">
+      <c r="T34" s="37"/>
+      <c r="U34" s="36">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="47"/>
-      <c r="W34" s="46">
+      <c r="V34" s="37"/>
+      <c r="W34" s="36">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="46">
+      <c r="X34" s="37"/>
+      <c r="Y34" s="36">
         <f>SUM(Z22:Z33)</f>
         <v>320</v>
       </c>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="46">
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="36">
         <f>SUM(AB22:AB33)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="46">
+      <c r="AB34" s="37"/>
+      <c r="AC34" s="36">
         <f>SUM(AD22:AD33)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AD34" s="47"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD34" s="37"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>46388</v>
       </c>
@@ -3380,7 +3407,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="11"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>46419</v>
       </c>
@@ -3432,7 +3459,7 @@
         <v>240.62499999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>46447</v>
       </c>
@@ -3469,7 +3496,7 @@
       <c r="AC37" s="12"/>
       <c r="AD37" s="13"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>46478</v>
       </c>
@@ -3521,7 +3548,7 @@
       <c r="AC38" s="12"/>
       <c r="AD38" s="13"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>46508</v>
       </c>
@@ -3564,7 +3591,7 @@
       <c r="AC39" s="12"/>
       <c r="AD39" s="13"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>46539</v>
       </c>
@@ -3601,7 +3628,7 @@
       <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>46569</v>
       </c>
@@ -3641,7 +3668,7 @@
       <c r="AC41" s="12"/>
       <c r="AD41" s="13"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>46600</v>
       </c>
@@ -3684,7 +3711,7 @@
       <c r="AC42" s="12"/>
       <c r="AD42" s="13"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>46631</v>
       </c>
@@ -3721,7 +3748,7 @@
       <c r="AC43" s="12"/>
       <c r="AD43" s="13"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>46661</v>
       </c>
@@ -3775,7 +3802,7 @@
       <c r="AC44" s="12"/>
       <c r="AD44" s="13"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>46692</v>
       </c>
@@ -3812,7 +3839,7 @@
       <c r="AC45" s="12"/>
       <c r="AD45" s="13"/>
     </row>
-    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>46722</v>
       </c>
@@ -3855,7 +3882,7 @@
       <c r="AC46" s="14"/>
       <c r="AD46" s="15"/>
     </row>
-    <row r="47" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>11</v>
       </c>
@@ -3863,78 +3890,78 @@
         <f>SUM(C47:Q47)</f>
         <v>4385.3444</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="36">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="46">
+      <c r="D47" s="37"/>
+      <c r="E47" s="36">
         <f>SUM(F35:F46)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="46">
+      <c r="F47" s="37"/>
+      <c r="G47" s="36">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="47"/>
-      <c r="I47" s="46">
+      <c r="H47" s="37"/>
+      <c r="I47" s="36">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="46">
+      <c r="J47" s="37"/>
+      <c r="K47" s="36">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="47"/>
-      <c r="M47" s="46">
+      <c r="L47" s="37"/>
+      <c r="M47" s="36">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="47"/>
-      <c r="O47" s="46">
+      <c r="N47" s="37"/>
+      <c r="O47" s="36">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="46">
+      <c r="P47" s="37"/>
+      <c r="Q47" s="36">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="47"/>
-      <c r="S47" s="46">
+      <c r="R47" s="37"/>
+      <c r="S47" s="36">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="47"/>
-      <c r="U47" s="46">
+      <c r="T47" s="37"/>
+      <c r="U47" s="36">
         <f t="shared" ref="U47" si="2">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="47"/>
-      <c r="W47" s="46">
+      <c r="V47" s="37"/>
+      <c r="W47" s="36">
         <f t="shared" ref="W47" si="3">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="46">
+      <c r="X47" s="37"/>
+      <c r="Y47" s="36">
         <f t="shared" ref="Y47" si="4">SUM(Z35:Z46)</f>
         <v>320</v>
       </c>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="46">
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="36">
         <f t="shared" ref="AA47" si="5">SUM(AB35:AB46)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="46">
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="36">
         <f t="shared" ref="AC47" si="6">SUM(AD35:AD46)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AD47" s="47"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD47" s="37"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>46753</v>
       </c>
@@ -3974,7 +4001,7 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="11"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>46784</v>
       </c>
@@ -4014,7 +4041,7 @@
       <c r="AC49" s="12"/>
       <c r="AD49" s="13"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>46813</v>
       </c>
@@ -4051,7 +4078,7 @@
       <c r="AC50" s="12"/>
       <c r="AD50" s="13"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>46844</v>
       </c>
@@ -4097,7 +4124,7 @@
       <c r="AC51" s="12"/>
       <c r="AD51" s="13"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>46874</v>
       </c>
@@ -4134,7 +4161,7 @@
       <c r="AC52" s="12"/>
       <c r="AD52" s="13"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>46905</v>
       </c>
@@ -4177,7 +4204,7 @@
       <c r="AC53" s="12"/>
       <c r="AD53" s="13"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>46935</v>
       </c>
@@ -4217,7 +4244,7 @@
       <c r="AC54" s="12"/>
       <c r="AD54" s="13"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>46966</v>
       </c>
@@ -4257,7 +4284,7 @@
       <c r="AC55" s="12"/>
       <c r="AD55" s="13"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>46997</v>
       </c>
@@ -4294,7 +4321,7 @@
       <c r="AC56" s="12"/>
       <c r="AD56" s="13"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>47027</v>
       </c>
@@ -4340,7 +4367,7 @@
       <c r="AC57" s="12"/>
       <c r="AD57" s="13"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>47058</v>
       </c>
@@ -4377,7 +4404,7 @@
       <c r="AC58" s="12"/>
       <c r="AD58" s="13"/>
     </row>
-    <row r="59" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>47088</v>
       </c>
@@ -4420,7 +4447,7 @@
       <c r="AC59" s="14"/>
       <c r="AD59" s="15"/>
     </row>
-    <row r="60" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>12</v>
       </c>
@@ -4428,57 +4455,57 @@
         <f>SUM(C60:K60)</f>
         <v>2018.4222</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="36">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="46">
+      <c r="D60" s="37"/>
+      <c r="E60" s="36">
         <f>SUM(F48:F59)</f>
         <v>794.42219999999998</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="46">
+      <c r="F60" s="37"/>
+      <c r="G60" s="36">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="46">
+      <c r="H60" s="37"/>
+      <c r="I60" s="36">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="47"/>
-      <c r="K60" s="46">
+      <c r="J60" s="37"/>
+      <c r="K60" s="36">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="47"/>
-      <c r="M60" s="46">
+      <c r="L60" s="37"/>
+      <c r="M60" s="36">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="47"/>
-      <c r="O60" s="46">
+      <c r="N60" s="37"/>
+      <c r="O60" s="36">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="46"/>
-      <c r="X60" s="47"/>
-      <c r="Y60" s="46"/>
-      <c r="Z60" s="47"/>
-      <c r="AA60" s="46"/>
-      <c r="AB60" s="47"/>
-      <c r="AC60" s="46"/>
-      <c r="AD60" s="47"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P60" s="37"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="36"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="36"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="36"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="37"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>47119</v>
       </c>
@@ -4518,7 +4545,7 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="11"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>47150</v>
       </c>
@@ -4555,7 +4582,7 @@
       <c r="AC62" s="12"/>
       <c r="AD62" s="13"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>47178</v>
       </c>
@@ -4592,7 +4619,7 @@
       <c r="AC63" s="12"/>
       <c r="AD63" s="13"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>47209</v>
       </c>
@@ -4635,7 +4662,7 @@
       <c r="AC64" s="12"/>
       <c r="AD64" s="13"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>47239</v>
       </c>
@@ -4672,7 +4699,7 @@
       <c r="AC65" s="12"/>
       <c r="AD65" s="13"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>47270</v>
       </c>
@@ -4709,7 +4736,7 @@
       <c r="AC66" s="12"/>
       <c r="AD66" s="13"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>47300</v>
       </c>
@@ -4749,7 +4776,7 @@
       <c r="AC67" s="12"/>
       <c r="AD67" s="13"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>47331</v>
       </c>
@@ -4786,7 +4813,7 @@
       <c r="AC68" s="12"/>
       <c r="AD68" s="13"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>47362</v>
       </c>
@@ -4823,7 +4850,7 @@
       <c r="AC69" s="12"/>
       <c r="AD69" s="13"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>47392</v>
       </c>
@@ -4863,7 +4890,7 @@
       <c r="AC70" s="12"/>
       <c r="AD70" s="13"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>47423</v>
       </c>
@@ -4900,7 +4927,7 @@
       <c r="AC71" s="12"/>
       <c r="AD71" s="13"/>
     </row>
-    <row r="72" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>47453</v>
       </c>
@@ -4937,7 +4964,7 @@
       <c r="AC72" s="14"/>
       <c r="AD72" s="15"/>
     </row>
-    <row r="73" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>12</v>
       </c>
@@ -4945,97 +4972,177 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="36">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="46">
+      <c r="D73" s="37"/>
+      <c r="E73" s="36">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="47"/>
-      <c r="G73" s="46">
+      <c r="F73" s="37"/>
+      <c r="G73" s="36">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="47"/>
-      <c r="I73" s="46">
+      <c r="H73" s="37"/>
+      <c r="I73" s="36">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="47"/>
-      <c r="K73" s="46">
+      <c r="J73" s="37"/>
+      <c r="K73" s="36">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="47"/>
-      <c r="M73" s="46">
+      <c r="L73" s="37"/>
+      <c r="M73" s="36">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="47"/>
-      <c r="O73" s="46">
+      <c r="N73" s="37"/>
+      <c r="O73" s="36">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="46"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="46"/>
-      <c r="Z73" s="47"/>
-      <c r="AA73" s="46"/>
-      <c r="AB73" s="47"/>
-      <c r="AC73" s="46"/>
-      <c r="AD73" s="47"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="36"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="36"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="36"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="36"/>
+      <c r="AD73" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AC73:AD73"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="U47:V47"/>
     <mergeCell ref="W60:X60"/>
     <mergeCell ref="W73:X73"/>
     <mergeCell ref="W6:X6"/>
@@ -5060,125 +5167,45 @@
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AC73:AD73"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC21:AD21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5196,13 +5223,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="5" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -5211,23 +5238,23 @@
         <v>14729.709824716454</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1208</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>0.04</v>
       </c>
@@ -5241,18 +5268,18 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5000</v>
       </c>
@@ -5273,7 +5300,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>110000</v>
       </c>
@@ -5294,15 +5321,15 @@
         <v>733.33333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5319,20 +5346,20 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <f t="shared" ref="A15:E16" si="2">+A8*$A$3</f>
         <v>6040000</v>
@@ -5354,7 +5381,7 @@
         <v>40266.666666666672</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <f>+A9*$A$3</f>
         <v>132880000</v>
@@ -5376,7 +5403,7 @@
         <v>885866.66666666674</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" s="5">
         <v>600000</v>
       </c>
@@ -5400,23 +5427,23 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>0.1095</v>
       </c>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.071</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>4000</v>
       </c>
@@ -5441,7 +5468,7 @@
         <v>3.5947712418300755E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1000</v>
       </c>

--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="805" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB60807-B29E-4B97-AE21-34931BA2A686}"/>
+  <xr:revisionPtr revIDLastSave="834" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EC64A9-4375-465F-91C3-D7BC7E98762E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="250" iterateDelta="9.9999999999999994E-12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,30 +333,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD16" authorId="1" shapeId="0" xr:uid="{6378FB62-3201-4B3D-9960-5A76B0E2B0CC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Eduardo Farina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-28/08/2025</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H17" authorId="0" shapeId="0" xr:uid="{69CA36CE-A235-4144-8F90-D8BCBE832CCB}">
       <text>
         <r>
@@ -379,6 +355,30 @@
           <t xml:space="preserve">
 01/09/2025
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD17" authorId="1" shapeId="0" xr:uid="{5C37584D-E81A-441D-A32B-D637EF859C8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
         </r>
       </text>
     </comment>
@@ -480,6 +480,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD24" authorId="1" shapeId="0" xr:uid="{A33B5EE6-B5B0-4AF5-A04D-11924DB538DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L26" authorId="0" shapeId="0" xr:uid="{8317EAB6-71B7-4A75-BF07-8A76DD9B51F0}">
       <text>
         <r>
@@ -528,6 +552,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD30" authorId="1" shapeId="0" xr:uid="{69F4658A-1127-4F33-9CB2-440E745E62D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L32" authorId="0" shapeId="0" xr:uid="{F801E1AC-1AB3-4E04-B2BD-D8F1B20850F1}">
       <text>
         <r>
@@ -573,6 +621,54 @@
           </rPr>
           <t xml:space="preserve">
 12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD37" authorId="1" shapeId="0" xr:uid="{0FF8FE7A-A00A-4E9A-A2A4-E023CE1598E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD43" authorId="1" shapeId="0" xr:uid="{68118DC9-05EB-4104-847E-7D22E627FC4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
         </r>
       </text>
     </comment>
@@ -700,10 +796,10 @@
     <t>PUC2D</t>
   </si>
   <si>
-    <t>Petroleo Sudameric</t>
+    <t>PECOM</t>
   </si>
   <si>
-    <t>PECOM</t>
+    <t>Petroleo Sud</t>
   </si>
 </sst>
 </file>
@@ -1212,6 +1308,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1260,16 +1362,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1289,7 +1385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1608,499 +1704,499 @@
   <dimension ref="A1:AD73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="30" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="30" width="8.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="35"/>
-      <c r="S1" s="34" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="34" t="s">
+      <c r="T1" s="37"/>
+      <c r="U1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="34" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="34" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="34" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="35"/>
+      <c r="AD1" s="37"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="38">
+      <c r="C2" s="40">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38">
+      <c r="D2" s="41"/>
+      <c r="E2" s="40">
         <v>6</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="38">
+      <c r="F2" s="41"/>
+      <c r="G2" s="40">
         <v>6</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="38">
+      <c r="H2" s="41"/>
+      <c r="I2" s="40">
         <v>6</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="38">
+      <c r="J2" s="41"/>
+      <c r="K2" s="40">
         <v>6</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="38">
+      <c r="L2" s="41"/>
+      <c r="M2" s="40">
         <v>6</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="38">
+      <c r="N2" s="41"/>
+      <c r="O2" s="40">
         <v>6</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="38">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="40">
         <v>6</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="38">
+      <c r="R2" s="41"/>
+      <c r="S2" s="40">
         <v>3</v>
       </c>
-      <c r="T2" s="39"/>
-      <c r="U2" s="38">
+      <c r="T2" s="41"/>
+      <c r="U2" s="40">
         <v>6</v>
       </c>
-      <c r="V2" s="39"/>
-      <c r="W2" s="38">
+      <c r="V2" s="41"/>
+      <c r="W2" s="40">
         <v>3</v>
       </c>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="40">
         <v>6</v>
       </c>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="38">
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="40">
         <v>4</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="38">
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="40">
         <v>4</v>
       </c>
-      <c r="AD2" s="39"/>
+      <c r="AD2" s="41"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="20"/>
-      <c r="C3" s="38">
+      <c r="C3" s="40">
         <v>4</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38">
+      <c r="D3" s="41"/>
+      <c r="E3" s="40">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38">
+      <c r="F3" s="41"/>
+      <c r="G3" s="40">
         <v>1</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38">
+      <c r="H3" s="41"/>
+      <c r="I3" s="40">
         <v>2</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38">
+      <c r="J3" s="41"/>
+      <c r="K3" s="40">
         <v>2</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38">
+      <c r="L3" s="41"/>
+      <c r="M3" s="40">
         <v>2</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="38">
+      <c r="N3" s="41"/>
+      <c r="O3" s="40">
         <v>4</v>
       </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="38">
+      <c r="P3" s="41"/>
+      <c r="Q3" s="40">
         <v>2</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="38">
+      <c r="R3" s="41"/>
+      <c r="S3" s="40">
         <v>4</v>
       </c>
-      <c r="T3" s="39"/>
-      <c r="U3" s="38">
+      <c r="T3" s="41"/>
+      <c r="U3" s="40">
         <v>2</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="38">
+      <c r="V3" s="41"/>
+      <c r="W3" s="40">
         <v>4</v>
       </c>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="38">
+      <c r="X3" s="41"/>
+      <c r="Y3" s="40">
         <v>2</v>
       </c>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="38">
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="40">
         <v>4</v>
       </c>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="38">
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="40">
         <v>4</v>
       </c>
-      <c r="AD3" s="39"/>
+      <c r="AD3" s="41"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="40">
+      <c r="C4" s="42">
         <v>46501</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="40">
+      <c r="D4" s="43"/>
+      <c r="E4" s="42">
         <v>47027</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="40">
+      <c r="F4" s="43"/>
+      <c r="G4" s="42">
         <v>46174</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="40">
+      <c r="H4" s="43"/>
+      <c r="I4" s="42">
         <v>47392</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="40">
+      <c r="J4" s="43"/>
+      <c r="K4" s="42">
         <v>46702</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="40">
+      <c r="L4" s="43"/>
+      <c r="M4" s="42">
         <v>46367</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="40">
+      <c r="N4" s="43"/>
+      <c r="O4" s="42">
         <v>47500</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="40">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42">
         <v>47510</v>
       </c>
-      <c r="R4" s="41"/>
-      <c r="S4" s="40">
+      <c r="R4" s="43"/>
+      <c r="S4" s="42">
         <v>46664</v>
       </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="40">
+      <c r="T4" s="43"/>
+      <c r="U4" s="42">
         <v>46424</v>
       </c>
-      <c r="V4" s="41"/>
-      <c r="W4" s="40">
+      <c r="V4" s="43"/>
+      <c r="W4" s="42">
         <v>46174</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="40">
+      <c r="X4" s="43"/>
+      <c r="Y4" s="42">
         <v>47896</v>
       </c>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="41"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="43"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="38">
+      <c r="C5" s="40">
         <v>32</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="38">
+      <c r="D5" s="41"/>
+      <c r="E5" s="40">
         <f>4*12</f>
         <v>48</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38">
+      <c r="F5" s="41"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="40">
         <v>60</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38">
+      <c r="J5" s="41"/>
+      <c r="K5" s="40">
         <v>24</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="38">
+      <c r="L5" s="41"/>
+      <c r="M5" s="40">
         <v>24</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="38">
+      <c r="N5" s="41"/>
+      <c r="O5" s="40">
         <v>60</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="38">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40">
         <v>60</v>
       </c>
-      <c r="R5" s="39"/>
-      <c r="S5" s="38">
+      <c r="R5" s="41"/>
+      <c r="S5" s="40">
         <v>32</v>
       </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="39"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="41"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="20"/>
-      <c r="C6" s="42">
+      <c r="C6" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="42">
+      <c r="D6" s="45"/>
+      <c r="E6" s="44">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="42">
+      <c r="F6" s="45"/>
+      <c r="G6" s="44">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="42">
+      <c r="H6" s="45"/>
+      <c r="I6" s="44">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="42">
+      <c r="J6" s="45"/>
+      <c r="K6" s="44">
         <v>0.08</v>
       </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="42">
+      <c r="L6" s="45"/>
+      <c r="M6" s="44">
         <v>0.06</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="42">
+      <c r="N6" s="45"/>
+      <c r="O6" s="44">
         <v>0.08</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="42">
+      <c r="P6" s="45"/>
+      <c r="Q6" s="44">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="42">
+      <c r="R6" s="45"/>
+      <c r="S6" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="42">
+      <c r="T6" s="45"/>
+      <c r="U6" s="44">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V6" s="43"/>
-      <c r="W6" s="42">
+      <c r="V6" s="45"/>
+      <c r="W6" s="44">
         <v>0.1095</v>
       </c>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="42">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="44">
         <v>0.08</v>
       </c>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="42">
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="44">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="42">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="AD6" s="43"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="44">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AD6" s="45"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="36" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="37"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="36" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="37"/>
-      <c r="S7" s="36" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="36" t="s">
+      <c r="T7" s="39"/>
+      <c r="U7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="37"/>
-      <c r="W7" s="36" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="36" t="s">
+      <c r="X7" s="39"/>
+      <c r="Y7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="36" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="37"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="39"/>
     </row>
     <row r="8" spans="1:30" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="30">
-        <f>SUM(C8:AB8)</f>
-        <v>116098</v>
-      </c>
-      <c r="C8" s="44">
+        <f>SUM(C8:AD8)</f>
+        <v>123898</v>
+      </c>
+      <c r="C8" s="46">
         <v>19000</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="44">
+      <c r="D8" s="47"/>
+      <c r="E8" s="46">
         <v>20163</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="44">
+      <c r="F8" s="47"/>
+      <c r="G8" s="46">
         <v>10000</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="44">
+      <c r="H8" s="47"/>
+      <c r="I8" s="46">
         <v>18000</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="44">
+      <c r="J8" s="47"/>
+      <c r="K8" s="46">
         <v>4000</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="44">
+      <c r="L8" s="47"/>
+      <c r="M8" s="46">
         <v>4000</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="44">
+      <c r="N8" s="47"/>
+      <c r="O8" s="46">
         <v>8000</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="44">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="46">
         <v>8000</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="44">
+      <c r="R8" s="47"/>
+      <c r="S8" s="46">
         <v>4000</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="44">
+      <c r="T8" s="47"/>
+      <c r="U8" s="46">
         <v>5000</v>
       </c>
-      <c r="V8" s="45"/>
-      <c r="W8" s="44">
+      <c r="V8" s="47"/>
+      <c r="W8" s="46">
         <v>935</v>
       </c>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="44">
+      <c r="X8" s="47"/>
+      <c r="Y8" s="46">
         <v>4000</v>
       </c>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="44">
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="46">
         <v>11000</v>
       </c>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="44">
-        <v>7000</v>
-      </c>
-      <c r="AD8" s="45"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="46">
+        <v>7800</v>
+      </c>
+      <c r="AD8" s="47"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45658</v>
       </c>
       <c r="B9" s="24">
-        <f>+D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9</f>
+        <f>+D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
         <v>987</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="50">
+      <c r="D9" s="34">
         <v>987</v>
       </c>
       <c r="E9" s="10"/>
@@ -2135,7 +2231,7 @@
         <v>45689</v>
       </c>
       <c r="B10" s="12">
-        <f t="shared" ref="B10:B72" si="0">+D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10</f>
+        <f t="shared" ref="B10:B46" si="0">+D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>69.83</v>
       </c>
       <c r="C10" s="27"/>
@@ -2143,7 +2239,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="51">
+      <c r="H10" s="35">
         <v>69.83</v>
       </c>
       <c r="I10" s="12"/>
@@ -2390,7 +2486,7 @@
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>467.5</v>
+        <v>708.125</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="13"/>
@@ -2431,18 +2527,15 @@
         <v>240.62499999999997</v>
       </c>
       <c r="AC16" s="12"/>
-      <c r="AD16" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
+      <c r="AD16" s="13"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45901</v>
       </c>
       <c r="B17" s="12">
-        <f>+D17+F17+H17+J17+L17+N17+P17+R17+T17+V17+X17+Z17</f>
-        <v>100.595625</v>
+        <f t="shared" si="0"/>
+        <v>254.645625</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="13"/>
@@ -2477,7 +2570,10 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="13"/>
+      <c r="AD17" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -2627,85 +2723,85 @@
       </c>
       <c r="B21" s="7">
         <f>SUM(C21:AM21)</f>
-        <v>7305.0862749999997</v>
-      </c>
-      <c r="C21" s="46">
+        <v>7218.5112749999998</v>
+      </c>
+      <c r="C21" s="48">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="46">
+      <c r="D21" s="49"/>
+      <c r="E21" s="48">
         <f>SUM(F9:F20)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="46">
+      <c r="F21" s="49"/>
+      <c r="G21" s="48">
         <f>SUM(H9:H20)</f>
         <v>294.83</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="46">
+      <c r="H21" s="49"/>
+      <c r="I21" s="48">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="46">
+      <c r="J21" s="49"/>
+      <c r="K21" s="48">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="46">
+      <c r="L21" s="49"/>
+      <c r="M21" s="48">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="46">
+      <c r="N21" s="49"/>
+      <c r="O21" s="48">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="46">
+      <c r="P21" s="49"/>
+      <c r="Q21" s="48">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="47"/>
-      <c r="S21" s="46">
+      <c r="R21" s="49"/>
+      <c r="S21" s="48">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="47"/>
-      <c r="U21" s="46">
+      <c r="T21" s="49"/>
+      <c r="U21" s="48">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="47"/>
-      <c r="W21" s="46">
+      <c r="V21" s="49"/>
+      <c r="W21" s="48">
         <f>SUM(X9:X20)</f>
         <v>104.16187499999999</v>
       </c>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="46">
+      <c r="X21" s="49"/>
+      <c r="Y21" s="48">
         <f>SUM(Z9:Z20)</f>
         <v>160</v>
       </c>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="46">
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="48">
         <f>SUM(AB9:AB20)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="46">
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="48">
         <f>SUM(AD9:AD20)</f>
-        <v>240.62499999999997</v>
-      </c>
-      <c r="AD21" s="47"/>
+        <v>154.05000000000001</v>
+      </c>
+      <c r="AD21" s="49"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>46023</v>
       </c>
       <c r="B22" s="12">
-        <f t="shared" si="0"/>
+        <f>+D22+F22+H22+J22+L22+N22+P22+R22+T22+V22+X22+Z22+AB22+AD22</f>
         <v>492.50000000000006</v>
       </c>
       <c r="C22" s="26"/>
@@ -2749,7 +2845,7 @@
       </c>
       <c r="B23" s="12">
         <f t="shared" si="0"/>
-        <v>517.79999999999995</v>
+        <v>758.42499999999995</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="13"/>
@@ -2795,10 +2891,7 @@
         <v>240.62499999999997</v>
       </c>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
+      <c r="AD23" s="13"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -2806,7 +2899,7 @@
       </c>
       <c r="B24" s="12">
         <f t="shared" si="0"/>
-        <v>25.595624999999998</v>
+        <v>179.645625</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="13"/>
@@ -2838,7 +2931,10 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="13"/>
+      <c r="AD24" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -3034,7 +3130,7 @@
       </c>
       <c r="B29" s="12">
         <f t="shared" si="0"/>
-        <v>467.5</v>
+        <v>708.125</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="13"/>
@@ -3075,10 +3171,7 @@
         <v>240.62499999999997</v>
       </c>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
+      <c r="AD29" s="13"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
@@ -3086,7 +3179,7 @@
       </c>
       <c r="B30" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="13"/>
@@ -3115,7 +3208,10 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="13"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="13"/>
+      <c r="AD30" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
@@ -3264,78 +3360,78 @@
       </c>
       <c r="B34" s="7">
         <f>SUM(C34:AM34)</f>
-        <v>8107.33565</v>
-      </c>
-      <c r="C34" s="46">
+        <v>7934.1856500000004</v>
+      </c>
+      <c r="C34" s="48">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="46">
+      <c r="D34" s="49"/>
+      <c r="E34" s="48">
         <f>SUM(F22:F33)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F34" s="47"/>
-      <c r="G34" s="46">
+      <c r="F34" s="49"/>
+      <c r="G34" s="48">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="46">
+      <c r="H34" s="49"/>
+      <c r="I34" s="48">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="46">
+      <c r="J34" s="49"/>
+      <c r="K34" s="48">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="47"/>
-      <c r="M34" s="46">
+      <c r="L34" s="49"/>
+      <c r="M34" s="48">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="46">
+      <c r="N34" s="49"/>
+      <c r="O34" s="48">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="46">
+      <c r="P34" s="49"/>
+      <c r="Q34" s="48">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="47"/>
-      <c r="S34" s="46">
+      <c r="R34" s="49"/>
+      <c r="S34" s="48">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="47"/>
-      <c r="U34" s="46">
+      <c r="T34" s="49"/>
+      <c r="U34" s="48">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="47"/>
-      <c r="W34" s="46">
+      <c r="V34" s="49"/>
+      <c r="W34" s="48">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="46">
+      <c r="X34" s="49"/>
+      <c r="Y34" s="48">
         <f>SUM(Z22:Z33)</f>
         <v>320</v>
       </c>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="46">
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="48">
         <f>SUM(AB22:AB33)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="46">
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="48">
         <f>SUM(AD22:AD33)</f>
-        <v>481.24999999999994</v>
-      </c>
-      <c r="AD34" s="47"/>
+        <v>308.10000000000002</v>
+      </c>
+      <c r="AD34" s="49"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -3386,7 +3482,7 @@
       </c>
       <c r="B36" s="12">
         <f t="shared" si="0"/>
-        <v>467.5</v>
+        <v>708.125</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="13"/>
@@ -3427,10 +3523,7 @@
         <v>240.62499999999997</v>
       </c>
       <c r="AC36" s="12"/>
-      <c r="AD36" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
+      <c r="AD36" s="13"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
@@ -3438,7 +3531,7 @@
       </c>
       <c r="B37" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="13"/>
@@ -3467,7 +3560,10 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="12"/>
-      <c r="AD37" s="13"/>
+      <c r="AD37" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
@@ -3690,7 +3786,7 @@
       </c>
       <c r="B43" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="13"/>
@@ -3719,7 +3815,10 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="12"/>
-      <c r="AD43" s="13"/>
+      <c r="AD43" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
@@ -3863,83 +3962,83 @@
         <f>SUM(C47:Q47)</f>
         <v>4385.3444</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="48">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="46">
+      <c r="D47" s="49"/>
+      <c r="E47" s="48">
         <f>SUM(F35:F46)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="46">
+      <c r="F47" s="49"/>
+      <c r="G47" s="48">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="47"/>
-      <c r="I47" s="46">
+      <c r="H47" s="49"/>
+      <c r="I47" s="48">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="46">
+      <c r="J47" s="49"/>
+      <c r="K47" s="48">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="47"/>
-      <c r="M47" s="46">
+      <c r="L47" s="49"/>
+      <c r="M47" s="48">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="47"/>
-      <c r="O47" s="46">
+      <c r="N47" s="49"/>
+      <c r="O47" s="48">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="46">
+      <c r="P47" s="49"/>
+      <c r="Q47" s="48">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="47"/>
-      <c r="S47" s="46">
+      <c r="R47" s="49"/>
+      <c r="S47" s="48">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="47"/>
-      <c r="U47" s="46">
+      <c r="T47" s="49"/>
+      <c r="U47" s="48">
         <f t="shared" ref="U47" si="2">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="47"/>
-      <c r="W47" s="46">
+      <c r="V47" s="49"/>
+      <c r="W47" s="48">
         <f t="shared" ref="W47" si="3">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="46">
+      <c r="X47" s="49"/>
+      <c r="Y47" s="48">
         <f t="shared" ref="Y47" si="4">SUM(Z35:Z46)</f>
         <v>320</v>
       </c>
-      <c r="Z47" s="47"/>
-      <c r="AA47" s="46">
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="48">
         <f t="shared" ref="AA47" si="5">SUM(AB35:AB46)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="46">
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="48">
         <f t="shared" ref="AC47" si="6">SUM(AD35:AD46)</f>
-        <v>240.62499999999997</v>
-      </c>
-      <c r="AD47" s="47"/>
+        <v>308.10000000000002</v>
+      </c>
+      <c r="AD47" s="49"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46753</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B10:B72" si="7">+D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48</f>
         <v>160</v>
       </c>
       <c r="C48" s="26"/>
@@ -3979,7 +4078,7 @@
         <v>46784</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C49" s="27"/>
@@ -4019,7 +4118,7 @@
         <v>46813</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C50" s="27"/>
@@ -4056,7 +4155,7 @@
         <v>46844</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1566.4222</v>
       </c>
       <c r="C51" s="27"/>
@@ -4102,7 +4201,7 @@
         <v>46874</v>
       </c>
       <c r="B52" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C52" s="27"/>
@@ -4139,7 +4238,7 @@
         <v>46905</v>
       </c>
       <c r="B53" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C53" s="27"/>
@@ -4182,7 +4281,7 @@
         <v>46935</v>
       </c>
       <c r="B54" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C54" s="27"/>
@@ -4222,7 +4321,7 @@
         <v>46966</v>
       </c>
       <c r="B55" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C55" s="27"/>
@@ -4262,7 +4361,7 @@
         <v>46997</v>
       </c>
       <c r="B56" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C56" s="27"/>
@@ -4299,7 +4398,7 @@
         <v>47027</v>
       </c>
       <c r="B57" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>772</v>
       </c>
       <c r="C57" s="27"/>
@@ -4345,7 +4444,7 @@
         <v>47058</v>
       </c>
       <c r="B58" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C58" s="27"/>
@@ -4382,7 +4481,7 @@
         <v>47088</v>
       </c>
       <c r="B59" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C59" s="28"/>
@@ -4428,62 +4527,62 @@
         <f>SUM(C60:K60)</f>
         <v>2018.4222</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="48">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="46">
+      <c r="D60" s="49"/>
+      <c r="E60" s="48">
         <f>SUM(F48:F59)</f>
         <v>794.42219999999998</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="46">
+      <c r="F60" s="49"/>
+      <c r="G60" s="48">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="46">
+      <c r="H60" s="49"/>
+      <c r="I60" s="48">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="47"/>
-      <c r="K60" s="46">
+      <c r="J60" s="49"/>
+      <c r="K60" s="48">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="47"/>
-      <c r="M60" s="46">
+      <c r="L60" s="49"/>
+      <c r="M60" s="48">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="47"/>
-      <c r="O60" s="46">
+      <c r="N60" s="49"/>
+      <c r="O60" s="48">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="46"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="46"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="46"/>
-      <c r="X60" s="47"/>
-      <c r="Y60" s="46"/>
-      <c r="Z60" s="47"/>
-      <c r="AA60" s="46"/>
-      <c r="AB60" s="47"/>
-      <c r="AC60" s="46"/>
-      <c r="AD60" s="47"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="48"/>
+      <c r="X60" s="49"/>
+      <c r="Y60" s="48"/>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="48"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="48"/>
+      <c r="AD60" s="49"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>47119</v>
       </c>
       <c r="B61" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C61" s="26"/>
@@ -4523,7 +4622,7 @@
         <v>47150</v>
       </c>
       <c r="B62" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C62" s="27"/>
@@ -4560,7 +4659,7 @@
         <v>47178</v>
       </c>
       <c r="B63" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C63" s="27"/>
@@ -4597,7 +4696,7 @@
         <v>47209</v>
       </c>
       <c r="B64" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>772</v>
       </c>
       <c r="C64" s="27"/>
@@ -4640,7 +4739,7 @@
         <v>47239</v>
       </c>
       <c r="B65" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C65" s="27"/>
@@ -4677,7 +4776,7 @@
         <v>47270</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C66" s="27"/>
@@ -4714,7 +4813,7 @@
         <v>47300</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C67" s="27"/>
@@ -4754,7 +4853,7 @@
         <v>47331</v>
       </c>
       <c r="B68" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C68" s="27"/>
@@ -4791,7 +4890,7 @@
         <v>47362</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C69" s="27"/>
@@ -4828,7 +4927,7 @@
         <v>47392</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C70" s="27"/>
@@ -4868,7 +4967,7 @@
         <v>47423</v>
       </c>
       <c r="B71" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C71" s="27"/>
@@ -4905,7 +5004,7 @@
         <v>47453</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C72" s="28"/>
@@ -4945,55 +5044,55 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="46">
+      <c r="C73" s="48">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="46">
+      <c r="D73" s="49"/>
+      <c r="E73" s="48">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="47"/>
-      <c r="G73" s="46">
+      <c r="F73" s="49"/>
+      <c r="G73" s="48">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="47"/>
-      <c r="I73" s="46">
+      <c r="H73" s="49"/>
+      <c r="I73" s="48">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="47"/>
-      <c r="K73" s="46">
+      <c r="J73" s="49"/>
+      <c r="K73" s="48">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="47"/>
-      <c r="M73" s="46">
+      <c r="L73" s="49"/>
+      <c r="M73" s="48">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="47"/>
-      <c r="O73" s="46">
+      <c r="N73" s="49"/>
+      <c r="O73" s="48">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="47"/>
-      <c r="Q73" s="46"/>
-      <c r="R73" s="47"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="47"/>
-      <c r="U73" s="46"/>
-      <c r="V73" s="47"/>
-      <c r="W73" s="46"/>
-      <c r="X73" s="47"/>
-      <c r="Y73" s="46"/>
-      <c r="Z73" s="47"/>
-      <c r="AA73" s="46"/>
-      <c r="AB73" s="47"/>
-      <c r="AC73" s="46"/>
-      <c r="AD73" s="47"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="49"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="49"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="49"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="49"/>
+      <c r="AA73" s="48"/>
+      <c r="AB73" s="49"/>
+      <c r="AC73" s="48"/>
+      <c r="AD73" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="182">
@@ -5190,13 +5289,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96D38A-F672-4D30-A69A-75917CC1E7A8}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="1"/>
@@ -5220,12 +5319,12 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -5245,12 +5344,12 @@
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -5295,12 +5394,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5320,12 +5419,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5376,9 +5475,27 @@
         <v>885866.66666666674</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="5">
         <v>600000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f>+'Bco Galicia'!B8</f>
+        <v>123898</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f>+'Bco Galicia'!B34</f>
+        <v>7934.1856500000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f>+B21/B20</f>
+        <v>6.4038044601204214E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5400,7 +5517,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>

--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/Inversiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3FCBD0-A876-CC4A-ADB6-15EE5D3B51DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="834" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EC64A9-4375-465F-91C3-D7BC7E98762E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="250" iterateDelta="9.9999999999999994E-12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -59,21 +59,12 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>24/01/2025</t>
+24/01/2025</t>
         </r>
       </text>
     </comment>
@@ -342,39 +333,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD16" authorId="1" shapeId="0" xr:uid="{6378FB62-3201-4B3D-9960-5A76B0E2B0CC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eduardo Farina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>28/08/2025</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H17" authorId="0" shapeId="0" xr:uid="{69CA36CE-A235-4144-8F90-D8BCBE832CCB}">
       <text>
         <r>
@@ -397,6 +355,30 @@
           <t xml:space="preserve">
 01/09/2025
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD17" authorId="1" shapeId="0" xr:uid="{5C37584D-E81A-441D-A32B-D637EF859C8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
         </r>
       </text>
     </comment>
@@ -498,6 +480,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD24" authorId="1" shapeId="0" xr:uid="{A33B5EE6-B5B0-4AF5-A04D-11924DB538DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L26" authorId="0" shapeId="0" xr:uid="{8317EAB6-71B7-4A75-BF07-8A76DD9B51F0}">
       <text>
         <r>
@@ -546,6 +552,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD30" authorId="1" shapeId="0" xr:uid="{69F4658A-1127-4F33-9CB2-440E745E62D3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L32" authorId="0" shapeId="0" xr:uid="{F801E1AC-1AB3-4E04-B2BD-D8F1B20850F1}">
       <text>
         <r>
@@ -591,6 +621,54 @@
           </rPr>
           <t xml:space="preserve">
 12/05/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD37" authorId="1" shapeId="0" xr:uid="{0FF8FE7A-A00A-4E9A-A2A4-E023CE1598E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD43" authorId="1" shapeId="0" xr:uid="{68118DC9-05EB-4104-847E-7D22E627FC4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
         </r>
       </text>
     </comment>
@@ -718,10 +796,10 @@
     <t>PUC2D</t>
   </si>
   <si>
-    <t>Petroleo Sudameric</t>
+    <t>PECOM</t>
   </si>
   <si>
-    <t>PECOM</t>
+    <t>Petroleo Sud</t>
   </si>
 </sst>
 </file>
@@ -731,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,19 +857,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1249,16 +1314,16 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1279,17 +1344,17 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1300,7 +1365,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,6 +1378,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1634,75 +1703,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
   <dimension ref="A1:AD73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:J6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="30" width="9.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="30" width="8.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="38" t="s">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="37"/>
+      <c r="O1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="38" t="s">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="37"/>
+      <c r="S1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="38" t="s">
+      <c r="T1" s="37"/>
+      <c r="U1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="39"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD1" s="37"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +1833,7 @@
       </c>
       <c r="AD2" s="41"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -1826,7 +1895,7 @@
       </c>
       <c r="AD3" s="41"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
@@ -1884,7 +1953,7 @@
       <c r="AC4" s="42"/>
       <c r="AD4" s="43"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +2004,7 @@
       <c r="AC5" s="40"/>
       <c r="AD5" s="41"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -1993,137 +2062,137 @@
       </c>
       <c r="AB6" s="45"/>
       <c r="AC6" s="44">
-        <v>8.7499999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="AD6" s="45"/>
     </row>
-    <row r="7" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="46" t="s">
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="46" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="46" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="46" t="s">
+      <c r="N7" s="39"/>
+      <c r="O7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="46" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="47"/>
-      <c r="S7" s="46" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="47"/>
-      <c r="U7" s="46" t="s">
+      <c r="T7" s="39"/>
+      <c r="U7" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="47"/>
-      <c r="W7" s="46" t="s">
+      <c r="V7" s="39"/>
+      <c r="W7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="46" t="s">
+      <c r="X7" s="39"/>
+      <c r="Y7" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="46" t="s">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="47"/>
-    </row>
-    <row r="8" spans="1:30" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="39"/>
+    </row>
+    <row r="8" spans="1:30" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="30">
-        <f>SUM(C8:AB8)</f>
-        <v>116098</v>
-      </c>
-      <c r="C8" s="48">
+        <f>SUM(C8:AD8)</f>
+        <v>123898</v>
+      </c>
+      <c r="C8" s="46">
         <v>19000</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48">
+      <c r="D8" s="47"/>
+      <c r="E8" s="46">
         <v>20163</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="48">
+      <c r="F8" s="47"/>
+      <c r="G8" s="46">
         <v>10000</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="48">
+      <c r="H8" s="47"/>
+      <c r="I8" s="46">
         <v>18000</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="48">
+      <c r="J8" s="47"/>
+      <c r="K8" s="46">
         <v>4000</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="48">
+      <c r="L8" s="47"/>
+      <c r="M8" s="46">
         <v>4000</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="48">
+      <c r="N8" s="47"/>
+      <c r="O8" s="46">
         <v>8000</v>
       </c>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="48">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="46">
         <v>8000</v>
       </c>
-      <c r="R8" s="49"/>
-      <c r="S8" s="48">
+      <c r="R8" s="47"/>
+      <c r="S8" s="46">
         <v>4000</v>
       </c>
-      <c r="T8" s="49"/>
-      <c r="U8" s="48">
+      <c r="T8" s="47"/>
+      <c r="U8" s="46">
         <v>5000</v>
       </c>
-      <c r="V8" s="49"/>
-      <c r="W8" s="48">
+      <c r="V8" s="47"/>
+      <c r="W8" s="46">
         <v>935</v>
       </c>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="48">
+      <c r="X8" s="47"/>
+      <c r="Y8" s="46">
         <v>4000</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="48">
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="46">
         <v>11000</v>
       </c>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="48">
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="46">
         <v>7800</v>
       </c>
-      <c r="AD8" s="49"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD8" s="47"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45658</v>
       </c>
       <c r="B9" s="24">
-        <f>+D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9</f>
+        <f>+D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
         <v>987</v>
       </c>
       <c r="C9" s="26"/>
@@ -2157,12 +2226,12 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45689</v>
       </c>
       <c r="B10" s="12">
-        <f t="shared" ref="B10:B72" si="0">+D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10</f>
+        <f t="shared" ref="B10:B46" si="0">+D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>69.83</v>
       </c>
       <c r="C10" s="27"/>
@@ -2196,7 +2265,7 @@
       <c r="AC10" s="12"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45717</v>
       </c>
@@ -2236,7 +2305,7 @@
       <c r="AC11" s="12"/>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45748</v>
       </c>
@@ -2282,7 +2351,7 @@
       <c r="AC12" s="12"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45778</v>
       </c>
@@ -2328,7 +2397,7 @@
       <c r="AC13" s="12"/>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45809</v>
       </c>
@@ -2371,7 +2440,7 @@
       <c r="AC14" s="12"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45839</v>
       </c>
@@ -2411,13 +2480,13 @@
       <c r="AC15" s="12"/>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45870</v>
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>467.5</v>
+        <v>708.125</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="13"/>
@@ -2458,18 +2527,15 @@
         <v>240.62499999999997</v>
       </c>
       <c r="AC16" s="12"/>
-      <c r="AD16" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD16" s="13"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45901</v>
       </c>
       <c r="B17" s="12">
-        <f>+D17+F17+H17+J17+L17+N17+P17+R17+T17+V17+X17+Z17</f>
-        <v>100.595625</v>
+        <f t="shared" si="0"/>
+        <v>254.645625</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="13"/>
@@ -2504,9 +2570,12 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="13"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD17" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45931</v>
       </c>
@@ -2558,7 +2627,7 @@
       <c r="AC18" s="12"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45962</v>
       </c>
@@ -2604,7 +2673,7 @@
       <c r="AC19" s="12"/>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>45992</v>
       </c>
@@ -2648,91 +2717,91 @@
       <c r="AC20" s="14"/>
       <c r="AD20" s="15"/>
     </row>
-    <row r="21" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="7">
         <f>SUM(C21:AM21)</f>
-        <v>7305.0862749999997</v>
-      </c>
-      <c r="C21" s="36">
+        <v>7218.5112749999998</v>
+      </c>
+      <c r="C21" s="48">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="36">
+      <c r="D21" s="49"/>
+      <c r="E21" s="48">
         <f>SUM(F9:F20)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="36">
+      <c r="F21" s="49"/>
+      <c r="G21" s="48">
         <f>SUM(H9:H20)</f>
         <v>294.83</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="36">
+      <c r="H21" s="49"/>
+      <c r="I21" s="48">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="36">
+      <c r="J21" s="49"/>
+      <c r="K21" s="48">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="36">
+      <c r="L21" s="49"/>
+      <c r="M21" s="48">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="36">
+      <c r="N21" s="49"/>
+      <c r="O21" s="48">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="36">
+      <c r="P21" s="49"/>
+      <c r="Q21" s="48">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="37"/>
-      <c r="S21" s="36">
+      <c r="R21" s="49"/>
+      <c r="S21" s="48">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="36">
+      <c r="T21" s="49"/>
+      <c r="U21" s="48">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="37"/>
-      <c r="W21" s="36">
+      <c r="V21" s="49"/>
+      <c r="W21" s="48">
         <f>SUM(X9:X20)</f>
         <v>104.16187499999999</v>
       </c>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="36">
+      <c r="X21" s="49"/>
+      <c r="Y21" s="48">
         <f>SUM(Z9:Z20)</f>
         <v>160</v>
       </c>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="36">
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="48">
         <f>SUM(AB9:AB20)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="36">
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="48">
         <f>SUM(AD9:AD20)</f>
-        <v>240.62499999999997</v>
-      </c>
-      <c r="AD21" s="37"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+        <v>154.05000000000001</v>
+      </c>
+      <c r="AD21" s="49"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>46023</v>
       </c>
       <c r="B22" s="12">
-        <f t="shared" si="0"/>
+        <f>+D22+F22+H22+J22+L22+N22+P22+R22+T22+V22+X22+Z22+AB22+AD22</f>
         <v>492.50000000000006</v>
       </c>
       <c r="C22" s="26"/>
@@ -2770,13 +2839,13 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="11"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>46054</v>
       </c>
       <c r="B23" s="12">
         <f t="shared" si="0"/>
-        <v>517.79999999999995</v>
+        <v>758.42499999999995</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="13"/>
@@ -2822,18 +2891,15 @@
         <v>240.62499999999997</v>
       </c>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD23" s="13"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>46082</v>
       </c>
       <c r="B24" s="12">
         <f t="shared" si="0"/>
-        <v>25.595624999999998</v>
+        <v>179.645625</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="13"/>
@@ -2865,9 +2931,12 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="13"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD24" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>46113</v>
       </c>
@@ -2919,7 +2988,7 @@
       <c r="AC25" s="12"/>
       <c r="AD25" s="13"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>46143</v>
       </c>
@@ -2970,7 +3039,7 @@
       <c r="AC26" s="12"/>
       <c r="AD26" s="13"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>46174</v>
       </c>
@@ -3012,7 +3081,7 @@
       <c r="AC27" s="12"/>
       <c r="AD27" s="13"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>46204</v>
       </c>
@@ -3055,13 +3124,13 @@
       <c r="AC28" s="12"/>
       <c r="AD28" s="13"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>46235</v>
       </c>
       <c r="B29" s="12">
         <f t="shared" si="0"/>
-        <v>467.5</v>
+        <v>708.125</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="13"/>
@@ -3102,18 +3171,15 @@
         <v>240.62499999999997</v>
       </c>
       <c r="AC29" s="12"/>
-      <c r="AD29" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD29" s="13"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>46266</v>
       </c>
       <c r="B30" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="C30" s="27"/>
       <c r="D30" s="13"/>
@@ -3142,9 +3208,12 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="13"/>
       <c r="AC30" s="12"/>
-      <c r="AD30" s="13"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD30" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>46296</v>
       </c>
@@ -3196,7 +3265,7 @@
       <c r="AC31" s="12"/>
       <c r="AD31" s="13"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>46327</v>
       </c>
@@ -3248,7 +3317,7 @@
       <c r="AC32" s="12"/>
       <c r="AD32" s="13"/>
     </row>
-    <row r="33" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>46357</v>
       </c>
@@ -3285,86 +3354,86 @@
       <c r="AC33" s="14"/>
       <c r="AD33" s="15"/>
     </row>
-    <row r="34" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="7">
         <f>SUM(C34:AM34)</f>
-        <v>8107.33565</v>
-      </c>
-      <c r="C34" s="36">
+        <v>7934.1856500000004</v>
+      </c>
+      <c r="C34" s="48">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="36">
+      <c r="D34" s="49"/>
+      <c r="E34" s="48">
         <f>SUM(F22:F33)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="36">
+      <c r="F34" s="49"/>
+      <c r="G34" s="48">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="37"/>
-      <c r="I34" s="36">
+      <c r="H34" s="49"/>
+      <c r="I34" s="48">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="36">
+      <c r="J34" s="49"/>
+      <c r="K34" s="48">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="36">
+      <c r="L34" s="49"/>
+      <c r="M34" s="48">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="36">
+      <c r="N34" s="49"/>
+      <c r="O34" s="48">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="36">
+      <c r="P34" s="49"/>
+      <c r="Q34" s="48">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="37"/>
-      <c r="S34" s="36">
+      <c r="R34" s="49"/>
+      <c r="S34" s="48">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="37"/>
-      <c r="U34" s="36">
+      <c r="T34" s="49"/>
+      <c r="U34" s="48">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="36">
+      <c r="V34" s="49"/>
+      <c r="W34" s="48">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="36">
+      <c r="X34" s="49"/>
+      <c r="Y34" s="48">
         <f>SUM(Z22:Z33)</f>
         <v>320</v>
       </c>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="36">
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="48">
         <f>SUM(AB22:AB33)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="36">
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="48">
         <f>SUM(AD22:AD33)</f>
-        <v>481.24999999999994</v>
-      </c>
-      <c r="AD34" s="37"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="AD34" s="49"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>46388</v>
       </c>
@@ -3407,13 +3476,13 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="11"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>46419</v>
       </c>
       <c r="B36" s="12">
         <f t="shared" si="0"/>
-        <v>467.5</v>
+        <v>708.125</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="13"/>
@@ -3454,18 +3523,15 @@
         <v>240.62499999999997</v>
       </c>
       <c r="AC36" s="12"/>
-      <c r="AD36" s="13">
-        <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD36" s="13"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>46447</v>
       </c>
       <c r="B37" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="13"/>
@@ -3494,9 +3560,12 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="12"/>
-      <c r="AD37" s="13"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD37" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>46478</v>
       </c>
@@ -3548,7 +3617,7 @@
       <c r="AC38" s="12"/>
       <c r="AD38" s="13"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>46508</v>
       </c>
@@ -3591,7 +3660,7 @@
       <c r="AC39" s="12"/>
       <c r="AD39" s="13"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>46539</v>
       </c>
@@ -3628,7 +3697,7 @@
       <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>46569</v>
       </c>
@@ -3668,7 +3737,7 @@
       <c r="AC41" s="12"/>
       <c r="AD41" s="13"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>46600</v>
       </c>
@@ -3711,13 +3780,13 @@
       <c r="AC42" s="12"/>
       <c r="AD42" s="13"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>46631</v>
       </c>
       <c r="B43" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154.05000000000001</v>
       </c>
       <c r="C43" s="27"/>
       <c r="D43" s="13"/>
@@ -3746,9 +3815,12 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="12"/>
-      <c r="AD43" s="13"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD43" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>46661</v>
       </c>
@@ -3802,7 +3874,7 @@
       <c r="AC44" s="12"/>
       <c r="AD44" s="13"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>46692</v>
       </c>
@@ -3839,7 +3911,7 @@
       <c r="AC45" s="12"/>
       <c r="AD45" s="13"/>
     </row>
-    <row r="46" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>46722</v>
       </c>
@@ -3882,7 +3954,7 @@
       <c r="AC46" s="14"/>
       <c r="AD46" s="15"/>
     </row>
-    <row r="47" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>11</v>
       </c>
@@ -3890,83 +3962,83 @@
         <f>SUM(C47:Q47)</f>
         <v>4385.3444</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="48">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="36">
+      <c r="D47" s="49"/>
+      <c r="E47" s="48">
         <f>SUM(F35:F46)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="36">
+      <c r="F47" s="49"/>
+      <c r="G47" s="48">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="36">
+      <c r="H47" s="49"/>
+      <c r="I47" s="48">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36">
+      <c r="J47" s="49"/>
+      <c r="K47" s="48">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="37"/>
-      <c r="M47" s="36">
+      <c r="L47" s="49"/>
+      <c r="M47" s="48">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="37"/>
-      <c r="O47" s="36">
+      <c r="N47" s="49"/>
+      <c r="O47" s="48">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="36">
+      <c r="P47" s="49"/>
+      <c r="Q47" s="48">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="37"/>
-      <c r="S47" s="36">
+      <c r="R47" s="49"/>
+      <c r="S47" s="48">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="37"/>
-      <c r="U47" s="36">
+      <c r="T47" s="49"/>
+      <c r="U47" s="48">
         <f t="shared" ref="U47" si="2">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="37"/>
-      <c r="W47" s="36">
+      <c r="V47" s="49"/>
+      <c r="W47" s="48">
         <f t="shared" ref="W47" si="3">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="36">
+      <c r="X47" s="49"/>
+      <c r="Y47" s="48">
         <f t="shared" ref="Y47" si="4">SUM(Z35:Z46)</f>
         <v>320</v>
       </c>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="36">
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="48">
         <f t="shared" ref="AA47" si="5">SUM(AB35:AB46)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="36">
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="48">
         <f t="shared" ref="AC47" si="6">SUM(AD35:AD46)</f>
-        <v>240.62499999999997</v>
-      </c>
-      <c r="AD47" s="37"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="AD47" s="49"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46753</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B10:B72" si="7">+D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48</f>
         <v>160</v>
       </c>
       <c r="C48" s="26"/>
@@ -4001,12 +4073,12 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="11"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>46784</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C49" s="27"/>
@@ -4041,12 +4113,12 @@
       <c r="AC49" s="12"/>
       <c r="AD49" s="13"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>46813</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C50" s="27"/>
@@ -4078,12 +4150,12 @@
       <c r="AC50" s="12"/>
       <c r="AD50" s="13"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>46844</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1566.4222</v>
       </c>
       <c r="C51" s="27"/>
@@ -4124,12 +4196,12 @@
       <c r="AC51" s="12"/>
       <c r="AD51" s="13"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>46874</v>
       </c>
       <c r="B52" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C52" s="27"/>
@@ -4161,12 +4233,12 @@
       <c r="AC52" s="12"/>
       <c r="AD52" s="13"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>46905</v>
       </c>
       <c r="B53" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C53" s="27"/>
@@ -4204,12 +4276,12 @@
       <c r="AC53" s="12"/>
       <c r="AD53" s="13"/>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>46935</v>
       </c>
       <c r="B54" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C54" s="27"/>
@@ -4244,12 +4316,12 @@
       <c r="AC54" s="12"/>
       <c r="AD54" s="13"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>46966</v>
       </c>
       <c r="B55" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C55" s="27"/>
@@ -4284,12 +4356,12 @@
       <c r="AC55" s="12"/>
       <c r="AD55" s="13"/>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>46997</v>
       </c>
       <c r="B56" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C56" s="27"/>
@@ -4321,12 +4393,12 @@
       <c r="AC56" s="12"/>
       <c r="AD56" s="13"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>47027</v>
       </c>
       <c r="B57" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>772</v>
       </c>
       <c r="C57" s="27"/>
@@ -4367,12 +4439,12 @@
       <c r="AC57" s="12"/>
       <c r="AD57" s="13"/>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>47058</v>
       </c>
       <c r="B58" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C58" s="27"/>
@@ -4404,12 +4476,12 @@
       <c r="AC58" s="12"/>
       <c r="AD58" s="13"/>
     </row>
-    <row r="59" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>47088</v>
       </c>
       <c r="B59" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C59" s="28"/>
@@ -4447,7 +4519,7 @@
       <c r="AC59" s="14"/>
       <c r="AD59" s="15"/>
     </row>
-    <row r="60" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>12</v>
       </c>
@@ -4455,62 +4527,62 @@
         <f>SUM(C60:K60)</f>
         <v>2018.4222</v>
       </c>
-      <c r="C60" s="36">
+      <c r="C60" s="48">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="36">
+      <c r="D60" s="49"/>
+      <c r="E60" s="48">
         <f>SUM(F48:F59)</f>
         <v>794.42219999999998</v>
       </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="36">
+      <c r="F60" s="49"/>
+      <c r="G60" s="48">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="37"/>
-      <c r="I60" s="36">
+      <c r="H60" s="49"/>
+      <c r="I60" s="48">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="36">
+      <c r="J60" s="49"/>
+      <c r="K60" s="48">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="37"/>
-      <c r="M60" s="36">
+      <c r="L60" s="49"/>
+      <c r="M60" s="48">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="37"/>
-      <c r="O60" s="36">
+      <c r="N60" s="49"/>
+      <c r="O60" s="48">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="36"/>
-      <c r="AD60" s="37"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="P60" s="49"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="48"/>
+      <c r="X60" s="49"/>
+      <c r="Y60" s="48"/>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="48"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="48"/>
+      <c r="AD60" s="49"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>47119</v>
       </c>
       <c r="B61" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C61" s="26"/>
@@ -4545,12 +4617,12 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="11"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>47150</v>
       </c>
       <c r="B62" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C62" s="27"/>
@@ -4582,12 +4654,12 @@
       <c r="AC62" s="12"/>
       <c r="AD62" s="13"/>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>47178</v>
       </c>
       <c r="B63" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C63" s="27"/>
@@ -4619,12 +4691,12 @@
       <c r="AC63" s="12"/>
       <c r="AD63" s="13"/>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>47209</v>
       </c>
       <c r="B64" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>772</v>
       </c>
       <c r="C64" s="27"/>
@@ -4662,12 +4734,12 @@
       <c r="AC64" s="12"/>
       <c r="AD64" s="13"/>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>47239</v>
       </c>
       <c r="B65" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C65" s="27"/>
@@ -4699,12 +4771,12 @@
       <c r="AC65" s="12"/>
       <c r="AD65" s="13"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>47270</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C66" s="27"/>
@@ -4736,12 +4808,12 @@
       <c r="AC66" s="12"/>
       <c r="AD66" s="13"/>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>47300</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C67" s="27"/>
@@ -4776,12 +4848,12 @@
       <c r="AC67" s="12"/>
       <c r="AD67" s="13"/>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>47331</v>
       </c>
       <c r="B68" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C68" s="27"/>
@@ -4813,12 +4885,12 @@
       <c r="AC68" s="12"/>
       <c r="AD68" s="13"/>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>47362</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C69" s="27"/>
@@ -4850,12 +4922,12 @@
       <c r="AC69" s="12"/>
       <c r="AD69" s="13"/>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>47392</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
       <c r="C70" s="27"/>
@@ -4890,12 +4962,12 @@
       <c r="AC70" s="12"/>
       <c r="AD70" s="13"/>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>47423</v>
       </c>
       <c r="B71" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C71" s="27"/>
@@ -4927,12 +4999,12 @@
       <c r="AC71" s="12"/>
       <c r="AD71" s="13"/>
     </row>
-    <row r="72" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>47453</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C72" s="28"/>
@@ -4964,7 +5036,7 @@
       <c r="AC72" s="14"/>
       <c r="AD72" s="15"/>
     </row>
-    <row r="73" spans="1:30" s="8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>12</v>
       </c>
@@ -4972,58 +5044,216 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="36">
+      <c r="C73" s="48">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="36">
+      <c r="D73" s="49"/>
+      <c r="E73" s="48">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="36">
+      <c r="F73" s="49"/>
+      <c r="G73" s="48">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="37"/>
-      <c r="I73" s="36">
+      <c r="H73" s="49"/>
+      <c r="I73" s="48">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="37"/>
-      <c r="K73" s="36">
+      <c r="J73" s="49"/>
+      <c r="K73" s="48">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="37"/>
-      <c r="M73" s="36">
+      <c r="L73" s="49"/>
+      <c r="M73" s="48">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="37"/>
-      <c r="O73" s="36">
+      <c r="N73" s="49"/>
+      <c r="O73" s="48">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="36"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="36"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="36"/>
-      <c r="AB73" s="37"/>
-      <c r="AC73" s="36"/>
-      <c r="AD73" s="37"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="49"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="49"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="49"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="49"/>
+      <c r="AA73" s="48"/>
+      <c r="AB73" s="49"/>
+      <c r="AC73" s="48"/>
+      <c r="AD73" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="182">
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AC73:AD73"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
@@ -5048,164 +5278,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AC73:AD73"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC21:AD21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -5217,19 +5289,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E96D38A-F672-4D30-A69A-75917CC1E7A8}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="5" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -5238,12 +5310,12 @@
         <v>14729.709824716454</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1208</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -5254,7 +5326,7 @@
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0.04</v>
       </c>
@@ -5268,7 +5340,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5279,7 +5351,7 @@
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5000</v>
       </c>
@@ -5300,7 +5372,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>110000</v>
       </c>
@@ -5321,7 +5393,7 @@
         <v>733.33333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>19</v>
       </c>
@@ -5329,7 +5401,7 @@
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -5346,7 +5418,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="50" t="s">
         <v>21</v>
       </c>
@@ -5354,12 +5426,12 @@
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" ref="A15:E16" si="2">+A8*$A$3</f>
         <v>6040000</v>
@@ -5381,7 +5453,7 @@
         <v>40266.666666666672</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>+A9*$A$3</f>
         <v>132880000</v>
@@ -5403,9 +5475,27 @@
         <v>885866.66666666674</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" s="5">
         <v>600000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f>+'Bco Galicia'!B8</f>
+        <v>123898</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f>+'Bco Galicia'!B34</f>
+        <v>7934.1856500000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <f>+B21/B20</f>
+        <v>6.4038044601204214E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5427,23 +5517,23 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0.1095</v>
       </c>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.071</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>4000</v>
       </c>
@@ -5468,7 +5558,7 @@
         <v>3.5947712418300755E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>1000</v>
       </c>

--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="834" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48EC64A9-4375-465F-91C3-D7BC7E98762E}"/>
+  <xr:revisionPtr revIDLastSave="900" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF8AFC8-F3BA-4F07-B616-4841E1BB3C1D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateCount="250" iterateDelta="9.9999999999999994E-12"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Bco Galicia'!$A$1:$AD$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Sheet1!$A$1:$Q$27</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,7 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
         </r>
@@ -109,10 +114,34 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 31/03/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="1" shapeId="0" xr:uid="{40EDCA53-1E02-4579-8A40-B3B7F965B484}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+24/04/2025</t>
         </r>
       </text>
     </comment>
@@ -220,7 +249,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
         </r>
@@ -229,7 +258,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 04/05/2027</t>
@@ -293,7 +322,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Farina:</t>
         </r>
@@ -302,7 +331,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 18/08/2025</t>
@@ -317,7 +346,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Farina:</t>
         </r>
@@ -326,7 +355,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 28/08/2025</t>
@@ -366,7 +395,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Farina:</t>
         </r>
@@ -375,7 +404,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10/9/2025</t>
@@ -390,7 +419,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
         </r>
@@ -399,7 +428,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 17/10/2025
@@ -415,7 +444,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>FARINA SAINT SELVE, EDUARDO ALBERTO:</t>
         </r>
@@ -424,7 +453,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 27/01/2030
@@ -488,7 +517,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Farina:</t>
         </r>
@@ -497,7 +526,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10/9/2025</t>
@@ -560,7 +589,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Farina:</t>
         </r>
@@ -569,7 +598,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10/9/2025</t>
@@ -632,7 +661,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Farina:</t>
         </r>
@@ -641,7 +670,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10/9/2025</t>
@@ -656,7 +685,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Eduardo Farina:</t>
         </r>
@@ -665,7 +694,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 10/9/2025</t>
@@ -677,7 +706,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Plazo</t>
   </si>
@@ -689,9 +718,6 @@
   </si>
   <si>
     <t>veces año</t>
-  </si>
-  <si>
-    <t>cada</t>
   </si>
   <si>
     <t>OilTanking</t>
@@ -801,6 +827,9 @@
   <si>
     <t>Petroleo Sud</t>
   </si>
+  <si>
+    <t>FIMA</t>
+  </si>
 </sst>
 </file>
 
@@ -809,7 +838,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,19 +874,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -879,7 +895,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1220,12 +1236,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1271,8 +1346,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
@@ -1314,16 +1387,20 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1344,16 +1421,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1365,7 +1448,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1380,12 +1463,63 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>122813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D36C0B6-47A0-E520-FE59-2A363D1B3402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123826" y="88737"/>
+          <a:ext cx="10096499" cy="4987076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1701,502 +1835,547 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B51CCAE-07EA-4FE9-AC8C-33B9460420A8}">
-  <dimension ref="A1:AD73"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="30" width="8.140625" style="1" customWidth="1"/>
+    <col min="3" max="32" width="7.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="41"/>
+      <c r="E1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="36" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="41"/>
+      <c r="M1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="36" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="41"/>
+      <c r="S1" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="41"/>
+      <c r="U1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="37"/>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="41"/>
+      <c r="W1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="41"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="52">
+        <v>32</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="42">
+        <v>32</v>
+      </c>
+      <c r="F2" s="43"/>
+      <c r="G2" s="42">
+        <v>6</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="42">
+        <v>32</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="42">
         <v>24</v>
       </c>
-      <c r="V1" s="37"/>
-      <c r="W1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="36" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="42">
+        <v>24</v>
+      </c>
+      <c r="N2" s="43"/>
+      <c r="O2" s="42">
+        <v>32</v>
+      </c>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="42">
+        <v>32</v>
+      </c>
+      <c r="R2" s="43"/>
+      <c r="S2" s="42">
+        <v>32</v>
+      </c>
+      <c r="T2" s="43"/>
+      <c r="U2" s="42">
+        <v>24</v>
+      </c>
+      <c r="V2" s="43"/>
+      <c r="W2" s="42">
+        <v>18</v>
+      </c>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="42">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="42">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="42">
         <v>40</v>
       </c>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="37"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43"/>
+    </row>
+    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="42">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="40">
-        <v>3</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40">
-        <v>6</v>
-      </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="40">
-        <v>6</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="40">
-        <v>6</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="40">
-        <v>6</v>
-      </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="40">
-        <v>6</v>
-      </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="40">
-        <v>6</v>
-      </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="40">
-        <v>6</v>
-      </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="40">
-        <v>3</v>
-      </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="40">
-        <v>6</v>
-      </c>
-      <c r="V2" s="41"/>
-      <c r="W2" s="40">
-        <v>3</v>
-      </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="40">
-        <v>6</v>
-      </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="40">
+      <c r="D3" s="43"/>
+      <c r="E3" s="42">
+        <v>2</v>
+      </c>
+      <c r="F3" s="43"/>
+      <c r="G3" s="42">
+        <v>1</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="42">
+        <v>2</v>
+      </c>
+      <c r="J3" s="43"/>
+      <c r="K3" s="42">
+        <v>2</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="42">
+        <v>2</v>
+      </c>
+      <c r="N3" s="43"/>
+      <c r="O3" s="42">
         <v>4</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="40">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="42">
+        <v>2</v>
+      </c>
+      <c r="R3" s="43"/>
+      <c r="S3" s="42">
         <v>4</v>
       </c>
-      <c r="AD2" s="41"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="40">
+      <c r="T3" s="43"/>
+      <c r="U3" s="42">
+        <v>2</v>
+      </c>
+      <c r="V3" s="43"/>
+      <c r="W3" s="42">
         <v>4</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40">
+      <c r="X3" s="43"/>
+      <c r="Y3" s="42">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40">
-        <v>1</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="40">
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="42">
+        <v>4</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="42">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="42">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="43"/>
+    </row>
+    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="40">
-        <v>2</v>
-      </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40">
-        <v>2</v>
-      </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40">
-        <v>4</v>
-      </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="40">
-        <v>2</v>
-      </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="40">
-        <v>4</v>
-      </c>
-      <c r="T3" s="41"/>
-      <c r="U3" s="40">
-        <v>2</v>
-      </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="40">
-        <v>4</v>
-      </c>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="40">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="41"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="42">
+      <c r="B4" s="18"/>
+      <c r="C4" s="44">
         <v>46501</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="42">
+      <c r="D4" s="45"/>
+      <c r="E4" s="44">
         <v>47027</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="42">
+      <c r="F4" s="45"/>
+      <c r="G4" s="44">
         <v>46174</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="42">
+      <c r="H4" s="45"/>
+      <c r="I4" s="44">
         <v>47392</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42">
+      <c r="J4" s="45"/>
+      <c r="K4" s="44">
         <v>46702</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="42">
+      <c r="L4" s="45"/>
+      <c r="M4" s="44">
         <v>46367</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="42">
+      <c r="N4" s="45"/>
+      <c r="O4" s="44">
         <v>47500</v>
       </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="42">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="44">
         <v>47510</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="42">
+      <c r="R4" s="45"/>
+      <c r="S4" s="44">
         <v>46664</v>
       </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="42">
+      <c r="T4" s="45"/>
+      <c r="U4" s="44">
         <v>46424</v>
       </c>
-      <c r="V4" s="43"/>
-      <c r="W4" s="42">
+      <c r="V4" s="45"/>
+      <c r="W4" s="44">
         <v>46174</v>
       </c>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="42">
+      <c r="X4" s="45"/>
+      <c r="Y4" s="44">
         <v>47896</v>
       </c>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="43"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="44">
+        <v>46627</v>
+      </c>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="44">
+        <v>47187</v>
+      </c>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="44">
+        <v>47187</v>
+      </c>
+      <c r="AF4" s="45"/>
+    </row>
+    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="40">
+      <c r="B5" s="18"/>
+      <c r="C5" s="42">
         <v>32</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40">
+      <c r="D5" s="43"/>
+      <c r="E5" s="42">
         <f>4*12</f>
         <v>48</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="40">
+      <c r="F5" s="43"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="42">
         <v>60</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="40">
+      <c r="J5" s="43"/>
+      <c r="K5" s="42">
         <v>24</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="40">
+      <c r="L5" s="43"/>
+      <c r="M5" s="42">
         <v>24</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="40">
+      <c r="N5" s="43"/>
+      <c r="O5" s="42">
         <v>60</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40">
+      <c r="P5" s="43"/>
+      <c r="Q5" s="42">
         <v>60</v>
       </c>
-      <c r="R5" s="41"/>
-      <c r="S5" s="40">
+      <c r="R5" s="43"/>
+      <c r="S5" s="42">
         <v>32</v>
       </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="41"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="T5" s="43"/>
+      <c r="U5" s="42">
+        <v>24</v>
+      </c>
+      <c r="V5" s="43"/>
+      <c r="W5" s="42">
+        <v>18</v>
+      </c>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="42">
+        <v>60</v>
+      </c>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="42">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="42">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="42">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="43"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="44">
+      <c r="B6" s="18"/>
+      <c r="C6" s="46">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="44">
+      <c r="D6" s="47"/>
+      <c r="E6" s="46">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="44">
+      <c r="F6" s="47"/>
+      <c r="G6" s="46">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="44">
+      <c r="H6" s="47"/>
+      <c r="I6" s="46">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="44">
+      <c r="J6" s="47"/>
+      <c r="K6" s="46">
         <v>0.08</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="44">
+      <c r="L6" s="47"/>
+      <c r="M6" s="46">
         <v>0.06</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="44">
+      <c r="N6" s="47"/>
+      <c r="O6" s="46">
         <v>0.08</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="44">
+      <c r="P6" s="47"/>
+      <c r="Q6" s="46">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="44">
+      <c r="R6" s="47"/>
+      <c r="S6" s="46">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="45"/>
-      <c r="U6" s="44">
+      <c r="T6" s="47"/>
+      <c r="U6" s="46">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V6" s="45"/>
-      <c r="W6" s="44">
+      <c r="V6" s="47"/>
+      <c r="W6" s="46">
         <v>0.1095</v>
       </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="44">
+      <c r="X6" s="47"/>
+      <c r="Y6" s="46">
         <v>0.08</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="44">
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="46">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="44">
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="46">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AD6" s="45"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="38" t="s">
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="47"/>
+    </row>
+    <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="38" t="s">
+      <c r="L7" s="49"/>
+      <c r="M7" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="49"/>
+      <c r="O7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="38" t="s">
+      <c r="P7" s="49"/>
+      <c r="Q7" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="38" t="s">
+      <c r="R7" s="49"/>
+      <c r="S7" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="49"/>
+      <c r="U7" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="38" t="s">
+      <c r="V7" s="49"/>
+      <c r="W7" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="39"/>
-    </row>
-    <row r="8" spans="1:30" s="31" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="30">
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="49"/>
+    </row>
+    <row r="8" spans="1:32" s="29" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="28">
         <f>SUM(C8:AD8)</f>
         <v>123898</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="50">
         <v>19000</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="46">
+      <c r="D8" s="51"/>
+      <c r="E8" s="50">
         <v>20163</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="46">
+      <c r="F8" s="51"/>
+      <c r="G8" s="50">
         <v>10000</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="46">
+      <c r="H8" s="51"/>
+      <c r="I8" s="50">
         <v>18000</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="46">
+      <c r="J8" s="51"/>
+      <c r="K8" s="50">
         <v>4000</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="46">
+      <c r="L8" s="51"/>
+      <c r="M8" s="50">
         <v>4000</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="46">
+      <c r="N8" s="51"/>
+      <c r="O8" s="50">
         <v>8000</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="46">
+      <c r="P8" s="51"/>
+      <c r="Q8" s="50">
         <v>8000</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="46">
+      <c r="R8" s="51"/>
+      <c r="S8" s="50">
         <v>4000</v>
       </c>
-      <c r="T8" s="47"/>
-      <c r="U8" s="46">
+      <c r="T8" s="51"/>
+      <c r="U8" s="50">
         <v>5000</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="46">
+      <c r="V8" s="51"/>
+      <c r="W8" s="50">
         <v>935</v>
       </c>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="46">
+      <c r="X8" s="51"/>
+      <c r="Y8" s="50">
         <v>4000</v>
       </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="46">
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="50">
         <v>11000</v>
       </c>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="46">
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="50">
         <v>7800</v>
       </c>
-      <c r="AD8" s="47"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="50">
+        <v>30000</v>
+      </c>
+      <c r="AF8" s="51"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45658</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <f>+D9+F9+H9+J9+L9+N9+P9+R9+T9+V9+X9+Z9+AB9+AD9</f>
         <v>987</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="34">
+      <c r="C9" s="24"/>
+      <c r="D9" s="32">
         <v>987</v>
       </c>
       <c r="E9" s="10"/>
@@ -2225,8 +2404,10 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="10"/>
       <c r="AD9" s="11"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="11"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45689</v>
       </c>
@@ -2234,12 +2415,12 @@
         <f t="shared" ref="B10:B46" si="0">+D10+F10+H10+J10+L10+N10+P10+R10+T10+V10+X10+Z10+AB10+AD10</f>
         <v>69.83</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="13"/>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="35">
+      <c r="H10" s="33">
         <v>69.83</v>
       </c>
       <c r="I10" s="12"/>
@@ -2264,16 +2445,18 @@
       <c r="AB10" s="13"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="13"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="13"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45717</v>
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
-        <v>25.595624999999998</v>
-      </c>
-      <c r="C11" s="27"/>
+        <v>25.09</v>
+      </c>
+      <c r="C11" s="25"/>
       <c r="D11" s="13"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
@@ -2294,9 +2477,8 @@
       <c r="U11" s="12"/>
       <c r="V11" s="13"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="13">
-        <f>+$W$8*$W$6/$W$3</f>
-        <v>25.595624999999998</v>
+      <c r="X11" s="33">
+        <v>25.09</v>
       </c>
       <c r="Y11" s="12"/>
       <c r="Z11" s="13"/>
@@ -2304,8 +2486,10 @@
       <c r="AB11" s="13"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="13"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45748</v>
       </c>
@@ -2313,7 +2497,7 @@
         <f t="shared" si="0"/>
         <v>1738.9222</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="13">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
@@ -2350,8 +2534,10 @@
       <c r="AB12" s="13"/>
       <c r="AC12" s="12"/>
       <c r="AD12" s="13"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45778</v>
       </c>
@@ -2359,7 +2545,7 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="13"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
@@ -2396,8 +2582,10 @@
       <c r="AB13" s="13"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="13"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45809</v>
       </c>
@@ -2405,7 +2593,7 @@
         <f t="shared" si="0"/>
         <v>100.595625</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
@@ -2439,8 +2627,10 @@
       <c r="AB14" s="13"/>
       <c r="AC14" s="12"/>
       <c r="AD14" s="13"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45839</v>
       </c>
@@ -2448,7 +2638,7 @@
         <f t="shared" si="0"/>
         <v>332.50000000000006</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="13">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
@@ -2479,8 +2669,10 @@
       <c r="AB15" s="13"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="13"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45870</v>
       </c>
@@ -2488,7 +2680,7 @@
         <f t="shared" si="0"/>
         <v>708.125</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="13"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
@@ -2528,8 +2720,10 @@
       </c>
       <c r="AC16" s="12"/>
       <c r="AD16" s="13"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45901</v>
       </c>
@@ -2537,7 +2731,7 @@
         <f t="shared" si="0"/>
         <v>254.645625</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="13"/>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
@@ -2574,8 +2768,10 @@
         <f>+$AC$8*$AC$6/$AA$3</f>
         <v>154.05000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45931</v>
       </c>
@@ -2583,7 +2779,7 @@
         <f t="shared" si="0"/>
         <v>2198.9222</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="13">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
@@ -2626,8 +2822,10 @@
       <c r="AB18" s="13"/>
       <c r="AC18" s="12"/>
       <c r="AD18" s="13"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="13"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45962</v>
       </c>
@@ -2635,7 +2833,7 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="13"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
@@ -2672,16 +2870,18 @@
       <c r="AB19" s="13"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="13"/>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="13"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
         <v>45992</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="23">
         <f t="shared" si="0"/>
         <v>102.375</v>
       </c>
-      <c r="C20" s="28"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="15"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
@@ -2716,87 +2916,94 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="14"/>
       <c r="AD20" s="15"/>
-    </row>
-    <row r="21" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="15"/>
+    </row>
+    <row r="21" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="7">
         <f>SUM(C21:AM21)</f>
-        <v>7218.5112749999998</v>
-      </c>
-      <c r="C21" s="48">
+        <v>7218.0056500000001</v>
+      </c>
+      <c r="C21" s="38">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="48">
+      <c r="D21" s="39"/>
+      <c r="E21" s="38">
         <f>SUM(F9:F20)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="48">
+      <c r="F21" s="39"/>
+      <c r="G21" s="38">
         <f>SUM(H9:H20)</f>
         <v>294.83</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="48">
+      <c r="H21" s="39"/>
+      <c r="I21" s="38">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="48">
+      <c r="J21" s="39"/>
+      <c r="K21" s="38">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="48">
+      <c r="L21" s="39"/>
+      <c r="M21" s="38">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="48">
+      <c r="N21" s="39"/>
+      <c r="O21" s="38">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="48">
+      <c r="P21" s="39"/>
+      <c r="Q21" s="38">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="49"/>
-      <c r="S21" s="48">
+      <c r="R21" s="39"/>
+      <c r="S21" s="38">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="49"/>
-      <c r="U21" s="48">
+      <c r="T21" s="39"/>
+      <c r="U21" s="38">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="49"/>
-      <c r="W21" s="48">
+      <c r="V21" s="39"/>
+      <c r="W21" s="38">
         <f>SUM(X9:X20)</f>
-        <v>104.16187499999999</v>
-      </c>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="48">
+        <v>103.65625</v>
+      </c>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="38">
         <f>SUM(Z9:Z20)</f>
         <v>160</v>
       </c>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="48">
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="38">
         <f>SUM(AB9:AB20)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="48">
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="38">
         <f>SUM(AD9:AD20)</f>
         <v>154.05000000000001</v>
       </c>
-      <c r="AD21" s="49"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="38">
+        <f>SUM(AF9:AF20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="39"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>46023</v>
       </c>
@@ -2804,7 +3011,7 @@
         <f>+D22+F22+H22+J22+L22+N22+P22+R22+T22+V22+X22+Z22+AB22+AD22</f>
         <v>492.50000000000006</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="11">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
@@ -2838,8 +3045,10 @@
       <c r="AB22" s="11"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="11"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="11"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>46054</v>
       </c>
@@ -2847,7 +3056,7 @@
         <f t="shared" si="0"/>
         <v>758.42499999999995</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="13"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
@@ -2892,8 +3101,10 @@
       </c>
       <c r="AC23" s="12"/>
       <c r="AD23" s="13"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="13"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>46082</v>
       </c>
@@ -2901,7 +3112,7 @@
         <f t="shared" si="0"/>
         <v>179.645625</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="13"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
@@ -2935,8 +3146,10 @@
         <f>+$AC$8*$AC$6/$AA$3</f>
         <v>154.05000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="13"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>46113</v>
       </c>
@@ -2944,7 +3157,7 @@
         <f t="shared" si="0"/>
         <v>2198.9222</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="13">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
@@ -2987,8 +3200,10 @@
       <c r="AB25" s="13"/>
       <c r="AC25" s="12"/>
       <c r="AD25" s="13"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="13"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>46143</v>
       </c>
@@ -2996,7 +3211,7 @@
         <f t="shared" si="0"/>
         <v>375.5</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="13"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
@@ -3038,8 +3253,10 @@
       <c r="AB26" s="13"/>
       <c r="AC26" s="12"/>
       <c r="AD26" s="13"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="13"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>46174</v>
       </c>
@@ -3047,7 +3264,7 @@
         <f t="shared" si="0"/>
         <v>25.595624999999998</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="13"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
@@ -3080,8 +3297,10 @@
       <c r="AB27" s="13"/>
       <c r="AC27" s="12"/>
       <c r="AD27" s="13"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="13"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>46204</v>
       </c>
@@ -3089,7 +3308,7 @@
         <f t="shared" si="0"/>
         <v>492.50000000000006</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="13">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
@@ -3123,8 +3342,10 @@
       <c r="AB28" s="13"/>
       <c r="AC28" s="12"/>
       <c r="AD28" s="13"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="13"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>46235</v>
       </c>
@@ -3132,7 +3353,7 @@
         <f t="shared" si="0"/>
         <v>708.125</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="13"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
@@ -3172,8 +3393,10 @@
       </c>
       <c r="AC29" s="12"/>
       <c r="AD29" s="13"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="13"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>46266</v>
       </c>
@@ -3181,7 +3404,7 @@
         <f t="shared" si="0"/>
         <v>154.05000000000001</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="13"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
@@ -3212,8 +3435,10 @@
         <f>+$AC$8*$AC$6/$AA$3</f>
         <v>154.05000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="13"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>46296</v>
       </c>
@@ -3221,7 +3446,7 @@
         <f t="shared" si="0"/>
         <v>2198.9222</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="13">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
@@ -3264,8 +3489,10 @@
       <c r="AB31" s="13"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="13"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="13"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>46327</v>
       </c>
@@ -3273,7 +3500,7 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="13"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
@@ -3316,8 +3543,10 @@
       <c r="AB32" s="13"/>
       <c r="AC32" s="12"/>
       <c r="AD32" s="13"/>
-    </row>
-    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="13"/>
+    </row>
+    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>46357</v>
       </c>
@@ -3325,7 +3554,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C33" s="28"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="15"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
@@ -3353,87 +3582,94 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="14"/>
       <c r="AD33" s="15"/>
-    </row>
-    <row r="34" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="15"/>
+    </row>
+    <row r="34" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="7">
         <f>SUM(C34:AM34)</f>
         <v>7934.1856500000004</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="38">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="48">
+      <c r="D34" s="39"/>
+      <c r="E34" s="38">
         <f>SUM(F22:F33)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="48">
+      <c r="F34" s="39"/>
+      <c r="G34" s="38">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="49"/>
-      <c r="I34" s="48">
+      <c r="H34" s="39"/>
+      <c r="I34" s="38">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="49"/>
-      <c r="K34" s="48">
+      <c r="J34" s="39"/>
+      <c r="K34" s="38">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="49"/>
-      <c r="M34" s="48">
+      <c r="L34" s="39"/>
+      <c r="M34" s="38">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="49"/>
-      <c r="O34" s="48">
+      <c r="N34" s="39"/>
+      <c r="O34" s="38">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="48">
+      <c r="P34" s="39"/>
+      <c r="Q34" s="38">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="49"/>
-      <c r="S34" s="48">
+      <c r="R34" s="39"/>
+      <c r="S34" s="38">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="49"/>
-      <c r="U34" s="48">
+      <c r="T34" s="39"/>
+      <c r="U34" s="38">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="49"/>
-      <c r="W34" s="48">
+      <c r="V34" s="39"/>
+      <c r="W34" s="38">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="48">
+      <c r="X34" s="39"/>
+      <c r="Y34" s="38">
         <f>SUM(Z22:Z33)</f>
         <v>320</v>
       </c>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="48">
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="38">
         <f>SUM(AB22:AB33)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="48">
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="38">
         <f>SUM(AD22:AD33)</f>
         <v>308.10000000000002</v>
       </c>
-      <c r="AD34" s="49"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="38">
+        <f>SUM(AF22:AF33)</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="39"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>46388</v>
       </c>
@@ -3441,7 +3677,7 @@
         <f t="shared" si="0"/>
         <v>492.50000000000006</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="11">
         <f>+$C$8*$C$6/$C$3</f>
         <v>332.50000000000006</v>
@@ -3475,8 +3711,10 @@
       <c r="AB35" s="11"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="11"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="11"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>46419</v>
       </c>
@@ -3484,7 +3722,7 @@
         <f t="shared" si="0"/>
         <v>708.125</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="13"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
@@ -3524,8 +3762,10 @@
       </c>
       <c r="AC36" s="12"/>
       <c r="AD36" s="13"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE36" s="12"/>
+      <c r="AF36" s="13"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>46447</v>
       </c>
@@ -3533,7 +3773,7 @@
         <f t="shared" si="0"/>
         <v>154.05000000000001</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="13"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
@@ -3564,8 +3804,10 @@
         <f>+$AC$8*$AC$6/$AA$3</f>
         <v>154.05000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="13"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>46478</v>
       </c>
@@ -3573,7 +3815,7 @@
         <f t="shared" si="0"/>
         <v>1866.4222</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="25">
         <f>+C8</f>
         <v>19000</v>
       </c>
@@ -3616,8 +3858,10 @@
       <c r="AB38" s="13"/>
       <c r="AC38" s="12"/>
       <c r="AD38" s="13"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="13"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>46508</v>
       </c>
@@ -3625,7 +3869,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="13"/>
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
@@ -3659,8 +3903,10 @@
       <c r="AB39" s="13"/>
       <c r="AC39" s="12"/>
       <c r="AD39" s="13"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="13"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>46539</v>
       </c>
@@ -3668,7 +3914,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="13"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
@@ -3696,8 +3942,10 @@
       <c r="AB40" s="13"/>
       <c r="AC40" s="12"/>
       <c r="AD40" s="13"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="13"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>46569</v>
       </c>
@@ -3705,7 +3953,7 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="13"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
@@ -3736,8 +3984,10 @@
       <c r="AB41" s="13"/>
       <c r="AC41" s="12"/>
       <c r="AD41" s="13"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="13"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>46600</v>
       </c>
@@ -3745,7 +3995,7 @@
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="13"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
@@ -3779,8 +4029,10 @@
       <c r="AB42" s="13"/>
       <c r="AC42" s="12"/>
       <c r="AD42" s="13"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="13"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>46631</v>
       </c>
@@ -3788,7 +4040,7 @@
         <f t="shared" si="0"/>
         <v>154.05000000000001</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="13"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
@@ -3819,8 +4071,10 @@
         <f>+$AC$8*$AC$6/$AA$3</f>
         <v>154.05000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="13"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>46661</v>
       </c>
@@ -3828,7 +4082,7 @@
         <f t="shared" si="0"/>
         <v>1936.4222</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="13"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13">
@@ -3873,8 +4127,10 @@
       <c r="AB44" s="13"/>
       <c r="AC44" s="12"/>
       <c r="AD44" s="13"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="13"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>46692</v>
       </c>
@@ -3882,7 +4138,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C45" s="27"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="13"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
@@ -3910,8 +4166,10 @@
       <c r="AB45" s="13"/>
       <c r="AC45" s="12"/>
       <c r="AD45" s="13"/>
-    </row>
-    <row r="46" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="13"/>
+    </row>
+    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>46722</v>
       </c>
@@ -3919,7 +4177,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C46" s="28"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="15"/>
       <c r="E46" s="14"/>
       <c r="F46" s="15"/>
@@ -3953,95 +4211,102 @@
       <c r="AB46" s="15"/>
       <c r="AC46" s="14"/>
       <c r="AD46" s="15"/>
-    </row>
-    <row r="47" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="15"/>
+    </row>
+    <row r="47" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="7">
         <f>SUM(C47:Q47)</f>
         <v>4385.3444</v>
       </c>
-      <c r="C47" s="48">
+      <c r="C47" s="38">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="48">
+      <c r="D47" s="39"/>
+      <c r="E47" s="38">
         <f>SUM(F35:F46)</f>
         <v>1588.8444</v>
       </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="48">
+      <c r="F47" s="39"/>
+      <c r="G47" s="38">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="49"/>
-      <c r="I47" s="48">
+      <c r="H47" s="39"/>
+      <c r="I47" s="38">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="49"/>
-      <c r="K47" s="48">
+      <c r="J47" s="39"/>
+      <c r="K47" s="38">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="49"/>
-      <c r="M47" s="48">
+      <c r="L47" s="39"/>
+      <c r="M47" s="38">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="49"/>
-      <c r="O47" s="48">
+      <c r="N47" s="39"/>
+      <c r="O47" s="38">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="48">
+      <c r="P47" s="39"/>
+      <c r="Q47" s="38">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="49"/>
-      <c r="S47" s="48">
+      <c r="R47" s="39"/>
+      <c r="S47" s="38">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="49"/>
-      <c r="U47" s="48">
+      <c r="T47" s="39"/>
+      <c r="U47" s="38">
         <f t="shared" ref="U47" si="2">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="49"/>
-      <c r="W47" s="48">
+      <c r="V47" s="39"/>
+      <c r="W47" s="38">
         <f t="shared" ref="W47" si="3">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="49"/>
-      <c r="Y47" s="48">
+      <c r="X47" s="39"/>
+      <c r="Y47" s="38">
         <f t="shared" ref="Y47" si="4">SUM(Z35:Z46)</f>
         <v>320</v>
       </c>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="48">
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="38">
         <f t="shared" ref="AA47" si="5">SUM(AB35:AB46)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB47" s="49"/>
-      <c r="AC47" s="48">
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="38">
         <f t="shared" ref="AC47" si="6">SUM(AD35:AD46)</f>
         <v>308.10000000000002</v>
       </c>
-      <c r="AD47" s="49"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="38">
+        <f t="shared" ref="AE47" si="7">SUM(AF35:AF46)</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="39"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46753</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" ref="B10:B72" si="7">+D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48</f>
+        <f t="shared" ref="B48:B72" si="8">+D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48</f>
         <v>160</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="11"/>
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
@@ -4072,16 +4337,18 @@
       <c r="AB48" s="11"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="11"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="11"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>46784</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="13"/>
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
@@ -4112,16 +4379,18 @@
       <c r="AB49" s="13"/>
       <c r="AC49" s="12"/>
       <c r="AD49" s="13"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="13"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>46813</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="13"/>
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
@@ -4149,16 +4418,18 @@
       <c r="AB50" s="13"/>
       <c r="AC50" s="12"/>
       <c r="AD50" s="13"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="13"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>46844</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1566.4222</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="13"/>
       <c r="E51" s="12"/>
       <c r="F51" s="13">
@@ -4195,16 +4466,18 @@
       <c r="AB51" s="13"/>
       <c r="AC51" s="12"/>
       <c r="AD51" s="13"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="13"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>46874</v>
       </c>
       <c r="B52" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="13"/>
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
@@ -4232,16 +4505,18 @@
       <c r="AB52" s="13"/>
       <c r="AC52" s="12"/>
       <c r="AD52" s="13"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="13"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>46905</v>
       </c>
       <c r="B53" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C53" s="27"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="13"/>
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
@@ -4275,16 +4550,18 @@
       <c r="AB53" s="13"/>
       <c r="AC53" s="12"/>
       <c r="AD53" s="13"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="13"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>46935</v>
       </c>
       <c r="B54" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C54" s="27"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="13"/>
       <c r="E54" s="12"/>
       <c r="F54" s="13"/>
@@ -4315,16 +4592,18 @@
       <c r="AB54" s="13"/>
       <c r="AC54" s="12"/>
       <c r="AD54" s="13"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="13"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>46966</v>
       </c>
       <c r="B55" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="13"/>
       <c r="E55" s="12"/>
       <c r="F55" s="13"/>
@@ -4355,16 +4634,18 @@
       <c r="AB55" s="13"/>
       <c r="AC55" s="12"/>
       <c r="AD55" s="13"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="13"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>46997</v>
       </c>
       <c r="B56" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="13"/>
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
@@ -4392,16 +4673,18 @@
       <c r="AB56" s="13"/>
       <c r="AC56" s="12"/>
       <c r="AD56" s="13"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="13"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>47027</v>
       </c>
       <c r="B57" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>772</v>
       </c>
-      <c r="C57" s="27"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="13"/>
       <c r="E57" s="12">
         <f>+E8</f>
@@ -4438,16 +4721,18 @@
       <c r="AB57" s="13"/>
       <c r="AC57" s="12"/>
       <c r="AD57" s="13"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="13"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>47058</v>
       </c>
       <c r="B58" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C58" s="27"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="13"/>
       <c r="E58" s="12"/>
       <c r="F58" s="13"/>
@@ -4475,16 +4760,18 @@
       <c r="AB58" s="13"/>
       <c r="AC58" s="12"/>
       <c r="AD58" s="13"/>
-    </row>
-    <row r="59" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="13"/>
+    </row>
+    <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>47088</v>
       </c>
       <c r="B59" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C59" s="28"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="15"/>
       <c r="E59" s="14"/>
       <c r="F59" s="15"/>
@@ -4518,74 +4805,78 @@
       <c r="AB59" s="15"/>
       <c r="AC59" s="14"/>
       <c r="AD59" s="15"/>
-    </row>
-    <row r="60" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE59" s="14"/>
+      <c r="AF59" s="15"/>
+    </row>
+    <row r="60" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="7">
         <f>SUM(C60:K60)</f>
         <v>2018.4222</v>
       </c>
-      <c r="C60" s="48">
+      <c r="C60" s="38">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="48">
+      <c r="D60" s="39"/>
+      <c r="E60" s="38">
         <f>SUM(F48:F59)</f>
         <v>794.42219999999998</v>
       </c>
-      <c r="F60" s="49"/>
-      <c r="G60" s="48">
+      <c r="F60" s="39"/>
+      <c r="G60" s="38">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="49"/>
-      <c r="I60" s="48">
+      <c r="H60" s="39"/>
+      <c r="I60" s="38">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="49"/>
-      <c r="K60" s="48">
+      <c r="J60" s="39"/>
+      <c r="K60" s="38">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="49"/>
-      <c r="M60" s="48">
+      <c r="L60" s="39"/>
+      <c r="M60" s="38">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="49"/>
-      <c r="O60" s="48">
+      <c r="N60" s="39"/>
+      <c r="O60" s="38">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="49"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="49"/>
-      <c r="U60" s="48"/>
-      <c r="V60" s="49"/>
-      <c r="W60" s="48"/>
-      <c r="X60" s="49"/>
-      <c r="Y60" s="48"/>
-      <c r="Z60" s="49"/>
-      <c r="AA60" s="48"/>
-      <c r="AB60" s="49"/>
-      <c r="AC60" s="48"/>
-      <c r="AD60" s="49"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P60" s="39"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="38"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="39"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>47119</v>
       </c>
       <c r="B61" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="24"/>
       <c r="D61" s="11"/>
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
@@ -4616,16 +4907,18 @@
       <c r="AB61" s="11"/>
       <c r="AC61" s="10"/>
       <c r="AD61" s="11"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="11"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>47150</v>
       </c>
       <c r="B62" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C62" s="27"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="13"/>
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
@@ -4653,16 +4946,18 @@
       <c r="AB62" s="13"/>
       <c r="AC62" s="12"/>
       <c r="AD62" s="13"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="13"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>47178</v>
       </c>
       <c r="B63" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C63" s="27"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="13"/>
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
@@ -4690,16 +4985,18 @@
       <c r="AB63" s="13"/>
       <c r="AC63" s="12"/>
       <c r="AD63" s="13"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="13"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>47209</v>
       </c>
       <c r="B64" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>772</v>
       </c>
-      <c r="C64" s="27"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="13"/>
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
@@ -4733,16 +5030,18 @@
       <c r="AB64" s="13"/>
       <c r="AC64" s="12"/>
       <c r="AD64" s="13"/>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="13"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>47239</v>
       </c>
       <c r="B65" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C65" s="27"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="13"/>
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
@@ -4770,16 +5069,18 @@
       <c r="AB65" s="13"/>
       <c r="AC65" s="12"/>
       <c r="AD65" s="13"/>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="13"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>47270</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C66" s="27"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="13"/>
       <c r="E66" s="12"/>
       <c r="F66" s="13"/>
@@ -4807,16 +5108,18 @@
       <c r="AB66" s="13"/>
       <c r="AC66" s="12"/>
       <c r="AD66" s="13"/>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="13"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>47300</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C67" s="27"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="13"/>
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
@@ -4847,16 +5150,18 @@
       <c r="AB67" s="13"/>
       <c r="AC67" s="12"/>
       <c r="AD67" s="13"/>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="13"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>47331</v>
       </c>
       <c r="B68" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C68" s="27"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="13"/>
       <c r="E68" s="12"/>
       <c r="F68" s="13"/>
@@ -4884,16 +5189,18 @@
       <c r="AB68" s="13"/>
       <c r="AC68" s="12"/>
       <c r="AD68" s="13"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="13"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>47362</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C69" s="27"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="13"/>
       <c r="E69" s="12"/>
       <c r="F69" s="13"/>
@@ -4921,16 +5228,18 @@
       <c r="AB69" s="13"/>
       <c r="AC69" s="12"/>
       <c r="AD69" s="13"/>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="13"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>47392</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C70" s="27"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="13"/>
       <c r="E70" s="12"/>
       <c r="F70" s="13"/>
@@ -4961,16 +5270,18 @@
       <c r="AB70" s="13"/>
       <c r="AC70" s="12"/>
       <c r="AD70" s="13"/>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="13"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>47423</v>
       </c>
       <c r="B71" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C71" s="27"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="13"/>
       <c r="E71" s="12"/>
       <c r="F71" s="13"/>
@@ -4998,16 +5309,18 @@
       <c r="AB71" s="13"/>
       <c r="AC71" s="12"/>
       <c r="AD71" s="13"/>
-    </row>
-    <row r="72" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="13"/>
+    </row>
+    <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>47453</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="C72" s="28"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="15"/>
       <c r="E72" s="14"/>
       <c r="F72" s="15"/>
@@ -5035,67 +5348,71 @@
       <c r="AB72" s="15"/>
       <c r="AC72" s="14"/>
       <c r="AD72" s="15"/>
-    </row>
-    <row r="73" spans="1:30" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="15"/>
+    </row>
+    <row r="73" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B73" s="7">
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="48">
+      <c r="C73" s="38">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="48">
+      <c r="D73" s="39"/>
+      <c r="E73" s="38">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="49"/>
-      <c r="G73" s="48">
+      <c r="F73" s="39"/>
+      <c r="G73" s="38">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="49"/>
-      <c r="I73" s="48">
+      <c r="H73" s="39"/>
+      <c r="I73" s="38">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="49"/>
-      <c r="K73" s="48">
+      <c r="J73" s="39"/>
+      <c r="K73" s="38">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="49"/>
-      <c r="M73" s="48">
+      <c r="L73" s="39"/>
+      <c r="M73" s="38">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="49"/>
-      <c r="O73" s="48">
+      <c r="N73" s="39"/>
+      <c r="O73" s="38">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="49"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="49"/>
-      <c r="S73" s="48"/>
-      <c r="T73" s="49"/>
-      <c r="U73" s="48"/>
-      <c r="V73" s="49"/>
-      <c r="W73" s="48"/>
-      <c r="X73" s="49"/>
-      <c r="Y73" s="48"/>
-      <c r="Z73" s="49"/>
-      <c r="AA73" s="48"/>
-      <c r="AB73" s="49"/>
-      <c r="AC73" s="48"/>
-      <c r="AD73" s="49"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="38"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="38"/>
+      <c r="V73" s="39"/>
+      <c r="W73" s="38"/>
+      <c r="X73" s="39"/>
+      <c r="Y73" s="38"/>
+      <c r="Z73" s="39"/>
+      <c r="AA73" s="38"/>
+      <c r="AB73" s="39"/>
+      <c r="AC73" s="38"/>
+      <c r="AD73" s="39"/>
+      <c r="AE73" s="38"/>
+      <c r="AF73" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="195">
     <mergeCell ref="AC34:AD34"/>
     <mergeCell ref="AC47:AD47"/>
     <mergeCell ref="AC60:AD60"/>
@@ -5278,12 +5595,26 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AE73:AF73"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE21:AF21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Documento: Personal&amp;1#_x000D_</oddHeader>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5295,7 +5626,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="1"/>
@@ -5317,14 +5648,14 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -5333,7 +5664,7 @@
       <c r="C6" s="3">
         <v>0.05</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="31">
         <v>6.25E-2</v>
       </c>
       <c r="E6" s="3">
@@ -5342,14 +5673,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -5394,16 +5725,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>0.04</v>
@@ -5419,16 +5750,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5517,7 +5848,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5526,7 +5857,7 @@
       <c r="B2">
         <v>0.1095</v>
       </c>
-      <c r="D2" s="32"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -5586,4 +5917,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D8FD46-7295-460C-A00F-5772AADF8EB8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\OneDrive - YPF\Documentos\GitHub\Personal\Inversiones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="900" documentId="8_{8D630CC4-B490-46B6-889C-F031D25C47A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEF8AFC8-F3BA-4F07-B616-4841E1BB3C1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD348567-E064-42FC-9033-2A64F931E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="-27240" yWindow="195" windowWidth="23835" windowHeight="15285" tabRatio="472" activeTab="2" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
@@ -411,6 +411,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH17" authorId="1" shapeId="0" xr:uid="{EB066264-7755-4C5D-918F-F758E4650DA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P18" authorId="0" shapeId="0" xr:uid="{BF9606AD-FB62-4AC2-B0E6-13D4DCA830B4}">
       <text>
         <r>
@@ -533,6 +557,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH24" authorId="1" shapeId="0" xr:uid="{380B3111-0EC2-4F09-814F-1357B5B53016}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L26" authorId="0" shapeId="0" xr:uid="{8317EAB6-71B7-4A75-BF07-8A76DD9B51F0}">
       <text>
         <r>
@@ -605,6 +653,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH30" authorId="1" shapeId="0" xr:uid="{A3D755D4-22E8-4EE2-BC3D-656BBB8F49F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L32" authorId="0" shapeId="0" xr:uid="{F801E1AC-1AB3-4E04-B2BD-D8F1B20850F1}">
       <text>
         <r>
@@ -677,7 +749,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH37" authorId="1" shapeId="0" xr:uid="{0CB84533-2544-4710-83D9-2EE1EE959E52}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AD43" authorId="1" shapeId="0" xr:uid="{68118DC9-05EB-4104-847E-7D22E627FC4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH43" authorId="1" shapeId="0" xr:uid="{A3232B74-5F13-4278-9DA6-463139AC2E23}">
       <text>
         <r>
           <rPr>
@@ -706,7 +826,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Plazo</t>
   </si>
@@ -830,6 +950,9 @@
   <si>
     <t>FIMA</t>
   </si>
+  <si>
+    <t>MCC1D</t>
+  </si>
 </sst>
 </file>
 
@@ -1300,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1391,6 +1514,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1445,10 +1571,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1519,7 +1646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1838,466 +1965,496 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF73"/>
+  <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="32" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="34" width="7.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="37"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="40" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="40" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="40" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="41"/>
-      <c r="S1" s="40" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="40" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="40" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="40" t="s">
+      <c r="X1" s="42"/>
+      <c r="Y1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="40" t="s">
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="40" t="s">
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="40" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="41"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="42"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="52">
+      <c r="C2" s="53">
         <v>32</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="42">
+      <c r="D2" s="54"/>
+      <c r="E2" s="43">
         <v>32</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="42">
+      <c r="F2" s="44"/>
+      <c r="G2" s="43">
         <v>6</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42">
+      <c r="H2" s="44"/>
+      <c r="I2" s="43">
         <v>32</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="42">
+      <c r="J2" s="44"/>
+      <c r="K2" s="43">
         <v>24</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="42">
+      <c r="L2" s="44"/>
+      <c r="M2" s="43">
         <v>24</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="42">
+      <c r="N2" s="44"/>
+      <c r="O2" s="43">
         <v>32</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="42">
+      <c r="P2" s="44"/>
+      <c r="Q2" s="43">
         <v>32</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="42">
+      <c r="R2" s="44"/>
+      <c r="S2" s="43">
         <v>32</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="42">
+      <c r="T2" s="44"/>
+      <c r="U2" s="43">
         <v>24</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="42">
+      <c r="V2" s="44"/>
+      <c r="W2" s="43">
         <v>18</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="44"/>
+      <c r="Y2" s="43">
         <v>32</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="42">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="43">
         <v>30</v>
       </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="42">
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="43">
         <v>40</v>
       </c>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="43"/>
-    </row>
-    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="43">
+        <v>40</v>
+      </c>
+      <c r="AH2" s="44"/>
+    </row>
+    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="42">
+      <c r="C3" s="43">
         <v>4</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="42">
+      <c r="D3" s="44"/>
+      <c r="E3" s="43">
         <v>2</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="42">
+      <c r="F3" s="44"/>
+      <c r="G3" s="43">
         <v>1</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="42">
+      <c r="H3" s="44"/>
+      <c r="I3" s="43">
         <v>2</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="42">
+      <c r="J3" s="44"/>
+      <c r="K3" s="43">
         <v>2</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="42">
+      <c r="L3" s="44"/>
+      <c r="M3" s="43">
         <v>2</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="42">
+      <c r="N3" s="44"/>
+      <c r="O3" s="43">
         <v>4</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="42">
+      <c r="P3" s="44"/>
+      <c r="Q3" s="43">
         <v>2</v>
       </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="42">
+      <c r="R3" s="44"/>
+      <c r="S3" s="43">
         <v>4</v>
       </c>
-      <c r="T3" s="43"/>
-      <c r="U3" s="42">
+      <c r="T3" s="44"/>
+      <c r="U3" s="43">
         <v>2</v>
       </c>
-      <c r="V3" s="43"/>
-      <c r="W3" s="42">
+      <c r="V3" s="44"/>
+      <c r="W3" s="43">
         <v>4</v>
       </c>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="42">
+      <c r="X3" s="44"/>
+      <c r="Y3" s="43">
         <v>2</v>
       </c>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="42">
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="43">
         <v>4</v>
       </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="42">
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="43">
         <v>4</v>
       </c>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="42">
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="43">
         <v>4</v>
       </c>
-      <c r="AF3" s="43"/>
-    </row>
-    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="43">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="44"/>
+    </row>
+    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="18"/>
-      <c r="C4" s="44">
+      <c r="C4" s="45">
         <v>46501</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="44">
+      <c r="D4" s="46"/>
+      <c r="E4" s="45">
         <v>47027</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="44">
+      <c r="F4" s="46"/>
+      <c r="G4" s="45">
         <v>46174</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="44">
+      <c r="H4" s="46"/>
+      <c r="I4" s="45">
         <v>47392</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="44">
+      <c r="J4" s="46"/>
+      <c r="K4" s="45">
         <v>46702</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="44">
+      <c r="L4" s="46"/>
+      <c r="M4" s="45">
         <v>46367</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="44">
+      <c r="N4" s="46"/>
+      <c r="O4" s="45">
         <v>47500</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="44">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="45">
         <v>47510</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="44">
+      <c r="R4" s="46"/>
+      <c r="S4" s="45">
         <v>46664</v>
       </c>
-      <c r="T4" s="45"/>
-      <c r="U4" s="44">
+      <c r="T4" s="46"/>
+      <c r="U4" s="45">
         <v>46424</v>
       </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="44">
+      <c r="V4" s="46"/>
+      <c r="W4" s="45">
         <v>46174</v>
       </c>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="44">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="45">
         <v>47896</v>
       </c>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="44">
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="45">
         <v>46627</v>
       </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="44">
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="45">
         <v>47187</v>
       </c>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="44">
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="45">
         <v>47187</v>
       </c>
-      <c r="AF4" s="45"/>
-    </row>
-    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="45">
+        <v>47187</v>
+      </c>
+      <c r="AH4" s="46"/>
+    </row>
+    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="42">
+      <c r="C5" s="43">
         <v>32</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="42">
+      <c r="D5" s="44"/>
+      <c r="E5" s="43">
         <f>4*12</f>
         <v>48</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42">
+      <c r="F5" s="44"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="43">
         <v>60</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="42">
+      <c r="J5" s="44"/>
+      <c r="K5" s="43">
         <v>24</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="42">
+      <c r="L5" s="44"/>
+      <c r="M5" s="43">
         <v>24</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="42">
+      <c r="N5" s="44"/>
+      <c r="O5" s="43">
         <v>60</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="42">
+      <c r="P5" s="44"/>
+      <c r="Q5" s="43">
         <v>60</v>
       </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="42">
+      <c r="R5" s="44"/>
+      <c r="S5" s="43">
         <v>32</v>
       </c>
-      <c r="T5" s="43"/>
-      <c r="U5" s="42">
+      <c r="T5" s="44"/>
+      <c r="U5" s="43">
         <v>24</v>
       </c>
-      <c r="V5" s="43"/>
-      <c r="W5" s="42">
+      <c r="V5" s="44"/>
+      <c r="W5" s="43">
         <v>18</v>
       </c>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="42">
+      <c r="X5" s="44"/>
+      <c r="Y5" s="43">
         <v>60</v>
       </c>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="42">
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="43">
         <v>30</v>
       </c>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="42">
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="43">
         <v>60</v>
       </c>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="42">
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="43">
         <v>60</v>
       </c>
-      <c r="AF5" s="43"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="43">
+        <v>60</v>
+      </c>
+      <c r="AH5" s="44"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="46">
+      <c r="C6" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="46">
+      <c r="D6" s="48"/>
+      <c r="E6" s="47">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="46">
+      <c r="F6" s="48"/>
+      <c r="G6" s="47">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="46">
+      <c r="H6" s="48"/>
+      <c r="I6" s="47">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="46">
+      <c r="J6" s="48"/>
+      <c r="K6" s="47">
         <v>0.08</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="46">
+      <c r="L6" s="48"/>
+      <c r="M6" s="47">
         <v>0.06</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="46">
+      <c r="N6" s="48"/>
+      <c r="O6" s="47">
         <v>0.08</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="46">
+      <c r="P6" s="48"/>
+      <c r="Q6" s="47">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="46">
+      <c r="R6" s="48"/>
+      <c r="S6" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="47"/>
-      <c r="U6" s="46">
+      <c r="T6" s="48"/>
+      <c r="U6" s="47">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V6" s="47"/>
-      <c r="W6" s="46">
+      <c r="V6" s="48"/>
+      <c r="W6" s="47">
         <v>0.1095</v>
       </c>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="46">
+      <c r="X6" s="48"/>
+      <c r="Y6" s="47">
         <v>0.08</v>
       </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="46">
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="47">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="46">
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="47">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="47"/>
-    </row>
-    <row r="7" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="47"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="47">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AH6" s="48"/>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="48" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="48" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="48" t="s">
+      <c r="J7" s="50"/>
+      <c r="K7" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="48" t="s">
+      <c r="L7" s="50"/>
+      <c r="M7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="48" t="s">
+      <c r="N7" s="50"/>
+      <c r="O7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="48" t="s">
+      <c r="P7" s="50"/>
+      <c r="Q7" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="49"/>
-      <c r="S7" s="48" t="s">
+      <c r="R7" s="50"/>
+      <c r="S7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="49"/>
-      <c r="U7" s="48" t="s">
+      <c r="T7" s="50"/>
+      <c r="U7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="49"/>
-      <c r="W7" s="48" t="s">
+      <c r="V7" s="50"/>
+      <c r="W7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="48" t="s">
+      <c r="X7" s="50"/>
+      <c r="Y7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="48" t="s">
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="49"/>
-    </row>
-    <row r="8" spans="1:32" s="29" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH7" s="50"/>
+    </row>
+    <row r="8" spans="1:34" s="29" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>14</v>
       </c>
@@ -2305,68 +2462,72 @@
         <f>SUM(C8:AD8)</f>
         <v>123898</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="51">
         <v>19000</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="50">
+      <c r="D8" s="52"/>
+      <c r="E8" s="51">
         <v>20163</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="50">
+      <c r="F8" s="52"/>
+      <c r="G8" s="51">
         <v>10000</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="50">
+      <c r="H8" s="52"/>
+      <c r="I8" s="51">
         <v>18000</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="50">
+      <c r="J8" s="52"/>
+      <c r="K8" s="51">
         <v>4000</v>
       </c>
-      <c r="L8" s="51"/>
-      <c r="M8" s="50">
+      <c r="L8" s="52"/>
+      <c r="M8" s="51">
         <v>4000</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="50">
+      <c r="N8" s="52"/>
+      <c r="O8" s="51">
         <v>8000</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="50">
+      <c r="P8" s="52"/>
+      <c r="Q8" s="51">
         <v>8000</v>
       </c>
-      <c r="R8" s="51"/>
-      <c r="S8" s="50">
+      <c r="R8" s="52"/>
+      <c r="S8" s="51">
         <v>4000</v>
       </c>
-      <c r="T8" s="51"/>
-      <c r="U8" s="50">
+      <c r="T8" s="52"/>
+      <c r="U8" s="51">
         <v>5000</v>
       </c>
-      <c r="V8" s="51"/>
-      <c r="W8" s="50">
+      <c r="V8" s="52"/>
+      <c r="W8" s="51">
         <v>935</v>
       </c>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="50">
+      <c r="X8" s="52"/>
+      <c r="Y8" s="51">
         <v>4000</v>
       </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="50">
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="51">
         <v>11000</v>
       </c>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="50">
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="51">
         <v>7800</v>
       </c>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="50">
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="51">
         <v>30000</v>
       </c>
-      <c r="AF8" s="51"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="51">
+        <v>10152</v>
+      </c>
+      <c r="AH8" s="52"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>45658</v>
       </c>
@@ -2406,8 +2567,10 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="10"/>
       <c r="AF9" s="11"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="11"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45689</v>
       </c>
@@ -2447,8 +2610,10 @@
       <c r="AD10" s="13"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="13"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="13"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45717</v>
       </c>
@@ -2488,14 +2653,16 @@
       <c r="AD11" s="13"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="13"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="13"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45748</v>
       </c>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
-        <v>1738.9222</v>
+        <v>1714.0900000000001</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="13">
@@ -2503,9 +2670,8 @@
         <v>332.50000000000006</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="13">
-        <f>+$E$8*$E$6/$E$3</f>
-        <v>794.42219999999998</v>
+      <c r="F12" s="38">
+        <v>769.59</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
@@ -2536,8 +2702,10 @@
       <c r="AD12" s="13"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="13"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="13"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45778</v>
       </c>
@@ -2584,8 +2752,10 @@
       <c r="AD13" s="13"/>
       <c r="AE13" s="12"/>
       <c r="AF13" s="13"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="13"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45809</v>
       </c>
@@ -2629,8 +2799,10 @@
       <c r="AD14" s="13"/>
       <c r="AE14" s="12"/>
       <c r="AF14" s="13"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="13"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45839</v>
       </c>
@@ -2671,8 +2843,10 @@
       <c r="AD15" s="13"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="13"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="13"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45870</v>
       </c>
@@ -2722,8 +2896,10 @@
       <c r="AD16" s="13"/>
       <c r="AE16" s="12"/>
       <c r="AF16" s="13"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="13"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45901</v>
       </c>
@@ -2770,14 +2946,19 @@
       </c>
       <c r="AE17" s="12"/>
       <c r="AF17" s="13"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="13">
+        <f>+$AG$8*$AG$6/$AG$3</f>
+        <v>200.50200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45931</v>
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>2198.9222</v>
+        <v>2174.09</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="13">
@@ -2786,8 +2967,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="13">
-        <f>+$E$8*$E$6/$E$3</f>
-        <v>794.42219999999998</v>
+        <v>769.59</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="13"/>
@@ -2824,8 +3004,10 @@
       <c r="AD18" s="13"/>
       <c r="AE18" s="12"/>
       <c r="AF18" s="13"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="13"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45962</v>
       </c>
@@ -2872,8 +3054,10 @@
       <c r="AD19" s="13"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="13"/>
-    </row>
-    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="13"/>
+    </row>
+    <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>45992</v>
       </c>
@@ -2918,92 +3102,99 @@
       <c r="AD20" s="15"/>
       <c r="AE20" s="14"/>
       <c r="AF20" s="15"/>
-    </row>
-    <row r="21" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="15"/>
+    </row>
+    <row r="21" spans="1:34" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="7">
         <f>SUM(C21:AM21)</f>
-        <v>7218.0056500000001</v>
-      </c>
-      <c r="C21" s="38">
+        <v>7368.8432500000008</v>
+      </c>
+      <c r="C21" s="39">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38">
+      <c r="D21" s="40"/>
+      <c r="E21" s="39">
         <f>SUM(F9:F20)</f>
-        <v>1588.8444</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="38">
+        <v>1539.18</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="39">
         <f>SUM(H9:H20)</f>
         <v>294.83</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="38">
+      <c r="H21" s="40"/>
+      <c r="I21" s="39">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="38">
+      <c r="J21" s="40"/>
+      <c r="K21" s="39">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="38">
+      <c r="L21" s="40"/>
+      <c r="M21" s="39">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="38">
+      <c r="N21" s="40"/>
+      <c r="O21" s="39">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="38">
+      <c r="P21" s="40"/>
+      <c r="Q21" s="39">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="39"/>
-      <c r="S21" s="38">
+      <c r="R21" s="40"/>
+      <c r="S21" s="39">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="39"/>
-      <c r="U21" s="38">
+      <c r="T21" s="40"/>
+      <c r="U21" s="39">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="39"/>
-      <c r="W21" s="38">
+      <c r="V21" s="40"/>
+      <c r="W21" s="39">
         <f>SUM(X9:X20)</f>
         <v>103.65625</v>
       </c>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="38">
+      <c r="X21" s="40"/>
+      <c r="Y21" s="39">
         <f>SUM(Z9:Z20)</f>
         <v>160</v>
       </c>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="38">
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="39">
         <f>SUM(AB9:AB20)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="38">
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="39">
         <f>SUM(AD9:AD20)</f>
         <v>154.05000000000001</v>
       </c>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="38">
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="39">
         <f>SUM(AF9:AF20)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="39"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="39">
+        <f>SUM(AH9:AH20)</f>
+        <v>200.50200000000001</v>
+      </c>
+      <c r="AH21" s="40"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>46023</v>
       </c>
@@ -3047,8 +3238,10 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="11"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="11"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>46054</v>
       </c>
@@ -3103,8 +3296,10 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="12"/>
       <c r="AF23" s="13"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="13"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>46082</v>
       </c>
@@ -3148,14 +3343,19 @@
       </c>
       <c r="AE24" s="12"/>
       <c r="AF24" s="13"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>46113</v>
       </c>
       <c r="B25" s="12">
         <f t="shared" si="0"/>
-        <v>2198.9222</v>
+        <v>2174.09</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="13">
@@ -3164,8 +3364,7 @@
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="13">
-        <f>+$E$8*$E$6/$E$3</f>
-        <v>794.42219999999998</v>
+        <v>769.59</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="13"/>
@@ -3202,8 +3401,10 @@
       <c r="AD25" s="13"/>
       <c r="AE25" s="12"/>
       <c r="AF25" s="13"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="13"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>46143</v>
       </c>
@@ -3255,8 +3456,10 @@
       <c r="AD26" s="13"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="13"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="13"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>46174</v>
       </c>
@@ -3299,8 +3502,10 @@
       <c r="AD27" s="13"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="13"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="13"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>46204</v>
       </c>
@@ -3344,8 +3549,10 @@
       <c r="AD28" s="13"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="13"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="13"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>46235</v>
       </c>
@@ -3395,8 +3602,10 @@
       <c r="AD29" s="13"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="13"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="13"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>46266</v>
       </c>
@@ -3437,14 +3646,19 @@
       </c>
       <c r="AE30" s="12"/>
       <c r="AF30" s="13"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>46296</v>
       </c>
       <c r="B31" s="12">
         <f t="shared" si="0"/>
-        <v>2198.9222</v>
+        <v>2174.09</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="13">
@@ -3453,8 +3667,7 @@
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="13">
-        <f>+$E$8*$E$6/$E$3</f>
-        <v>794.42219999999998</v>
+        <v>769.59</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
@@ -3491,8 +3704,10 @@
       <c r="AD31" s="13"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="13"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="13"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>46327</v>
       </c>
@@ -3545,8 +3760,10 @@
       <c r="AD32" s="13"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="13"/>
-    </row>
-    <row r="33" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="13"/>
+    </row>
+    <row r="33" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>46357</v>
       </c>
@@ -3584,92 +3801,99 @@
       <c r="AD33" s="15"/>
       <c r="AE33" s="14"/>
       <c r="AF33" s="15"/>
-    </row>
-    <row r="34" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="15"/>
+    </row>
+    <row r="34" spans="1:34" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="7">
         <f>SUM(C34:AM34)</f>
-        <v>7934.1856500000004</v>
-      </c>
-      <c r="C34" s="38">
+        <v>8192.6212500000001</v>
+      </c>
+      <c r="C34" s="39">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="38">
+      <c r="D34" s="40"/>
+      <c r="E34" s="39">
         <f>SUM(F22:F33)</f>
-        <v>1588.8444</v>
-      </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="38">
+        <v>1539.18</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="39">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="38">
+      <c r="H34" s="40"/>
+      <c r="I34" s="39">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="39"/>
-      <c r="K34" s="38">
+      <c r="J34" s="40"/>
+      <c r="K34" s="39">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="39"/>
-      <c r="M34" s="38">
+      <c r="L34" s="40"/>
+      <c r="M34" s="39">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="39"/>
-      <c r="O34" s="38">
+      <c r="N34" s="40"/>
+      <c r="O34" s="39">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="38">
+      <c r="P34" s="40"/>
+      <c r="Q34" s="39">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="39"/>
-      <c r="S34" s="38">
+      <c r="R34" s="40"/>
+      <c r="S34" s="39">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="39"/>
-      <c r="U34" s="38">
+      <c r="T34" s="40"/>
+      <c r="U34" s="39">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="39"/>
-      <c r="W34" s="38">
+      <c r="V34" s="40"/>
+      <c r="W34" s="39">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="38">
+      <c r="X34" s="40"/>
+      <c r="Y34" s="39">
         <f>SUM(Z22:Z33)</f>
         <v>320</v>
       </c>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="38">
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="39">
         <f>SUM(AB22:AB33)</f>
         <v>481.24999999999994</v>
       </c>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="38">
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="39">
         <f>SUM(AD22:AD33)</f>
         <v>308.10000000000002</v>
       </c>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="38">
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="39">
         <f>SUM(AF22:AF33)</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="39"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="39">
+        <f>SUM(AH22:AH33)</f>
+        <v>308.10000000000002</v>
+      </c>
+      <c r="AH34" s="40"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>46388</v>
       </c>
@@ -3713,8 +3937,10 @@
       <c r="AD35" s="11"/>
       <c r="AE35" s="10"/>
       <c r="AF35" s="11"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="11"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>46419</v>
       </c>
@@ -3764,8 +3990,10 @@
       <c r="AD36" s="13"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="13"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG36" s="12"/>
+      <c r="AH36" s="13"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>46447</v>
       </c>
@@ -3806,14 +4034,19 @@
       </c>
       <c r="AE37" s="12"/>
       <c r="AF37" s="13"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>46478</v>
       </c>
       <c r="B38" s="12">
         <f t="shared" si="0"/>
-        <v>1866.4222</v>
+        <v>1841.5900000000001</v>
       </c>
       <c r="C38" s="25">
         <f>+C8</f>
@@ -3822,8 +4055,7 @@
       <c r="D38" s="13"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13">
-        <f>+$E$8*$E$6/$E$3</f>
-        <v>794.42219999999998</v>
+        <v>769.59</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="13"/>
@@ -3860,8 +4092,10 @@
       <c r="AD38" s="13"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="13"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="13"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>46508</v>
       </c>
@@ -3905,8 +4139,10 @@
       <c r="AD39" s="13"/>
       <c r="AE39" s="12"/>
       <c r="AF39" s="13"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="13"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>46539</v>
       </c>
@@ -3944,8 +4180,10 @@
       <c r="AD40" s="13"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="13"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="13"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>46569</v>
       </c>
@@ -3986,8 +4224,10 @@
       <c r="AD41" s="13"/>
       <c r="AE41" s="12"/>
       <c r="AF41" s="13"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="13"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>46600</v>
       </c>
@@ -4031,8 +4271,10 @@
       <c r="AD42" s="13"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="13"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="13"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>46631</v>
       </c>
@@ -4073,21 +4315,25 @@
       </c>
       <c r="AE43" s="12"/>
       <c r="AF43" s="13"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="13">
+        <f>+$AC$8*$AC$6/$AA$3</f>
+        <v>154.05000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>46661</v>
       </c>
       <c r="B44" s="12">
         <f t="shared" si="0"/>
-        <v>1936.4222</v>
+        <v>1911.5900000000001</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="13"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13">
-        <f>+$E$8*$E$6/$E$3</f>
-        <v>794.42219999999998</v>
+        <v>769.59</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
@@ -4129,8 +4375,10 @@
       <c r="AD44" s="13"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="13"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="13"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>46692</v>
       </c>
@@ -4168,8 +4416,10 @@
       <c r="AD45" s="13"/>
       <c r="AE45" s="12"/>
       <c r="AF45" s="13"/>
-    </row>
-    <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="13"/>
+    </row>
+    <row r="46" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>46722</v>
       </c>
@@ -4213,97 +4463,104 @@
       <c r="AD46" s="15"/>
       <c r="AE46" s="14"/>
       <c r="AF46" s="15"/>
-    </row>
-    <row r="47" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="15"/>
+    </row>
+    <row r="47" spans="1:34" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="7">
         <f>SUM(C47:Q47)</f>
-        <v>4385.3444</v>
-      </c>
-      <c r="C47" s="38">
+        <v>4335.68</v>
+      </c>
+      <c r="C47" s="39">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="38">
+      <c r="D47" s="40"/>
+      <c r="E47" s="39">
         <f>SUM(F35:F46)</f>
-        <v>1588.8444</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="38">
+        <v>1539.18</v>
+      </c>
+      <c r="F47" s="40"/>
+      <c r="G47" s="39">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="38">
+      <c r="H47" s="40"/>
+      <c r="I47" s="39">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="39"/>
-      <c r="K47" s="38">
+      <c r="J47" s="40"/>
+      <c r="K47" s="39">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="38">
+      <c r="L47" s="40"/>
+      <c r="M47" s="39">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="39"/>
-      <c r="O47" s="38">
+      <c r="N47" s="40"/>
+      <c r="O47" s="39">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="38">
+      <c r="P47" s="40"/>
+      <c r="Q47" s="39">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="39"/>
-      <c r="S47" s="38">
+      <c r="R47" s="40"/>
+      <c r="S47" s="39">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="39"/>
-      <c r="U47" s="38">
+      <c r="T47" s="40"/>
+      <c r="U47" s="39">
         <f t="shared" ref="U47" si="2">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="39"/>
-      <c r="W47" s="38">
+      <c r="V47" s="40"/>
+      <c r="W47" s="39">
         <f t="shared" ref="W47" si="3">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="39"/>
-      <c r="Y47" s="38">
+      <c r="X47" s="40"/>
+      <c r="Y47" s="39">
         <f t="shared" ref="Y47" si="4">SUM(Z35:Z46)</f>
         <v>320</v>
       </c>
-      <c r="Z47" s="39"/>
-      <c r="AA47" s="38">
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="39">
         <f t="shared" ref="AA47" si="5">SUM(AB35:AB46)</f>
         <v>240.62499999999997</v>
       </c>
-      <c r="AB47" s="39"/>
-      <c r="AC47" s="38">
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="39">
         <f t="shared" ref="AC47" si="6">SUM(AD35:AD46)</f>
         <v>308.10000000000002</v>
       </c>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="38">
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="39">
         <f t="shared" ref="AE47" si="7">SUM(AF35:AF46)</f>
         <v>0</v>
       </c>
-      <c r="AF47" s="39"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="39">
+        <f t="shared" ref="AG47" si="8">SUM(AH35:AH46)</f>
+        <v>308.10000000000002</v>
+      </c>
+      <c r="AH47" s="40"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>46753</v>
       </c>
       <c r="B48" s="12">
-        <f t="shared" ref="B48:B72" si="8">+D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48</f>
+        <f t="shared" ref="B48:B72" si="9">+D48+F48+H48+J48+L48+N48+P48+R48+T48+V48+X48+Z48</f>
         <v>160</v>
       </c>
       <c r="C48" s="24"/>
@@ -4339,13 +4596,15 @@
       <c r="AD48" s="11"/>
       <c r="AE48" s="10"/>
       <c r="AF48" s="11"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="11"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>46784</v>
       </c>
       <c r="B49" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="C49" s="25"/>
@@ -4381,13 +4640,15 @@
       <c r="AD49" s="13"/>
       <c r="AE49" s="12"/>
       <c r="AF49" s="13"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="13"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>46813</v>
       </c>
       <c r="B50" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C50" s="25"/>
@@ -4420,21 +4681,22 @@
       <c r="AD50" s="13"/>
       <c r="AE50" s="12"/>
       <c r="AF50" s="13"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="13"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>46844</v>
       </c>
       <c r="B51" s="12">
-        <f t="shared" si="8"/>
-        <v>1566.4222</v>
+        <f t="shared" si="9"/>
+        <v>1541.5900000000001</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="13"/>
       <c r="E51" s="12"/>
       <c r="F51" s="13">
-        <f>+$E$8*$E$6/$E$3</f>
-        <v>794.42219999999998</v>
+        <v>769.59</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="13"/>
@@ -4468,13 +4730,15 @@
       <c r="AD51" s="13"/>
       <c r="AE51" s="12"/>
       <c r="AF51" s="13"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="13"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>46874</v>
       </c>
       <c r="B52" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C52" s="25"/>
@@ -4507,13 +4771,15 @@
       <c r="AD52" s="13"/>
       <c r="AE52" s="12"/>
       <c r="AF52" s="13"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="13"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>46905</v>
       </c>
       <c r="B53" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C53" s="25"/>
@@ -4552,13 +4818,15 @@
       <c r="AD53" s="13"/>
       <c r="AE53" s="12"/>
       <c r="AF53" s="13"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="13"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>46935</v>
       </c>
       <c r="B54" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="C54" s="25"/>
@@ -4594,13 +4862,15 @@
       <c r="AD54" s="13"/>
       <c r="AE54" s="12"/>
       <c r="AF54" s="13"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="13"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>46966</v>
       </c>
       <c r="B55" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="C55" s="25"/>
@@ -4636,13 +4906,15 @@
       <c r="AD55" s="13"/>
       <c r="AE55" s="12"/>
       <c r="AF55" s="13"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="13"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>46997</v>
       </c>
       <c r="B56" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C56" s="25"/>
@@ -4675,13 +4947,15 @@
       <c r="AD56" s="13"/>
       <c r="AE56" s="12"/>
       <c r="AF56" s="13"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="13"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>47027</v>
       </c>
       <c r="B57" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>772</v>
       </c>
       <c r="C57" s="25"/>
@@ -4723,13 +4997,15 @@
       <c r="AD57" s="13"/>
       <c r="AE57" s="12"/>
       <c r="AF57" s="13"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="13"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>47058</v>
       </c>
       <c r="B58" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C58" s="25"/>
@@ -4762,13 +5038,15 @@
       <c r="AD58" s="13"/>
       <c r="AE58" s="12"/>
       <c r="AF58" s="13"/>
-    </row>
-    <row r="59" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="13"/>
+    </row>
+    <row r="59" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>47088</v>
       </c>
       <c r="B59" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C59" s="26"/>
@@ -4807,73 +5085,77 @@
       <c r="AD59" s="15"/>
       <c r="AE59" s="14"/>
       <c r="AF59" s="15"/>
-    </row>
-    <row r="60" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG59" s="14"/>
+      <c r="AH59" s="15"/>
+    </row>
+    <row r="60" spans="1:34" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="7">
         <f>SUM(C60:K60)</f>
-        <v>2018.4222</v>
-      </c>
-      <c r="C60" s="38">
+        <v>1993.5900000000001</v>
+      </c>
+      <c r="C60" s="39">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="38">
+      <c r="D60" s="40"/>
+      <c r="E60" s="39">
         <f>SUM(F48:F59)</f>
-        <v>794.42219999999998</v>
-      </c>
-      <c r="F60" s="39"/>
-      <c r="G60" s="38">
+        <v>769.59</v>
+      </c>
+      <c r="F60" s="40"/>
+      <c r="G60" s="39">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="38">
+      <c r="H60" s="40"/>
+      <c r="I60" s="39">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="39"/>
-      <c r="K60" s="38">
+      <c r="J60" s="40"/>
+      <c r="K60" s="39">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="38">
+      <c r="L60" s="40"/>
+      <c r="M60" s="39">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="39"/>
-      <c r="O60" s="38">
+      <c r="N60" s="40"/>
+      <c r="O60" s="39">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="38"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="38"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="38"/>
-      <c r="AF60" s="39"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P60" s="40"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="39"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="40"/>
+      <c r="AE60" s="39"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="40"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>47119</v>
       </c>
       <c r="B61" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="C61" s="24"/>
@@ -4909,13 +5191,15 @@
       <c r="AD61" s="11"/>
       <c r="AE61" s="10"/>
       <c r="AF61" s="11"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="11"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>47150</v>
       </c>
       <c r="B62" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C62" s="25"/>
@@ -4948,13 +5232,15 @@
       <c r="AD62" s="13"/>
       <c r="AE62" s="12"/>
       <c r="AF62" s="13"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="13"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>47178</v>
       </c>
       <c r="B63" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C63" s="25"/>
@@ -4987,13 +5273,15 @@
       <c r="AD63" s="13"/>
       <c r="AE63" s="12"/>
       <c r="AF63" s="13"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="13"/>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>47209</v>
       </c>
       <c r="B64" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>772</v>
       </c>
       <c r="C64" s="25"/>
@@ -5032,13 +5320,15 @@
       <c r="AD64" s="13"/>
       <c r="AE64" s="12"/>
       <c r="AF64" s="13"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="13"/>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>47239</v>
       </c>
       <c r="B65" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C65" s="25"/>
@@ -5071,13 +5361,15 @@
       <c r="AD65" s="13"/>
       <c r="AE65" s="12"/>
       <c r="AF65" s="13"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="13"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>47270</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C66" s="25"/>
@@ -5110,13 +5402,15 @@
       <c r="AD66" s="13"/>
       <c r="AE66" s="12"/>
       <c r="AF66" s="13"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="13"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>47300</v>
       </c>
       <c r="B67" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="C67" s="25"/>
@@ -5152,13 +5446,15 @@
       <c r="AD67" s="13"/>
       <c r="AE67" s="12"/>
       <c r="AF67" s="13"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="13"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>47331</v>
       </c>
       <c r="B68" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C68" s="25"/>
@@ -5191,13 +5487,15 @@
       <c r="AD68" s="13"/>
       <c r="AE68" s="12"/>
       <c r="AF68" s="13"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="13"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>47362</v>
       </c>
       <c r="B69" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C69" s="25"/>
@@ -5230,13 +5528,15 @@
       <c r="AD69" s="13"/>
       <c r="AE69" s="12"/>
       <c r="AF69" s="13"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="13"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>47392</v>
       </c>
       <c r="B70" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>160</v>
       </c>
       <c r="C70" s="25"/>
@@ -5272,13 +5572,15 @@
       <c r="AD70" s="13"/>
       <c r="AE70" s="12"/>
       <c r="AF70" s="13"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="13"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>47423</v>
       </c>
       <c r="B71" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C71" s="25"/>
@@ -5311,13 +5613,15 @@
       <c r="AD71" s="13"/>
       <c r="AE71" s="12"/>
       <c r="AF71" s="13"/>
-    </row>
-    <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="13"/>
+    </row>
+    <row r="72" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>47453</v>
       </c>
       <c r="B72" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="C72" s="26"/>
@@ -5350,8 +5654,10 @@
       <c r="AD72" s="15"/>
       <c r="AE72" s="14"/>
       <c r="AF72" s="15"/>
-    </row>
-    <row r="73" spans="1:32" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="15"/>
+    </row>
+    <row r="73" spans="1:34" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>11</v>
       </c>
@@ -5359,60 +5665,75 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="38">
+      <c r="C73" s="39">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="38">
+      <c r="D73" s="40"/>
+      <c r="E73" s="39">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="38">
+      <c r="F73" s="40"/>
+      <c r="G73" s="39">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="39"/>
-      <c r="I73" s="38">
+      <c r="H73" s="40"/>
+      <c r="I73" s="39">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="39"/>
-      <c r="K73" s="38">
+      <c r="J73" s="40"/>
+      <c r="K73" s="39">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="39"/>
-      <c r="M73" s="38">
+      <c r="L73" s="40"/>
+      <c r="M73" s="39">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="39"/>
-      <c r="O73" s="38">
+      <c r="N73" s="40"/>
+      <c r="O73" s="39">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="38"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="38"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="38"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="38"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="38"/>
-      <c r="Z73" s="39"/>
-      <c r="AA73" s="38"/>
-      <c r="AB73" s="39"/>
-      <c r="AC73" s="38"/>
-      <c r="AD73" s="39"/>
-      <c r="AE73" s="38"/>
-      <c r="AF73" s="39"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="39"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="39"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="39"/>
+      <c r="Z73" s="40"/>
+      <c r="AA73" s="39"/>
+      <c r="AB73" s="40"/>
+      <c r="AC73" s="39"/>
+      <c r="AD73" s="40"/>
+      <c r="AE73" s="39"/>
+      <c r="AF73" s="40"/>
+      <c r="AG73" s="39"/>
+      <c r="AH73" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="195">
+  <mergeCells count="208">
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AC34:AD34"/>
     <mergeCell ref="AC47:AD47"/>
     <mergeCell ref="AC60:AD60"/>
@@ -5626,7 +5947,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="1"/>
@@ -5650,12 +5971,12 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -5675,12 +5996,12 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -5725,12 +6046,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5750,12 +6071,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5820,13 +6141,13 @@
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f>+'Bco Galicia'!B34</f>
-        <v>7934.1856500000004</v>
+        <v>8192.6212500000001</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f>+B21/B20</f>
-        <v>6.4038044601204214E-2</v>
+        <v>6.6123918465189113E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5842,76 +6163,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB2FFED-05C1-45F0-8C76-2F40B9529DBA}">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>0.1095</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>4000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="C3">
+        <f>+A3/B2</f>
+        <v>10152.284263959391</v>
+      </c>
+      <c r="D3" s="57">
+        <f>+C3-A3</f>
+        <v>152.28426395939096</v>
+      </c>
+      <c r="J3">
+        <f>0.08/100</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K3">
+        <v>30.5</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <f>+J3*K3*L3</f>
+        <v>0.2928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4">
-        <f>+C4/A3</f>
-        <v>3734.8272642390293</v>
-      </c>
-      <c r="E4">
-        <f>+C4-D4</f>
-        <v>265.17273576097068</v>
-      </c>
-      <c r="F4">
-        <f>+D4*B2</f>
-        <v>408.96358543417369</v>
-      </c>
-      <c r="G4">
-        <f>+F4-E4</f>
-        <v>143.79084967320301</v>
-      </c>
-      <c r="H4">
-        <f>+G4/C4</f>
-        <v>3.5947712418300755E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <f>+C5/A3</f>
-        <v>933.70681605975733</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="57">
+        <f>+D4+D3</f>
+        <v>362.28426395939096</v>
       </c>
       <c r="E5">
-        <f>+C5-D5</f>
-        <v>66.29318394024267</v>
+        <v>2000</v>
       </c>
       <c r="F5">
-        <f>+D5*B2</f>
-        <v>102.24089635854342</v>
-      </c>
-      <c r="G5">
-        <f>+F5-E5</f>
-        <v>35.947712418300753</v>
-      </c>
-      <c r="H5">
-        <f>+G5/C5</f>
-        <v>3.5947712418300755E-2</v>
+        <f>+D5*E5</f>
+        <v>724568.52791878185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1230</v>
+      </c>
+      <c r="F7">
+        <f>+A3*E7</f>
+        <v>12300000</v>
+      </c>
+      <c r="H7">
+        <f>+F7*J3*G12</f>
+        <v>1456320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G10" s="30">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="30">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="57">
+        <f>+G10-G11</f>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5930,7 +6271,7 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>

--- a/Inversiones/Inversiones.xlsx
+++ b/Inversiones/Inversiones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\OneDrive - YPF\Documentos\GitHub\Personal\Inversiones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/Inversiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD348567-E064-42FC-9033-2A64F931E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{AD348567-E064-42FC-9033-2A64F931E175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9837CF25-B0D1-4883-AFE9-2B0156C5561B}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="195" windowWidth="23835" windowHeight="15285" tabRatio="472" activeTab="2" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
+    <workbookView xWindow="-28410" yWindow="105" windowWidth="25650" windowHeight="15375" tabRatio="472" xr2:uid="{8274FCF7-7E4A-4353-B88C-F82DA0BC4235}"/>
   </bookViews>
   <sheets>
     <sheet name="Bco Galicia" sheetId="1" r:id="rId1"/>
@@ -289,6 +289,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH15" authorId="1" shapeId="0" xr:uid="{D04E89FD-4027-4B0F-BAB3-F3E1822CA49B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V16" authorId="0" shapeId="0" xr:uid="{88CF619A-E343-4F9B-BC0D-BDA56F82B870}">
       <text>
         <r>
@@ -485,6 +509,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="AH18" authorId="1" shapeId="0" xr:uid="{28692994-2A43-4608-B89C-9DB4A03D9F86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eduardo Farina:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10/9/2025</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L19" authorId="0" shapeId="0" xr:uid="{174F8621-6030-42CF-BEAE-5AF5E0284BDE}">
       <text>
         <r>
@@ -533,31 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD24" authorId="1" shapeId="0" xr:uid="{A33B5EE6-B5B0-4AF5-A04D-11924DB538DA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eduardo Farina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-10/9/2025</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH24" authorId="1" shapeId="0" xr:uid="{380B3111-0EC2-4F09-814F-1357B5B53016}">
+    <comment ref="AD24" authorId="1" shapeId="0" xr:uid="{C326CE1A-6C57-4DAB-91B3-4EE478BD63D1}">
       <text>
         <r>
           <rPr>
@@ -629,31 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD30" authorId="1" shapeId="0" xr:uid="{69F4658A-1127-4F33-9CB2-440E745E62D3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eduardo Farina:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-10/9/2025</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AH30" authorId="1" shapeId="0" xr:uid="{A3D755D4-22E8-4EE2-BC3D-656BBB8F49F0}">
+    <comment ref="AD30" authorId="1" shapeId="0" xr:uid="{4D4A9656-4045-4183-A0C4-03F39E4EAF20}">
       <text>
         <r>
           <rPr>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Plazo</t>
   </si>
@@ -953,6 +953,9 @@
   <si>
     <t>MCC1D</t>
   </si>
+  <si>
+    <t>Naranja</t>
+  </si>
 </sst>
 </file>
 
@@ -1517,6 +1520,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1571,7 +1575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1967,8 +1970,8 @@
   </sheetPr>
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,479 +1983,477 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="36"/>
       <c r="B1" s="37"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="43"/>
+      <c r="K1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="41" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="41" t="s">
+      <c r="R1" s="43"/>
+      <c r="S1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="41" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="41" t="s">
+      <c r="V1" s="43"/>
+      <c r="W1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="41" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="41" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="41" t="s">
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="41" t="s">
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH1" s="42"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="43"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="53">
+      <c r="C2" s="54">
         <v>32</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="43">
+      <c r="D2" s="55"/>
+      <c r="E2" s="44">
         <v>32</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="43">
+      <c r="F2" s="45"/>
+      <c r="G2" s="44">
         <v>6</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43">
+      <c r="H2" s="45"/>
+      <c r="I2" s="44">
         <v>32</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="43">
+      <c r="J2" s="45"/>
+      <c r="K2" s="44">
         <v>24</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="43">
+      <c r="L2" s="45"/>
+      <c r="M2" s="44">
         <v>24</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="43">
+      <c r="N2" s="45"/>
+      <c r="O2" s="44">
         <v>32</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="43">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="44">
         <v>32</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="43">
+      <c r="R2" s="45"/>
+      <c r="S2" s="44">
         <v>32</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="43">
+      <c r="T2" s="45"/>
+      <c r="U2" s="44">
         <v>24</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="43">
+      <c r="V2" s="45"/>
+      <c r="W2" s="44">
         <v>18</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="43">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="44">
         <v>32</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="43">
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="44">
         <v>30</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="43">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="44">
         <v>40</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="43">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44">
         <v>40</v>
       </c>
-      <c r="AH2" s="44"/>
-    </row>
-    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AH2" s="45"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="18"/>
-      <c r="C3" s="43">
+      <c r="C3" s="44">
         <v>4</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="43">
+      <c r="D3" s="45"/>
+      <c r="E3" s="44">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="43">
+      <c r="F3" s="45"/>
+      <c r="G3" s="44">
         <v>1</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="43">
+      <c r="H3" s="45"/>
+      <c r="I3" s="44">
         <v>2</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="43">
+      <c r="J3" s="45"/>
+      <c r="K3" s="44">
         <v>2</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="43">
+      <c r="L3" s="45"/>
+      <c r="M3" s="44">
         <v>2</v>
       </c>
-      <c r="N3" s="44"/>
-      <c r="O3" s="43">
+      <c r="N3" s="45"/>
+      <c r="O3" s="44">
         <v>4</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="43">
+      <c r="P3" s="45"/>
+      <c r="Q3" s="44">
         <v>2</v>
       </c>
-      <c r="R3" s="44"/>
-      <c r="S3" s="43">
+      <c r="R3" s="45"/>
+      <c r="S3" s="44">
         <v>4</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="43">
+      <c r="T3" s="45"/>
+      <c r="U3" s="44">
         <v>2</v>
       </c>
-      <c r="V3" s="44"/>
-      <c r="W3" s="43">
+      <c r="V3" s="45"/>
+      <c r="W3" s="44">
         <v>4</v>
       </c>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="43">
+      <c r="X3" s="45"/>
+      <c r="Y3" s="44">
         <v>2</v>
       </c>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="43">
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="44">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="44">
         <v>4</v>
       </c>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="43">
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="44">
         <v>4</v>
       </c>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="43">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="43">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="44"/>
-    </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="45"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="18"/>
-      <c r="C4" s="45">
+      <c r="C4" s="46">
         <v>46501</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="45">
+      <c r="D4" s="47"/>
+      <c r="E4" s="46">
         <v>47027</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="45">
+      <c r="F4" s="47"/>
+      <c r="G4" s="46">
         <v>46174</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="45">
+      <c r="H4" s="47"/>
+      <c r="I4" s="46">
         <v>47392</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="45">
+      <c r="J4" s="47"/>
+      <c r="K4" s="46">
         <v>46702</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="45">
+      <c r="L4" s="47"/>
+      <c r="M4" s="46">
         <v>46367</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="45">
+      <c r="N4" s="47"/>
+      <c r="O4" s="46">
         <v>47500</v>
       </c>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="45">
+      <c r="P4" s="47"/>
+      <c r="Q4" s="46">
         <v>47510</v>
       </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="45">
+      <c r="R4" s="47"/>
+      <c r="S4" s="46">
         <v>46664</v>
       </c>
-      <c r="T4" s="46"/>
-      <c r="U4" s="45">
+      <c r="T4" s="47"/>
+      <c r="U4" s="46">
         <v>46424</v>
       </c>
-      <c r="V4" s="46"/>
-      <c r="W4" s="45">
+      <c r="V4" s="47"/>
+      <c r="W4" s="46">
         <v>46174</v>
       </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="45">
+      <c r="X4" s="47"/>
+      <c r="Y4" s="46">
         <v>47896</v>
       </c>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="45">
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="46">
         <v>46627</v>
       </c>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="45">
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="46">
         <v>47187</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="45">
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="46">
         <v>47187</v>
       </c>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="45">
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="46">
         <v>47187</v>
       </c>
-      <c r="AH4" s="46"/>
-    </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="AH4" s="47"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="43">
+      <c r="C5" s="44">
         <v>32</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="43">
+      <c r="D5" s="45"/>
+      <c r="E5" s="44">
         <f>4*12</f>
         <v>48</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43">
+      <c r="F5" s="45"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="44">
         <v>60</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="43">
+      <c r="J5" s="45"/>
+      <c r="K5" s="44">
         <v>24</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="43">
+      <c r="L5" s="45"/>
+      <c r="M5" s="44">
         <v>24</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="43">
+      <c r="N5" s="45"/>
+      <c r="O5" s="44">
         <v>60</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="43">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="44">
         <v>60</v>
       </c>
-      <c r="R5" s="44"/>
-      <c r="S5" s="43">
+      <c r="R5" s="45"/>
+      <c r="S5" s="44">
         <v>32</v>
       </c>
-      <c r="T5" s="44"/>
-      <c r="U5" s="43">
+      <c r="T5" s="45"/>
+      <c r="U5" s="44">
         <v>24</v>
       </c>
-      <c r="V5" s="44"/>
-      <c r="W5" s="43">
+      <c r="V5" s="45"/>
+      <c r="W5" s="44">
         <v>18</v>
       </c>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="43">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="44">
         <v>60</v>
       </c>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="43">
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="44">
         <v>30</v>
       </c>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="43">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="44">
         <v>60</v>
       </c>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="43">
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="44">
         <v>60</v>
       </c>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="43">
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="44">
         <v>60</v>
       </c>
-      <c r="AH5" s="44"/>
+      <c r="AH5" s="45"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="18"/>
-      <c r="C6" s="47">
+      <c r="C6" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="47">
+      <c r="D6" s="49"/>
+      <c r="E6" s="48">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="47">
+      <c r="F6" s="49"/>
+      <c r="G6" s="48">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="47">
+      <c r="H6" s="49"/>
+      <c r="I6" s="48">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="47">
+      <c r="J6" s="49"/>
+      <c r="K6" s="48">
         <v>0.08</v>
       </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="47">
+      <c r="L6" s="49"/>
+      <c r="M6" s="48">
         <v>0.06</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="47">
+      <c r="N6" s="49"/>
+      <c r="O6" s="48">
         <v>0.08</v>
       </c>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="47">
+      <c r="P6" s="49"/>
+      <c r="Q6" s="48">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="47">
+      <c r="R6" s="49"/>
+      <c r="S6" s="48">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="47">
+      <c r="T6" s="49"/>
+      <c r="U6" s="48">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="V6" s="48"/>
-      <c r="W6" s="47">
+      <c r="V6" s="49"/>
+      <c r="W6" s="48">
         <v>0.1095</v>
       </c>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="47">
+      <c r="X6" s="49"/>
+      <c r="Y6" s="48">
         <v>0.08</v>
       </c>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="47">
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="48">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="47">
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="48">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="47">
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="48">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="AH6" s="48"/>
+      <c r="AH6" s="49"/>
     </row>
     <row r="7" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="49" t="s">
+      <c r="F7" s="51"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="49" t="s">
+      <c r="J7" s="51"/>
+      <c r="K7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="49" t="s">
+      <c r="L7" s="51"/>
+      <c r="M7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="50"/>
-      <c r="O7" s="49" t="s">
+      <c r="N7" s="51"/>
+      <c r="O7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="49" t="s">
+      <c r="P7" s="51"/>
+      <c r="Q7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="50"/>
-      <c r="S7" s="49" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="50"/>
-      <c r="U7" s="49" t="s">
+      <c r="T7" s="51"/>
+      <c r="U7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="50"/>
-      <c r="W7" s="49" t="s">
+      <c r="V7" s="51"/>
+      <c r="W7" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="49" t="s">
+      <c r="X7" s="51"/>
+      <c r="Y7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="49" t="s">
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="49" t="s">
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH7" s="50"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="51"/>
     </row>
     <row r="8" spans="1:34" s="29" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
@@ -2462,70 +2463,70 @@
         <f>SUM(C8:AD8)</f>
         <v>123898</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="52">
         <v>19000</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="51">
+      <c r="D8" s="53"/>
+      <c r="E8" s="52">
         <v>20163</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="51">
+      <c r="F8" s="53"/>
+      <c r="G8" s="52">
         <v>10000</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="51">
+      <c r="H8" s="53"/>
+      <c r="I8" s="52">
         <v>18000</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="51">
+      <c r="J8" s="53"/>
+      <c r="K8" s="52">
         <v>4000</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="51">
+      <c r="L8" s="53"/>
+      <c r="M8" s="52">
         <v>4000</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="51">
+      <c r="N8" s="53"/>
+      <c r="O8" s="52">
         <v>8000</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="51">
+      <c r="P8" s="53"/>
+      <c r="Q8" s="52">
         <v>8000</v>
       </c>
-      <c r="R8" s="52"/>
-      <c r="S8" s="51">
+      <c r="R8" s="53"/>
+      <c r="S8" s="52">
         <v>4000</v>
       </c>
-      <c r="T8" s="52"/>
-      <c r="U8" s="51">
+      <c r="T8" s="53"/>
+      <c r="U8" s="52">
         <v>5000</v>
       </c>
-      <c r="V8" s="52"/>
-      <c r="W8" s="51">
+      <c r="V8" s="53"/>
+      <c r="W8" s="52">
         <v>935</v>
       </c>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="51">
+      <c r="X8" s="53"/>
+      <c r="Y8" s="52">
         <v>4000</v>
       </c>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="51">
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="52">
         <v>11000</v>
       </c>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="51">
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="52">
         <v>7800</v>
       </c>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="51">
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="52">
         <v>30000</v>
       </c>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="51">
-        <v>10152</v>
-      </c>
-      <c r="AH8" s="52"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="52">
+        <v>45000</v>
+      </c>
+      <c r="AH8" s="53"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
@@ -2844,7 +2845,10 @@
       <c r="AE15" s="12"/>
       <c r="AF15" s="13"/>
       <c r="AG15" s="12"/>
-      <c r="AH15" s="13"/>
+      <c r="AH15" s="13">
+        <f>+$AG$8*$AG$6/$AG$3</f>
+        <v>888.75</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -2852,7 +2856,7 @@
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>708.125</v>
+        <v>948.75</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="13"/>
@@ -2890,7 +2894,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="13">
         <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
+        <v>481.24999999999994</v>
       </c>
       <c r="AC16" s="12"/>
       <c r="AD16" s="13"/>
@@ -2905,7 +2909,7 @@
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>254.645625</v>
+        <v>408.69562500000001</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="13"/>
@@ -2941,16 +2945,13 @@
       <c r="AB17" s="13"/>
       <c r="AC17" s="12"/>
       <c r="AD17" s="13">
-        <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
+        <f>+$AC$8*$AC$6/$AC$3</f>
+        <v>308.10000000000002</v>
       </c>
       <c r="AE17" s="12"/>
       <c r="AF17" s="13"/>
       <c r="AG17" s="12"/>
-      <c r="AH17" s="13">
-        <f>+$AG$8*$AG$6/$AG$3</f>
-        <v>200.50200000000001</v>
-      </c>
+      <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
@@ -3005,7 +3006,10 @@
       <c r="AE18" s="12"/>
       <c r="AF18" s="13"/>
       <c r="AG18" s="12"/>
-      <c r="AH18" s="13"/>
+      <c r="AH18" s="13">
+        <f>+$AG$8*$AG$6/$AG$3</f>
+        <v>888.75</v>
+      </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
@@ -3111,88 +3115,88 @@
       </c>
       <c r="B21" s="7">
         <f>SUM(C21:AM21)</f>
-        <v>7368.8432500000008</v>
-      </c>
-      <c r="C21" s="39">
+        <v>9340.5162500000006</v>
+      </c>
+      <c r="C21" s="40">
         <f>SUM(D9:D20)</f>
         <v>1984.5</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="39">
+      <c r="D21" s="41"/>
+      <c r="E21" s="40">
         <f>SUM(F9:F20)</f>
         <v>1539.18</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="39">
+      <c r="F21" s="41"/>
+      <c r="G21" s="40">
         <f>SUM(H9:H20)</f>
         <v>294.83</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="39">
+      <c r="H21" s="41"/>
+      <c r="I21" s="40">
         <f>SUM(J9:J20)</f>
         <v>1224</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="39">
+      <c r="J21" s="41"/>
+      <c r="K21" s="40">
         <f>SUM(L9:L20)</f>
         <v>320</v>
       </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="39">
+      <c r="L21" s="41"/>
+      <c r="M21" s="40">
         <f>SUM(N9:N20)</f>
         <v>240</v>
       </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="39">
+      <c r="N21" s="41"/>
+      <c r="O21" s="40">
         <f>SUM(P9:P20)</f>
         <v>160</v>
       </c>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="39">
+      <c r="P21" s="41"/>
+      <c r="Q21" s="40">
         <f>SUM(R9:R20)</f>
         <v>300</v>
       </c>
-      <c r="R21" s="40"/>
-      <c r="S21" s="39">
+      <c r="R21" s="41"/>
+      <c r="S21" s="40">
         <f>SUM(T9:T20)</f>
         <v>210</v>
       </c>
-      <c r="T21" s="40"/>
-      <c r="U21" s="39">
+      <c r="T21" s="41"/>
+      <c r="U21" s="40">
         <f>SUM(V9:V20)</f>
         <v>237.5</v>
       </c>
-      <c r="V21" s="40"/>
-      <c r="W21" s="39">
+      <c r="V21" s="41"/>
+      <c r="W21" s="40">
         <f>SUM(X9:X20)</f>
         <v>103.65625</v>
       </c>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="39">
+      <c r="X21" s="41"/>
+      <c r="Y21" s="40">
         <f>SUM(Z9:Z20)</f>
         <v>160</v>
       </c>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="39">
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="40">
         <f>SUM(AB9:AB20)</f>
-        <v>240.62499999999997</v>
-      </c>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="39">
+        <v>481.24999999999994</v>
+      </c>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="40">
         <f>SUM(AD9:AD20)</f>
-        <v>154.05000000000001</v>
-      </c>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="39">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="40">
         <f>SUM(AF9:AF20)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="39">
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="40">
         <f>SUM(AH9:AH20)</f>
-        <v>200.50200000000001</v>
-      </c>
-      <c r="AH21" s="40"/>
+        <v>1777.5</v>
+      </c>
+      <c r="AH21" s="41"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
@@ -3239,7 +3243,10 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="11"/>
       <c r="AG22" s="10"/>
-      <c r="AH22" s="11"/>
+      <c r="AH22" s="11">
+        <f>+$AG$8*$AG$6/$AG$3</f>
+        <v>888.75</v>
+      </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
@@ -3247,7 +3254,7 @@
       </c>
       <c r="B23" s="12">
         <f t="shared" si="0"/>
-        <v>758.42499999999995</v>
+        <v>999.05</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="13"/>
@@ -3290,7 +3297,7 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="13">
         <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
+        <v>481.24999999999994</v>
       </c>
       <c r="AC23" s="12"/>
       <c r="AD23" s="13"/>
@@ -3305,7 +3312,7 @@
       </c>
       <c r="B24" s="12">
         <f t="shared" si="0"/>
-        <v>179.645625</v>
+        <v>333.69562500000001</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="13"/>
@@ -3338,16 +3345,13 @@
       <c r="AB24" s="13"/>
       <c r="AC24" s="12"/>
       <c r="AD24" s="13">
-        <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
+        <f>+$AC$8*$AC$6/$AC$3</f>
+        <v>308.10000000000002</v>
       </c>
       <c r="AE24" s="12"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="12"/>
-      <c r="AH24" s="13">
-        <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
-      </c>
+      <c r="AH24" s="13"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
@@ -3402,7 +3406,10 @@
       <c r="AE25" s="12"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="12"/>
-      <c r="AH25" s="13"/>
+      <c r="AH25" s="13">
+        <f>+$AG$8*$AG$6/$AG$3</f>
+        <v>888.75</v>
+      </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
@@ -3550,7 +3557,10 @@
       <c r="AE28" s="12"/>
       <c r="AF28" s="13"/>
       <c r="AG28" s="12"/>
-      <c r="AH28" s="13"/>
+      <c r="AH28" s="13">
+        <f>+$AG$8*$AG$6/$AG$3</f>
+        <v>888.75</v>
+      </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
@@ -3558,7 +3568,7 @@
       </c>
       <c r="B29" s="12">
         <f t="shared" si="0"/>
-        <v>708.125</v>
+        <v>948.75</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="13"/>
@@ -3596,7 +3606,7 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="13">
         <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
+        <v>481.24999999999994</v>
       </c>
       <c r="AC29" s="12"/>
       <c r="AD29" s="13"/>
@@ -3611,7 +3621,7 @@
       </c>
       <c r="B30" s="12">
         <f t="shared" si="0"/>
-        <v>154.05000000000001</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="13"/>
@@ -3641,16 +3651,13 @@
       <c r="AB30" s="13"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="13">
-        <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
+        <f>+$AC$8*$AC$6/$AC$3</f>
+        <v>308.10000000000002</v>
       </c>
       <c r="AE30" s="12"/>
       <c r="AF30" s="13"/>
       <c r="AG30" s="12"/>
-      <c r="AH30" s="13">
-        <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
-      </c>
+      <c r="AH30" s="13"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
@@ -3705,7 +3712,10 @@
       <c r="AE31" s="12"/>
       <c r="AF31" s="13"/>
       <c r="AG31" s="12"/>
-      <c r="AH31" s="13"/>
+      <c r="AH31" s="13">
+        <f>+$AG$8*$AG$6/$AG$3</f>
+        <v>888.75</v>
+      </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
@@ -3810,88 +3820,88 @@
       </c>
       <c r="B34" s="7">
         <f>SUM(C34:AM34)</f>
-        <v>8192.6212500000001</v>
-      </c>
-      <c r="C34" s="39">
+        <v>12228.87125</v>
+      </c>
+      <c r="C34" s="40">
         <f>SUM(D22:D33)</f>
         <v>1330.0000000000002</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="39">
+      <c r="D34" s="41"/>
+      <c r="E34" s="40">
         <f>SUM(F22:F33)</f>
         <v>1539.18</v>
       </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="39">
+      <c r="F34" s="41"/>
+      <c r="G34" s="40">
         <f>SUM(H22:H33)</f>
         <v>75.8</v>
       </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="39">
+      <c r="H34" s="41"/>
+      <c r="I34" s="40">
         <f>SUM(J22:J33)</f>
         <v>1224</v>
       </c>
-      <c r="J34" s="40"/>
-      <c r="K34" s="39">
+      <c r="J34" s="41"/>
+      <c r="K34" s="40">
         <f>SUM(L22:L33)</f>
         <v>320</v>
       </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="39">
+      <c r="L34" s="41"/>
+      <c r="M34" s="40">
         <f>SUM(N22:N33)</f>
         <v>240</v>
       </c>
-      <c r="N34" s="40"/>
-      <c r="O34" s="39">
+      <c r="N34" s="41"/>
+      <c r="O34" s="40">
         <f>SUM(P22:P33)</f>
         <v>640</v>
       </c>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="39">
+      <c r="P34" s="41"/>
+      <c r="Q34" s="40">
         <f>SUM(R22:R33)</f>
         <v>600</v>
       </c>
-      <c r="R34" s="40"/>
-      <c r="S34" s="39">
+      <c r="R34" s="41"/>
+      <c r="S34" s="40">
         <f>SUM(T22:T33)</f>
         <v>280</v>
       </c>
-      <c r="T34" s="40"/>
-      <c r="U34" s="39">
+      <c r="T34" s="41"/>
+      <c r="U34" s="40">
         <f>SUM(V22:V33)</f>
         <v>475</v>
       </c>
-      <c r="V34" s="40"/>
-      <c r="W34" s="39">
+      <c r="V34" s="41"/>
+      <c r="W34" s="40">
         <f>SUM(X22:X33)</f>
         <v>51.191249999999997</v>
       </c>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="39">
+      <c r="X34" s="41"/>
+      <c r="Y34" s="40">
         <f>SUM(Z22:Z33)</f>
         <v>320</v>
       </c>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="39">
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="40">
         <f>SUM(AB22:AB33)</f>
-        <v>481.24999999999994</v>
-      </c>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="39">
+        <v>962.49999999999989</v>
+      </c>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="40">
         <f>SUM(AD22:AD33)</f>
-        <v>308.10000000000002</v>
-      </c>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="39">
+        <v>616.20000000000005</v>
+      </c>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="40">
         <f>SUM(AF22:AF33)</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="39">
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="40">
         <f>SUM(AH22:AH33)</f>
-        <v>308.10000000000002</v>
-      </c>
-      <c r="AH34" s="40"/>
+        <v>3555</v>
+      </c>
+      <c r="AH34" s="41"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
@@ -3946,7 +3956,7 @@
       </c>
       <c r="B36" s="12">
         <f t="shared" si="0"/>
-        <v>708.125</v>
+        <v>948.75</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="13"/>
@@ -3984,7 +3994,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="13">
         <f>+$AA$8*$AA$6/$AA$3</f>
-        <v>240.62499999999997</v>
+        <v>481.24999999999994</v>
       </c>
       <c r="AC36" s="12"/>
       <c r="AD36" s="13"/>
@@ -3999,7 +4009,7 @@
       </c>
       <c r="B37" s="12">
         <f t="shared" si="0"/>
-        <v>154.05000000000001</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="13"/>
@@ -4030,14 +4040,14 @@
       <c r="AC37" s="12"/>
       <c r="AD37" s="13">
         <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="AE37" s="12"/>
       <c r="AF37" s="13"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="13">
         <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
+        <v>308.10000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -4280,7 +4290,7 @@
       </c>
       <c r="B43" s="12">
         <f t="shared" si="0"/>
-        <v>154.05000000000001</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="13"/>
@@ -4311,14 +4321,14 @@
       <c r="AC43" s="12"/>
       <c r="AD43" s="13">
         <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="AE43" s="12"/>
       <c r="AF43" s="13"/>
       <c r="AG43" s="12"/>
       <c r="AH43" s="13">
         <f>+$AC$8*$AC$6/$AA$3</f>
-        <v>154.05000000000001</v>
+        <v>308.10000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
@@ -4474,86 +4484,86 @@
         <f>SUM(C47:Q47)</f>
         <v>4335.68</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="40">
         <f>SUM(D35:D46)</f>
         <v>332.50000000000006</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="39">
+      <c r="D47" s="41"/>
+      <c r="E47" s="40">
         <f>SUM(F35:F46)</f>
         <v>1539.18</v>
       </c>
-      <c r="F47" s="40"/>
-      <c r="G47" s="39">
+      <c r="F47" s="41"/>
+      <c r="G47" s="40">
         <f>SUM(H35:H46)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="39">
+      <c r="H47" s="41"/>
+      <c r="I47" s="40">
         <f>SUM(J35:J46)</f>
         <v>1224</v>
       </c>
-      <c r="J47" s="40"/>
-      <c r="K47" s="39">
+      <c r="J47" s="41"/>
+      <c r="K47" s="40">
         <f>SUM(L35:L46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="40"/>
-      <c r="M47" s="39">
+      <c r="L47" s="41"/>
+      <c r="M47" s="40">
         <f>SUM(N35:N46)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="40"/>
-      <c r="O47" s="39">
+      <c r="N47" s="41"/>
+      <c r="O47" s="40">
         <f>SUM(P35:P46)</f>
         <v>640</v>
       </c>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="39">
+      <c r="P47" s="41"/>
+      <c r="Q47" s="40">
         <f>SUM(R35:R46)</f>
         <v>600</v>
       </c>
-      <c r="R47" s="40"/>
-      <c r="S47" s="39">
+      <c r="R47" s="41"/>
+      <c r="S47" s="40">
         <f>SUM(T35:T46)</f>
         <v>280</v>
       </c>
-      <c r="T47" s="40"/>
-      <c r="U47" s="39">
+      <c r="T47" s="41"/>
+      <c r="U47" s="40">
         <f t="shared" ref="U47" si="2">SUM(V35:V46)</f>
         <v>237.5</v>
       </c>
-      <c r="V47" s="40"/>
-      <c r="W47" s="39">
+      <c r="V47" s="41"/>
+      <c r="W47" s="40">
         <f t="shared" ref="W47" si="3">SUM(X35:X46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="39">
+      <c r="X47" s="41"/>
+      <c r="Y47" s="40">
         <f t="shared" ref="Y47" si="4">SUM(Z35:Z46)</f>
         <v>320</v>
       </c>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="39">
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="40">
         <f t="shared" ref="AA47" si="5">SUM(AB35:AB46)</f>
-        <v>240.62499999999997</v>
-      </c>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="39">
+        <v>481.24999999999994</v>
+      </c>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="40">
         <f t="shared" ref="AC47" si="6">SUM(AD35:AD46)</f>
-        <v>308.10000000000002</v>
-      </c>
-      <c r="AD47" s="40"/>
-      <c r="AE47" s="39">
+        <v>616.20000000000005</v>
+      </c>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="40">
         <f t="shared" ref="AE47" si="7">SUM(AF35:AF46)</f>
         <v>0</v>
       </c>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="39">
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="40">
         <f t="shared" ref="AG47" si="8">SUM(AH35:AH46)</f>
-        <v>308.10000000000002</v>
-      </c>
-      <c r="AH47" s="40"/>
+        <v>616.20000000000005</v>
+      </c>
+      <c r="AH47" s="41"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
@@ -5096,59 +5106,59 @@
         <f>SUM(C60:K60)</f>
         <v>1993.5900000000001</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="40">
         <f>SUM(D48:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="39">
+      <c r="D60" s="41"/>
+      <c r="E60" s="40">
         <f>SUM(F48:F59)</f>
         <v>769.59</v>
       </c>
-      <c r="F60" s="40"/>
-      <c r="G60" s="39">
+      <c r="F60" s="41"/>
+      <c r="G60" s="40">
         <f>SUM(H48:H59)</f>
         <v>0</v>
       </c>
-      <c r="H60" s="40"/>
-      <c r="I60" s="39">
+      <c r="H60" s="41"/>
+      <c r="I60" s="40">
         <f>SUM(J48:J59)</f>
         <v>1224</v>
       </c>
-      <c r="J60" s="40"/>
-      <c r="K60" s="39">
+      <c r="J60" s="41"/>
+      <c r="K60" s="40">
         <f>SUM(L48:L59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="40"/>
-      <c r="M60" s="39">
+      <c r="L60" s="41"/>
+      <c r="M60" s="40">
         <f>SUM(N48:N59)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="40"/>
-      <c r="O60" s="39">
+      <c r="N60" s="41"/>
+      <c r="O60" s="40">
         <f>SUM(P48:P59)</f>
         <v>640</v>
       </c>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="40"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="40"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="40"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="40"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="40"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="41"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="41"/>
+      <c r="AC60" s="40"/>
+      <c r="AD60" s="41"/>
+      <c r="AE60" s="40"/>
+      <c r="AF60" s="41"/>
+      <c r="AG60" s="40"/>
+      <c r="AH60" s="41"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
@@ -5665,114 +5675,194 @@
         <f>SUM(C73:K73)</f>
         <v>612</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C73" s="40">
         <f>SUM(D61:D72)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="39">
+      <c r="D73" s="41"/>
+      <c r="E73" s="40">
         <f>SUM(F61:F72)</f>
         <v>0</v>
       </c>
-      <c r="F73" s="40"/>
-      <c r="G73" s="39">
+      <c r="F73" s="41"/>
+      <c r="G73" s="40">
         <f>SUM(H61:H72)</f>
         <v>0</v>
       </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="39">
+      <c r="H73" s="41"/>
+      <c r="I73" s="40">
         <f>SUM(J61:J72)</f>
         <v>612</v>
       </c>
-      <c r="J73" s="40"/>
-      <c r="K73" s="39">
+      <c r="J73" s="41"/>
+      <c r="K73" s="40">
         <f>SUM(L61:L72)</f>
         <v>0</v>
       </c>
-      <c r="L73" s="40"/>
-      <c r="M73" s="39">
+      <c r="L73" s="41"/>
+      <c r="M73" s="40">
         <f>SUM(N61:N72)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="40"/>
-      <c r="O73" s="39">
+      <c r="N73" s="41"/>
+      <c r="O73" s="40">
         <f>SUM(P61:P72)</f>
         <v>640</v>
       </c>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="39"/>
-      <c r="AB73" s="40"/>
-      <c r="AC73" s="39"/>
-      <c r="AD73" s="40"/>
-      <c r="AE73" s="39"/>
-      <c r="AF73" s="40"/>
-      <c r="AG73" s="39"/>
-      <c r="AH73" s="40"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="41"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="40"/>
+      <c r="AB73" s="41"/>
+      <c r="AC73" s="40"/>
+      <c r="AD73" s="41"/>
+      <c r="AE73" s="40"/>
+      <c r="AF73" s="41"/>
+      <c r="AG73" s="40"/>
+      <c r="AH73" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AC34:AD34"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="AC60:AD60"/>
-    <mergeCell ref="AC73:AD73"/>
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="AA60:AB60"/>
-    <mergeCell ref="AA73:AB73"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="Y73:Z73"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AE73:AF73"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="S73:T73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="U47:V47"/>
     <mergeCell ref="W60:X60"/>
     <mergeCell ref="W73:X73"/>
     <mergeCell ref="W6:X6"/>
@@ -5797,138 +5887,58 @@
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="S73:T73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AE73:AF73"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="Y73:Z73"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AA60:AB60"/>
+    <mergeCell ref="AA73:AB73"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC34:AD34"/>
+    <mergeCell ref="AC47:AD47"/>
+    <mergeCell ref="AC60:AD60"/>
+    <mergeCell ref="AC73:AD73"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AG73:AH73"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AG21:AH21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
@@ -5971,12 +5981,12 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -5996,12 +6006,12 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -6046,12 +6056,12 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -6071,12 +6081,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -6141,13 +6151,13 @@
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f>+'Bco Galicia'!B34</f>
-        <v>8192.6212500000001</v>
+        <v>12228.87125</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <f>+B21/B20</f>
-        <v>6.6123918465189113E-2</v>
+        <v>9.870111906568306E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6165,7 +6175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB2FFED-05C1-45F0-8C76-2F40B9529DBA}">
   <dimension ref="A2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -6189,7 +6199,7 @@
         <f>+A3/B2</f>
         <v>10152.284263959391</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="39">
         <f>+C3-A3</f>
         <v>152.28426395939096</v>
       </c>
@@ -6214,7 +6224,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="57">
+      <c r="D5" s="39">
         <f>+D4+D3</f>
         <v>362.28426395939096</v>
       </c>
@@ -6250,7 +6260,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="57">
+      <c r="G12" s="39">
         <f>+G10-G11</f>
         <v>148</v>
       </c>
